--- a/test/config/LevelMatch.xlsx
+++ b/test/config/LevelMatch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Data\PPO_M3_Simulator\test\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA33325-3D08-440C-9D0F-CD80C1C60261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEE01D7-A837-43B2-8269-38159FEECD50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12510" xr2:uid="{B9903A0D-43CB-4CC0-90C5-F208CAF6E270}"/>
   </bookViews>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91DACD3-D001-456A-B059-56F94030D226}">
   <dimension ref="A1:N278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="R282" sqref="R282"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
         <v>11.49</v>
       </c>
       <c r="J2">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <f>F2*C2</f>
@@ -587,7 +587,7 @@
       </c>
       <c r="L2">
         <f>G2*D2*J2</f>
-        <v>11.427854457243818</v>
+        <v>4.5711417828975272</v>
       </c>
       <c r="M2">
         <f>H2/E2</f>
@@ -595,7 +595,7 @@
       </c>
       <c r="N2">
         <f>L2+M2+H2+K2</f>
-        <v>16.193569598261764</v>
+        <v>9.3368569239154731</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
         <v>28.25</v>
       </c>
       <c r="J3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K66" si="0">F3*C3</f>
@@ -635,7 +635,7 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" si="1">G3*D3*J3</f>
-        <v>17.45267078460876</v>
+        <v>6.9810683138435037</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M66" si="2">H3*E3</f>
@@ -643,7 +643,7 @@
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="3">L3+M3+H3+K3</f>
-        <v>28.289030556828092</v>
+        <v>17.817428086062836</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
         <v>70.260000000000005</v>
       </c>
       <c r="J4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
@@ -683,7 +683,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>46.954974223947389</v>
+        <v>18.781989689578957</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
-        <v>81.834502746680272</v>
+        <v>53.66151821231184</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>38.39</v>
       </c>
       <c r="J5">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
@@ -731,7 +731,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>24.506637231950627</v>
+        <v>9.8026548927802502</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>46.316689474341679</v>
+        <v>31.612707135171306</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>19.22</v>
       </c>
       <c r="J6">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
@@ -779,7 +779,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>23.777655896966966</v>
+        <v>9.511062358786786</v>
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
@@ -787,7 +787,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>33.793225515610523</v>
+        <v>19.526631977430345</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -819,7 +819,7 @@
         <v>32.130000000000003</v>
       </c>
       <c r="J7">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
@@ -827,7 +827,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>17.088180117116927</v>
+        <v>6.8352720468467707</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
@@ -835,7 +835,7 @@
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>34.856149900182871</v>
+        <v>24.603241829912715</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -867,7 +867,7 @@
         <v>62.91</v>
       </c>
       <c r="J8">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
@@ -875,7 +875,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>57.868253621202747</v>
+        <v>23.147301448481098</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>86.590506731223442</v>
+        <v>51.869554558501797</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -915,7 +915,7 @@
         <v>39.369999999999997</v>
       </c>
       <c r="J9">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
@@ -923,7 +923,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>17.922803799686232</v>
+        <v>7.1691215198744924</v>
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
@@ -931,7 +931,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
-        <v>38.12356584305811</v>
+        <v>27.369883563246376</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -963,7 +963,7 @@
         <v>86.83</v>
       </c>
       <c r="J10">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
@@ -971,7 +971,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>34.796363410382469</v>
+        <v>13.918545364152989</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
@@ -979,7 +979,7 @@
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
-        <v>73.729025441348355</v>
+        <v>52.851207395118877</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1011,7 +1011,7 @@
         <v>39.979999999999997</v>
       </c>
       <c r="J11">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="L11">
         <f>G11*D11*J11</f>
-        <v>20.792165459373159</v>
+        <v>8.3168661837492639</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
-        <v>44.991070139517326</v>
+        <v>32.51577086389343</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1059,7 +1059,7 @@
         <v>70.38</v>
       </c>
       <c r="J12">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>32.922713072900336</v>
+        <v>13.169085229160135</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
-        <v>72.666235645175803</v>
+        <v>52.912607801435605</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1107,7 +1107,7 @@
         <v>25.25</v>
       </c>
       <c r="J13">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>13.543815296656563</v>
+        <v>5.4175261186626251</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>29.038169873062156</v>
+        <v>20.911880695068216</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1155,7 +1155,7 @@
         <v>35.450000000000003</v>
       </c>
       <c r="J14">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>8.6937375659170968</v>
+        <v>3.4774950263668387</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
-        <v>28.127177283033483</v>
+        <v>22.910934743483224</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1203,7 +1203,7 @@
         <v>36.86</v>
       </c>
       <c r="J15">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>11.905709573029327</v>
+        <v>4.7622838292117304</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
-        <v>39.251235259663908</v>
+        <v>32.107809515846313</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1251,7 +1251,7 @@
         <v>84.5</v>
       </c>
       <c r="J16">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>39.078992753198776</v>
+        <v>15.63159710127951</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="3"/>
-        <v>95.736349929981316</v>
+        <v>72.28895427806205</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1299,7 +1299,7 @@
         <v>30.13</v>
       </c>
       <c r="J17">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>11.027770557751984</v>
+        <v>4.4111082231007934</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
-        <v>32.236718245744186</v>
+        <v>25.62005591109299</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1347,7 +1347,7 @@
         <v>47.15</v>
       </c>
       <c r="J18">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>17.633726319046133</v>
+        <v>7.053490527618453</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
-        <v>51.492346916300903</v>
+        <v>40.912111124873221</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1395,7 +1395,7 @@
         <v>33.65</v>
       </c>
       <c r="J19">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>16.937799050838485</v>
+        <v>6.7751196203353938</v>
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N19">
         <f t="shared" si="3"/>
-        <v>39.489578523514588</v>
+        <v>29.326899093011491</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
         <v>45.11</v>
       </c>
       <c r="J20">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>10.224777555973928</v>
+        <v>4.0899110223895709</v>
       </c>
       <c r="M20">
         <f t="shared" si="2"/>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="N20">
         <f t="shared" si="3"/>
-        <v>41.715912485736155</v>
+        <v>35.581045952151797</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1491,7 +1491,7 @@
         <v>81.5</v>
       </c>
       <c r="J21">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>33.725706074678399</v>
+        <v>13.490282429871359</v>
       </c>
       <c r="M21">
         <f t="shared" si="2"/>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="N21">
         <f t="shared" si="3"/>
-        <v>101.07708901512272</v>
+        <v>80.841665370315681</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1539,7 +1539,7 @@
         <v>31.5</v>
       </c>
       <c r="J22">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>20.342489378377447</v>
+        <v>8.1369957513509785</v>
       </c>
       <c r="M22">
         <f t="shared" si="2"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="N22">
         <f t="shared" si="3"/>
-        <v>48.671167966768721</v>
+        <v>36.46567433974225</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1587,7 +1587,7 @@
         <v>60</v>
       </c>
       <c r="J23">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>26.7664333926019</v>
+        <v>10.70657335704076</v>
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="3"/>
-        <v>75.544813832668225</v>
+        <v>59.484953797107082</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1635,7 +1635,7 @@
         <v>45</v>
       </c>
       <c r="J24">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>14.989202699857065</v>
+        <v>5.995681079942826</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="3"/>
-        <v>58.509664417560245</v>
+        <v>49.516142797646012</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1683,7 +1683,7 @@
         <v>78.5</v>
       </c>
       <c r="J25">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>19.27183204267337</v>
+        <v>7.7087328170693477</v>
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="N25">
         <f t="shared" si="3"/>
-        <v>87.933743990294246</v>
+        <v>76.370644764690226</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1731,7 +1731,7 @@
         <v>62.5</v>
       </c>
       <c r="J26">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>24.625118721193751</v>
+        <v>9.8500474884775002</v>
       </c>
       <c r="M26">
         <f t="shared" si="2"/>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="3"/>
-        <v>72.643337804547059</v>
+        <v>57.868266571830809</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1779,7 +1779,7 @@
         <v>60</v>
       </c>
       <c r="J27">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>20.342489378377447</v>
+        <v>8.1369957513509785</v>
       </c>
       <c r="M27">
         <f t="shared" si="2"/>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="3"/>
-        <v>71.369748501268845</v>
+        <v>59.16425487424236</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1827,7 +1827,7 @@
         <v>43</v>
       </c>
       <c r="J28">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>8.5652586856326085</v>
+        <v>3.4261034742530434</v>
       </c>
       <c r="M28">
         <f t="shared" si="2"/>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="3"/>
-        <v>40.081165632497466</v>
+        <v>34.942010421117899</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1875,7 +1875,7 @@
         <v>67</v>
       </c>
       <c r="J29">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>23.554461385489674</v>
+        <v>9.4217845541958702</v>
       </c>
       <c r="M29">
         <f t="shared" si="2"/>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="N29">
         <f t="shared" si="3"/>
-        <v>63.321524400598761</v>
+        <v>49.188847569304954</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1923,7 +1923,7 @@
         <v>54</v>
       </c>
       <c r="J30">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>23.554461385489674</v>
+        <v>9.4217845541958702</v>
       </c>
       <c r="M30">
         <f t="shared" si="2"/>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="3"/>
-        <v>70.82832180578697</v>
+        <v>56.695644974493163</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -1971,7 +1971,7 @@
         <v>98</v>
       </c>
       <c r="J31">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>32.119720071122288</v>
+        <v>12.847888028448914</v>
       </c>
       <c r="M31">
         <f t="shared" si="2"/>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="3"/>
-        <v>121.78170152088173</v>
+        <v>102.50986947820836</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2019,7 +2019,7 @@
         <v>51</v>
       </c>
       <c r="J32">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>9.6359160213366852</v>
+        <v>3.8543664085346738</v>
       </c>
       <c r="M32">
         <f t="shared" si="2"/>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="3"/>
-        <v>51.27967838774282</v>
+        <v>45.49812877494081</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2067,7 +2067,7 @@
         <v>32</v>
       </c>
       <c r="J33">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>29.978405399714131</v>
+        <v>11.991362159885652</v>
       </c>
       <c r="M33">
         <f t="shared" si="2"/>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="3"/>
-        <v>58.873254332225912</v>
+        <v>40.886211092397431</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2115,7 +2115,7 @@
         <v>72.5</v>
       </c>
       <c r="J34">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>9.1005873534846451</v>
+        <v>3.6402349413938584</v>
       </c>
       <c r="M34">
         <f t="shared" si="2"/>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="N34">
         <f t="shared" si="3"/>
-        <v>67.618841187907236</v>
+        <v>62.158488775816458</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2163,7 +2163,7 @@
         <v>28</v>
       </c>
       <c r="J35">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>8.5652586856326085</v>
+        <v>3.4261034742530434</v>
       </c>
       <c r="M35">
         <f t="shared" si="2"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="N35">
         <f t="shared" si="3"/>
-        <v>31.442027539068235</v>
+        <v>26.302872327688672</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2211,7 +2211,7 @@
         <v>79</v>
       </c>
       <c r="J36">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>11.777230692744837</v>
+        <v>4.7108922770979351</v>
       </c>
       <c r="M36">
         <f t="shared" si="2"/>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="N36">
         <f t="shared" si="3"/>
-        <v>67.65862381915737</v>
+        <v>60.592285403510459</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2259,7 +2259,7 @@
         <v>56</v>
       </c>
       <c r="J37">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>21.41314671408152</v>
+        <v>8.5652586856326085</v>
       </c>
       <c r="M37">
         <f t="shared" si="2"/>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="N37">
         <f t="shared" si="3"/>
-        <v>75.061463851325982</v>
+        <v>62.213575822877068</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2307,7 +2307,7 @@
         <v>30</v>
       </c>
       <c r="J38">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>35.331692078234511</v>
+        <v>14.132676831293804</v>
       </c>
       <c r="M38">
         <f t="shared" si="2"/>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="3"/>
-        <v>65.715258336858341</v>
+        <v>44.516243089917637</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2355,7 +2355,7 @@
         <v>41.18</v>
       </c>
       <c r="J39">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>22.59991310087646</v>
+        <v>9.0399652403505844</v>
       </c>
       <c r="M39">
         <f t="shared" si="2"/>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="N39">
         <f t="shared" si="3"/>
-        <v>50.491724731941069</v>
+        <v>36.931776871415195</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -2403,7 +2403,7 @@
         <v>30.99</v>
       </c>
       <c r="J40">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>19.760133444221829</v>
+        <v>7.9040533776887312</v>
       </c>
       <c r="M40">
         <f t="shared" si="2"/>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="N40">
         <f t="shared" si="3"/>
-        <v>41.009232015866004</v>
+        <v>29.153151949332909</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -2451,7 +2451,7 @@
         <v>50.59</v>
       </c>
       <c r="J41">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>26.31098878855013</v>
+        <v>10.524395515420052</v>
       </c>
       <c r="M41">
         <f t="shared" si="2"/>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="N41">
         <f t="shared" si="3"/>
-        <v>59.756930508686281</v>
+        <v>43.970337235556201</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -2499,7 +2499,7 @@
         <v>67.5</v>
       </c>
       <c r="J42">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>13.983763460799333</v>
+        <v>5.5935053843197329</v>
       </c>
       <c r="M42">
         <f t="shared" si="2"/>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="N42">
         <f t="shared" si="3"/>
-        <v>78.307145205852166</v>
+        <v>69.916887129372569</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -2547,7 +2547,7 @@
         <v>45.49</v>
       </c>
       <c r="J43">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>25.762394991241848</v>
+        <v>10.304957996496739</v>
       </c>
       <c r="M43">
         <f t="shared" si="2"/>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="N43">
         <f t="shared" si="3"/>
-        <v>51.570612780847348</v>
+        <v>36.113175786102239</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -2595,7 +2595,7 @@
         <v>44.57</v>
       </c>
       <c r="J44">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>29.591794831276129</v>
+        <v>11.836717932510451</v>
       </c>
       <c r="M44">
         <f t="shared" si="2"/>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="N44">
         <f t="shared" si="3"/>
-        <v>58.357241424880506</v>
+        <v>40.602164526114827</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -2643,7 +2643,7 @@
         <v>44.92</v>
       </c>
       <c r="J45">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>24.116613599317006</v>
+        <v>9.646645439726802</v>
       </c>
       <c r="M45">
         <f t="shared" si="2"/>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="N45">
         <f t="shared" si="3"/>
-        <v>54.299898072841884</v>
+        <v>39.829929913251682</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -2691,7 +2691,7 @@
         <v>73</v>
       </c>
       <c r="J46">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>20.975645191198996</v>
+        <v>8.3902580764795989</v>
       </c>
       <c r="M46">
         <f t="shared" si="2"/>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="N46">
         <f t="shared" si="3"/>
-        <v>92.193079865355784</v>
+        <v>79.607692750636375</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -2739,7 +2739,7 @@
         <v>51.7</v>
       </c>
       <c r="J47">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>33.571789047042088</v>
+        <v>13.428715618816836</v>
       </c>
       <c r="M47">
         <f t="shared" si="2"/>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="N47">
         <f t="shared" si="3"/>
-        <v>66.378157608201491</v>
+        <v>46.235084179976241</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -2787,7 +2787,7 @@
         <v>59.67</v>
       </c>
       <c r="J48">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>34.851841240761409</v>
+        <v>13.940736496304565</v>
       </c>
       <c r="M48">
         <f t="shared" si="2"/>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="N48">
         <f t="shared" si="3"/>
-        <v>75.07570405939866</v>
+        <v>54.16459931494181</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -2835,7 +2835,7 @@
         <v>53.87</v>
       </c>
       <c r="J49">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>30.775036354882221</v>
+        <v>12.310014541952889</v>
       </c>
       <c r="M49">
         <f t="shared" si="2"/>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="N49">
         <f t="shared" si="3"/>
-        <v>67.681976218391895</v>
+        <v>49.216954405462559</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -2883,7 +2883,7 @@
         <v>85.47</v>
       </c>
       <c r="J50">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>53.61159776047991</v>
+        <v>21.444639104191964</v>
       </c>
       <c r="M50">
         <f t="shared" si="2"/>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="N50">
         <f t="shared" si="3"/>
-        <v>109.26022770639199</v>
+        <v>77.093269050104041</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -2931,7 +2931,7 @@
         <v>100.5</v>
       </c>
       <c r="J51">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>54.32154267464356</v>
+        <v>21.728617069857425</v>
       </c>
       <c r="M51">
         <f t="shared" si="2"/>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="N51">
         <f t="shared" si="3"/>
-        <v>137.145977511214</v>
+        <v>104.55305190642785</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -2979,7 +2979,7 @@
         <v>45.5</v>
       </c>
       <c r="J52">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>19.362134022645229</v>
+        <v>7.7448536090580919</v>
       </c>
       <c r="M52">
         <f t="shared" si="2"/>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="N52">
         <f t="shared" si="3"/>
-        <v>63.003356980386215</v>
+        <v>51.386076566799076</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -3027,7 +3027,7 @@
         <v>55</v>
       </c>
       <c r="J53">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>24.202667528306534</v>
+        <v>9.6810670113226145</v>
       </c>
       <c r="M53">
         <f t="shared" si="2"/>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="N53">
         <f t="shared" si="3"/>
-        <v>77.950945663416505</v>
+        <v>63.429345146432581</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -3075,7 +3075,7 @@
         <v>82.25</v>
       </c>
       <c r="J54">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>36.035082764367509</v>
+        <v>14.414033105747004</v>
       </c>
       <c r="M54">
         <f t="shared" si="2"/>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="N54">
         <f t="shared" si="3"/>
-        <v>120.79868198297623</v>
+        <v>99.177632324355727</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -3123,7 +3123,7 @@
         <v>64.25</v>
       </c>
       <c r="J55">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>22.858074887845063</v>
+        <v>9.1432299551380254</v>
       </c>
       <c r="M55">
         <f t="shared" si="2"/>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="N55">
         <f t="shared" si="3"/>
-        <v>74.297779249961707</v>
+        <v>60.582934317254669</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -3171,7 +3171,7 @@
         <v>71.5</v>
       </c>
       <c r="J56">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>25.27834164067572</v>
+        <v>10.111336656270288</v>
       </c>
       <c r="M56">
         <f t="shared" si="2"/>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="N56">
         <f t="shared" si="3"/>
-        <v>93.251105676691424</v>
+        <v>78.084100692286</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -3219,7 +3219,7 @@
         <v>80.5</v>
       </c>
       <c r="J57">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>54.32154267464356</v>
+        <v>21.728617069857425</v>
       </c>
       <c r="M57">
         <f t="shared" si="2"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="N57">
         <f t="shared" si="3"/>
-        <v>123.63511522862881</v>
+        <v>91.042189623842674</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3267,7 +3267,7 @@
         <v>50.5</v>
       </c>
       <c r="J58">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>15.059437573168513</v>
+        <v>6.023775029267405</v>
       </c>
       <c r="M58">
         <f t="shared" si="2"/>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="N58">
         <f t="shared" si="3"/>
-        <v>65.110830832501549</v>
+        <v>56.075168288600452</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3315,7 +3315,7 @@
         <v>72.5</v>
       </c>
       <c r="J59">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>59.162076180304872</v>
+        <v>23.664830472121949</v>
       </c>
       <c r="M59">
         <f t="shared" si="2"/>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="N59">
         <f t="shared" si="3"/>
-        <v>123.01740949278383</v>
+        <v>87.520163784600911</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -3363,7 +3363,7 @@
         <v>94.5</v>
       </c>
       <c r="J60">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>46.791823888059305</v>
+        <v>18.716729555223722</v>
       </c>
       <c r="M60">
         <f t="shared" si="2"/>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="N60">
         <f t="shared" si="3"/>
-        <v>129.02074221485677</v>
+        <v>100.94564788202119</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -3411,7 +3411,7 @@
         <v>74</v>
       </c>
       <c r="J61">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>61.313424405043229</v>
+        <v>24.525369762017291</v>
       </c>
       <c r="M61">
         <f t="shared" si="2"/>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="N61">
         <f t="shared" si="3"/>
-        <v>126.08110329026289</v>
+        <v>89.293048647236958</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -3459,7 +3459,7 @@
         <v>87.38</v>
       </c>
       <c r="J62">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>65.755958489127948</v>
+        <v>26.302383395651177</v>
       </c>
       <c r="M62">
         <f t="shared" si="2"/>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="N62">
         <f t="shared" si="3"/>
-        <v>141.55095522192633</v>
+        <v>102.09738012844957</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -3507,7 +3507,7 @@
         <v>45</v>
       </c>
       <c r="J63">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>19.362134022645229</v>
+        <v>7.7448536090580919</v>
       </c>
       <c r="M63">
         <f t="shared" si="2"/>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="N63">
         <f t="shared" si="3"/>
-        <v>51.991873327745523</v>
+        <v>40.374592914158384</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -3555,7 +3555,7 @@
         <v>46</v>
       </c>
       <c r="J64">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>41.951290382397993</v>
+        <v>16.780516152959198</v>
       </c>
       <c r="M64">
         <f t="shared" si="2"/>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="N64">
         <f t="shared" si="3"/>
-        <v>86.092230162588891</v>
+        <v>60.921455933150099</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -3603,7 +3603,7 @@
         <v>68</v>
       </c>
       <c r="J65">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>90.356625439011083</v>
+        <v>36.14265017560443</v>
       </c>
       <c r="M65">
         <f t="shared" si="2"/>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="N65">
         <f t="shared" si="3"/>
-        <v>146.39764315217639</v>
+        <v>92.183667888769705</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -3651,7 +3651,7 @@
         <v>77</v>
       </c>
       <c r="J66">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>46.791823888059305</v>
+        <v>18.716729555223722</v>
       </c>
       <c r="M66">
         <f t="shared" si="2"/>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="N66">
         <f t="shared" si="3"/>
-        <v>108.80663186011881</v>
+        <v>80.731537527283223</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -3699,7 +3699,7 @@
         <v>37.5</v>
       </c>
       <c r="J67">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K67">
         <f t="shared" ref="K67:K130" si="4">F67*C67</f>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L130" si="5">G67*D67*J67</f>
-        <v>37.64859393292128</v>
+        <v>15.059437573168513</v>
       </c>
       <c r="M67">
         <f t="shared" ref="M67:M130" si="6">H67*E67</f>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N130" si="7">L67+M67+H67+K67</f>
-        <v>71.666644340805178</v>
+        <v>49.077487981052407</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -3747,7 +3747,7 @@
         <v>43.5</v>
       </c>
       <c r="J68">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K68">
         <f t="shared" si="4"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="L68">
         <f t="shared" si="5"/>
-        <v>32.270223371075382</v>
+        <v>12.908089348430153</v>
       </c>
       <c r="M68">
         <f t="shared" si="6"/>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="N68">
         <f t="shared" si="7"/>
-        <v>75.927280523754391</v>
+        <v>56.565146501109155</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -3795,7 +3795,7 @@
         <v>82.5</v>
       </c>
       <c r="J69">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K69">
         <f t="shared" si="4"/>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="L69">
         <f t="shared" si="5"/>
-        <v>60.23775029267405</v>
+        <v>24.09510011706962</v>
       </c>
       <c r="M69">
         <f t="shared" si="6"/>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="N69">
         <f t="shared" si="7"/>
-        <v>130.06687386404724</v>
+        <v>93.924223688442794</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -3843,7 +3843,7 @@
         <v>55</v>
       </c>
       <c r="J70">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K70">
         <f t="shared" si="4"/>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="L70">
         <f t="shared" si="5"/>
-        <v>46.791823888059305</v>
+        <v>18.716729555223722</v>
       </c>
       <c r="M70">
         <f t="shared" si="6"/>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="N70">
         <f t="shared" si="7"/>
-        <v>97.763479817602075</v>
+        <v>69.688385484766485</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -3891,7 +3891,7 @@
         <v>62</v>
       </c>
       <c r="J71">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K71">
         <f t="shared" si="4"/>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="L71">
         <f t="shared" si="5"/>
-        <v>54.32154267464356</v>
+        <v>21.728617069857425</v>
       </c>
       <c r="M71">
         <f t="shared" si="6"/>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="N71">
         <f t="shared" si="7"/>
-        <v>108.97424928502524</v>
+        <v>76.381323680239106</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -3939,7 +3939,7 @@
         <v>94</v>
       </c>
       <c r="J72">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K72">
         <f t="shared" si="4"/>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="L72">
         <f t="shared" si="5"/>
-        <v>52.708031506089796</v>
+        <v>21.083212602435918</v>
       </c>
       <c r="M72">
         <f t="shared" si="6"/>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="N72">
         <f t="shared" si="7"/>
-        <v>105.06799853841616</v>
+        <v>73.443179634762288</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -3987,7 +3987,7 @@
         <v>66</v>
       </c>
       <c r="J73">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K73">
         <f t="shared" si="4"/>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="L73">
         <f t="shared" si="5"/>
-        <v>82.557988124334528</v>
+        <v>33.02319524973381</v>
       </c>
       <c r="M73">
         <f t="shared" si="6"/>
@@ -4003,7 +4003,7 @@
       </c>
       <c r="N73">
         <f t="shared" si="7"/>
-        <v>127.11947375228524</v>
+        <v>77.584680877684534</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -4035,7 +4035,7 @@
         <v>87.17</v>
       </c>
       <c r="J74">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K74">
         <f t="shared" si="4"/>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="L74">
         <f t="shared" si="5"/>
-        <v>71.532328472550432</v>
+        <v>28.612931389020172</v>
       </c>
       <c r="M74">
         <f t="shared" si="6"/>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="N74">
         <f t="shared" si="7"/>
-        <v>140.12830006584258</v>
+        <v>97.20890298231231</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -4083,7 +4083,7 @@
         <v>107.67</v>
       </c>
       <c r="J75">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K75">
         <f t="shared" si="4"/>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="L75">
         <f t="shared" si="5"/>
-        <v>29.043201033967847</v>
+        <v>11.617280413587139</v>
       </c>
       <c r="M75">
         <f t="shared" si="6"/>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="N75">
         <f t="shared" si="7"/>
-        <v>68.689077719092239</v>
+        <v>51.263157098711524</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -4131,7 +4131,7 @@
         <v>68</v>
       </c>
       <c r="J76">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K76">
         <f t="shared" si="4"/>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="L76">
         <f t="shared" si="5"/>
-        <v>54.859379730828152</v>
+        <v>21.94375189233126</v>
       </c>
       <c r="M76">
         <f t="shared" si="6"/>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="N76">
         <f t="shared" si="7"/>
-        <v>103.77232029860255</v>
+        <v>70.856692460105663</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -4179,7 +4179,7 @@
         <v>99.75</v>
       </c>
       <c r="J77">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K77">
         <f t="shared" si="4"/>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="L77">
         <f t="shared" si="5"/>
-        <v>71.532328472550432</v>
+        <v>28.612931389020172</v>
       </c>
       <c r="M77">
         <f t="shared" si="6"/>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="N77">
         <f t="shared" si="7"/>
-        <v>153.7533297018789</v>
+        <v>110.83393261834863</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -4227,7 +4227,7 @@
         <v>78</v>
       </c>
       <c r="J78">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K78">
         <f t="shared" si="4"/>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="L78">
         <f t="shared" si="5"/>
-        <v>75.29718786584256</v>
+        <v>30.118875146337025</v>
       </c>
       <c r="M78">
         <f t="shared" si="6"/>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="N78">
         <f t="shared" si="7"/>
-        <v>132.72651668179145</v>
+        <v>87.548203962285896</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -4275,7 +4275,7 @@
         <v>60.5</v>
       </c>
       <c r="J79">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K79">
         <f t="shared" si="4"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="L79">
         <f t="shared" si="5"/>
-        <v>36.035082764367509</v>
+        <v>14.414033105747004</v>
       </c>
       <c r="M79">
         <f t="shared" si="6"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="N79">
         <f t="shared" si="7"/>
-        <v>89.346980856779652</v>
+        <v>67.725931198159145</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -4323,7 +4323,7 @@
         <v>75</v>
       </c>
       <c r="J80">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K80">
         <f t="shared" si="4"/>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="L80">
         <f t="shared" si="5"/>
-        <v>73.683676697288803</v>
+        <v>29.473470678915518</v>
       </c>
       <c r="M80">
         <f t="shared" si="6"/>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="N80">
         <f t="shared" si="7"/>
-        <v>133.42157928623101</v>
+        <v>89.211373267857738</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -4371,7 +4371,7 @@
         <v>120.5</v>
       </c>
       <c r="J81">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K81">
         <f t="shared" si="4"/>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="L81">
         <f t="shared" si="5"/>
-        <v>88.205277214272712</v>
+        <v>35.282110885709088</v>
       </c>
       <c r="M81">
         <f t="shared" si="6"/>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="N81">
         <f t="shared" si="7"/>
-        <v>186.98308940990728</v>
+        <v>134.05992308134364</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -4419,7 +4419,7 @@
         <v>54</v>
       </c>
       <c r="J82">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K82">
         <f t="shared" si="4"/>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="L82">
         <f t="shared" si="5"/>
-        <v>85.51609193334977</v>
+        <v>34.20643677333991</v>
       </c>
       <c r="M82">
         <f t="shared" si="6"/>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="N82">
         <f t="shared" si="7"/>
-        <v>129.15731489109075</v>
+        <v>77.847659731080896</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -4467,7 +4467,7 @@
         <v>100.5</v>
       </c>
       <c r="J83">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K83">
         <f t="shared" si="4"/>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="L83">
         <f t="shared" si="5"/>
-        <v>48.943172112797662</v>
+        <v>19.577268845119065</v>
       </c>
       <c r="M83">
         <f t="shared" si="6"/>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="N83">
         <f t="shared" si="7"/>
-        <v>133.46483001765046</v>
+        <v>104.09892674997187</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -4515,7 +4515,7 @@
         <v>82</v>
       </c>
       <c r="J84">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K84">
         <f t="shared" si="4"/>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="L84">
         <f t="shared" si="5"/>
-        <v>43.026964494767185</v>
+        <v>17.210785797906873</v>
       </c>
       <c r="M84">
         <f t="shared" si="6"/>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="N84">
         <f t="shared" si="7"/>
-        <v>110.54751429314703</v>
+        <v>84.731335596286712</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -4563,7 +4563,7 @@
         <v>45</v>
       </c>
       <c r="J85">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K85">
         <f t="shared" si="4"/>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="L85">
         <f t="shared" si="5"/>
-        <v>73.145839641104203</v>
+        <v>29.258335856441683</v>
       </c>
       <c r="M85">
         <f t="shared" si="6"/>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="N85">
         <f t="shared" si="7"/>
-        <v>101.62647983279172</v>
+        <v>57.738976048129189</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -4611,7 +4611,7 @@
         <v>104.5</v>
       </c>
       <c r="J86">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K86">
         <f t="shared" si="4"/>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="L86">
         <f t="shared" si="5"/>
-        <v>90.356625439011083</v>
+        <v>36.14265017560443</v>
       </c>
       <c r="M86">
         <f t="shared" si="6"/>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="N86">
         <f t="shared" si="7"/>
-        <v>174.39440071635198</v>
+        <v>120.18042545294531</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4659,7 +4659,7 @@
         <v>89.5</v>
       </c>
       <c r="J87">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K87">
         <f t="shared" si="4"/>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="L87">
         <f t="shared" si="5"/>
-        <v>84.978254877165185</v>
+        <v>33.991301950866074</v>
       </c>
       <c r="M87">
         <f t="shared" si="6"/>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="N87">
         <f t="shared" si="7"/>
-        <v>158.00454650186538</v>
+        <v>107.01759357556627</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -4707,7 +4707,7 @@
         <v>47.5</v>
       </c>
       <c r="J88">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K88">
         <f t="shared" si="4"/>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="L88">
         <f t="shared" si="5"/>
-        <v>74.221513753473388</v>
+        <v>29.688605501389354</v>
       </c>
       <c r="M88">
         <f t="shared" si="6"/>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="N88">
         <f t="shared" si="7"/>
-        <v>110.98451797704845</v>
+        <v>66.451609724964413</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -4755,7 +4755,7 @@
         <v>54.8</v>
       </c>
       <c r="J89">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K89">
         <f t="shared" si="4"/>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="L89">
         <f t="shared" si="5"/>
-        <v>21.022945104734198</v>
+        <v>8.4091780418936786</v>
       </c>
       <c r="M89">
         <f t="shared" si="6"/>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="N89">
         <f t="shared" si="7"/>
-        <v>50.190455917352594</v>
+        <v>37.576688854512078</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -4803,7 +4803,7 @@
         <v>38.65</v>
       </c>
       <c r="J90">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K90">
         <f t="shared" si="4"/>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="L90">
         <f t="shared" si="5"/>
-        <v>18.344274594904267</v>
+        <v>7.3377098379617065</v>
       </c>
       <c r="M90">
         <f t="shared" si="6"/>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="N90">
         <f t="shared" si="7"/>
-        <v>39.937665776034443</v>
+        <v>28.931101019091873</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -4851,7 +4851,7 @@
         <v>43.6</v>
       </c>
       <c r="J91">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K91">
         <f t="shared" si="4"/>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="L91">
         <f t="shared" si="5"/>
-        <v>22.205254847003957</v>
+        <v>8.8821019388015827</v>
       </c>
       <c r="M91">
         <f t="shared" si="6"/>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="N91">
         <f t="shared" si="7"/>
-        <v>45.182147344210883</v>
+        <v>31.858994436008508</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -4899,7 +4899,7 @@
         <v>57.5</v>
       </c>
       <c r="J92">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K92">
         <f t="shared" si="4"/>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="L92">
         <f t="shared" si="5"/>
-        <v>34.63798073055942</v>
+        <v>13.855192292223768</v>
       </c>
       <c r="M92">
         <f t="shared" si="6"/>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="N92">
         <f t="shared" si="7"/>
-        <v>83.022771983645569</v>
+        <v>62.239983545309912</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -4947,7 +4947,7 @@
         <v>39.83</v>
       </c>
       <c r="J93">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K93">
         <f t="shared" si="4"/>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="L93">
         <f t="shared" si="5"/>
-        <v>17.457542288201946</v>
+        <v>6.9830169152807784</v>
       </c>
       <c r="M93">
         <f t="shared" si="6"/>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="N93">
         <f t="shared" si="7"/>
-        <v>39.672381713140965</v>
+        <v>29.197856340219801</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -4995,7 +4995,7 @@
         <v>51.6</v>
       </c>
       <c r="J94">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K94">
         <f t="shared" si="4"/>
@@ -5003,7 +5003,7 @@
       </c>
       <c r="L94">
         <f t="shared" si="5"/>
-        <v>34.296219320684564</v>
+        <v>13.718487728273827</v>
       </c>
       <c r="M94">
         <f t="shared" si="6"/>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="N94">
         <f t="shared" si="7"/>
-        <v>61.242059065199186</v>
+        <v>40.664327472788457</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -5043,7 +5043,7 @@
         <v>51.91</v>
       </c>
       <c r="J95">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K95">
         <f t="shared" si="4"/>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="L95">
         <f t="shared" si="5"/>
-        <v>25.909209586458445</v>
+        <v>10.363683834583378</v>
       </c>
       <c r="M95">
         <f t="shared" si="6"/>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="N95">
         <f t="shared" si="7"/>
-        <v>55.786632599909886</v>
+        <v>40.241106848034818</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -5091,7 +5091,7 @@
         <v>57</v>
       </c>
       <c r="J96">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K96">
         <f t="shared" si="4"/>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="L96">
         <f t="shared" si="5"/>
-        <v>72.970679405711834</v>
+        <v>29.188271762284735</v>
       </c>
       <c r="M96">
         <f t="shared" si="6"/>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="N96">
         <f t="shared" si="7"/>
-        <v>118.18897713848663</v>
+        <v>74.406569495059543</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -5139,7 +5139,7 @@
         <v>59.55</v>
       </c>
       <c r="J97">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K97">
         <f t="shared" si="4"/>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="L97">
         <f t="shared" si="5"/>
-        <v>27.525648687217881</v>
+        <v>11.010259474887153</v>
       </c>
       <c r="M97">
         <f t="shared" si="6"/>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="N97">
         <f t="shared" si="7"/>
-        <v>64.239610885225545</v>
+        <v>47.724221672894814</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -5187,7 +5187,7 @@
         <v>64.83</v>
       </c>
       <c r="J98">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K98">
         <f t="shared" si="4"/>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="L98">
         <f t="shared" si="5"/>
-        <v>38.452777008351696</v>
+        <v>15.381110803340679</v>
       </c>
       <c r="M98">
         <f t="shared" si="6"/>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="N98">
         <f t="shared" si="7"/>
-        <v>73.059767175267609</v>
+        <v>49.988100970256603</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -5235,7 +5235,7 @@
         <v>80.63</v>
       </c>
       <c r="J99">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K99">
         <f t="shared" si="4"/>
@@ -5243,7 +5243,7 @@
       </c>
       <c r="L99">
         <f t="shared" si="5"/>
-        <v>32.236414066573964</v>
+        <v>12.894565626629586</v>
       </c>
       <c r="M99">
         <f t="shared" si="6"/>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="N99">
         <f t="shared" si="7"/>
-        <v>82.590825427979709</v>
+        <v>63.248976988035324</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -5283,7 +5283,7 @@
         <v>110.47</v>
       </c>
       <c r="J100">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K100">
         <f t="shared" si="4"/>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="L100">
         <f t="shared" si="5"/>
-        <v>71.021715689939029</v>
+        <v>28.408686275975612</v>
       </c>
       <c r="M100">
         <f t="shared" si="6"/>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="N100">
         <f t="shared" si="7"/>
-        <v>137.81053123098985</v>
+        <v>95.197501817026449</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -5331,7 +5331,7 @@
         <v>74.5</v>
       </c>
       <c r="J101">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K101">
         <f t="shared" si="4"/>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="L101">
         <f t="shared" si="5"/>
-        <v>44.105695463578989</v>
+        <v>17.642278185431596</v>
       </c>
       <c r="M101">
         <f t="shared" si="6"/>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="N101">
         <f t="shared" si="7"/>
-        <v>100.63683589557323</v>
+        <v>74.173418617425824</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -5379,7 +5379,7 @@
         <v>41</v>
       </c>
       <c r="J102">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K102">
         <f t="shared" si="4"/>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="L102">
         <f t="shared" si="5"/>
-        <v>31.866942272114663</v>
+        <v>12.746776908845865</v>
       </c>
       <c r="M102">
         <f t="shared" si="6"/>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="N102">
         <f t="shared" si="7"/>
-        <v>61.258284580683238</v>
+        <v>42.138119217414442</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -5427,7 +5427,7 @@
         <v>107.5</v>
       </c>
       <c r="J103">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K103">
         <f t="shared" si="4"/>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="L103">
         <f t="shared" si="5"/>
-        <v>59.115487113488072</v>
+        <v>23.646194845395229</v>
       </c>
       <c r="M103">
         <f t="shared" si="6"/>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="N103">
         <f t="shared" si="7"/>
-        <v>114.97006185446932</v>
+        <v>79.500769586376492</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -5475,7 +5475,7 @@
         <v>67.75</v>
       </c>
       <c r="J104">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K104">
         <f t="shared" si="4"/>
@@ -5483,7 +5483,7 @@
       </c>
       <c r="L104">
         <f t="shared" si="5"/>
-        <v>44.79845507819018</v>
+        <v>17.919382031276072</v>
       </c>
       <c r="M104">
         <f t="shared" si="6"/>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="N104">
         <f t="shared" si="7"/>
-        <v>96.804458430496638</v>
+        <v>69.925385383582523</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -5523,7 +5523,7 @@
         <v>72.75</v>
       </c>
       <c r="J105">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K105">
         <f t="shared" si="4"/>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="L105">
         <f t="shared" si="5"/>
-        <v>52.187890967376191</v>
+        <v>20.875156386950476</v>
       </c>
       <c r="M105">
         <f t="shared" si="6"/>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="N105">
         <f t="shared" si="7"/>
-        <v>102.3832882700725</v>
+        <v>71.070553689646772</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -5571,7 +5571,7 @@
         <v>81.25</v>
       </c>
       <c r="J106">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K106">
         <f t="shared" si="4"/>
@@ -5579,7 +5579,7 @@
       </c>
       <c r="L106">
         <f t="shared" si="5"/>
-        <v>44.567535206653119</v>
+        <v>17.827014082661247</v>
       </c>
       <c r="M106">
         <f t="shared" si="6"/>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="N106">
         <f t="shared" si="7"/>
-        <v>104.94173484997167</v>
+        <v>78.201213725979798</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -5619,7 +5619,7 @@
         <v>80.25</v>
       </c>
       <c r="J107">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K107">
         <f t="shared" si="4"/>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="L107">
         <f t="shared" si="5"/>
-        <v>34.407060859022359</v>
+        <v>13.762824343608942</v>
       </c>
       <c r="M107">
         <f t="shared" si="6"/>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="N107">
         <f t="shared" si="7"/>
-        <v>85.05993282930288</v>
+        <v>64.415696313889455</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -5667,7 +5667,7 @@
         <v>79</v>
       </c>
       <c r="J108">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K108">
         <f t="shared" si="4"/>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="L108">
         <f t="shared" si="5"/>
-        <v>73.201599277248903</v>
+        <v>29.28063971089956</v>
       </c>
       <c r="M108">
         <f t="shared" si="6"/>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="N108">
         <f t="shared" si="7"/>
-        <v>140.12787698461889</v>
+        <v>96.206917418269555</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -5715,7 +5715,7 @@
         <v>53.25</v>
       </c>
       <c r="J109">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K109">
         <f t="shared" si="4"/>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="L109">
         <f t="shared" si="5"/>
-        <v>36.947179445930047</v>
+        <v>14.778871778372018</v>
       </c>
       <c r="M109">
         <f t="shared" si="6"/>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="N109">
         <f t="shared" si="7"/>
-        <v>76.966530496679354</v>
+        <v>54.798222829121322</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -5763,7 +5763,7 @@
         <v>68</v>
       </c>
       <c r="J110">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K110">
         <f t="shared" si="4"/>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="L110">
         <f t="shared" si="5"/>
-        <v>53.573410196598566</v>
+        <v>21.429364078639427</v>
       </c>
       <c r="M110">
         <f t="shared" si="6"/>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="N110">
         <f t="shared" si="7"/>
-        <v>94.57407142941517</v>
+        <v>62.430025311456021</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -5811,7 +5811,7 @@
         <v>100.33</v>
       </c>
       <c r="J111">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K111">
         <f t="shared" si="4"/>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="L111">
         <f t="shared" si="5"/>
-        <v>60.343980830065249</v>
+        <v>24.137592332026099</v>
       </c>
       <c r="M111">
         <f t="shared" si="6"/>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="N111">
         <f t="shared" si="7"/>
-        <v>134.2098123851207</v>
+        <v>98.003423887081553</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -5859,7 +5859,7 @@
         <v>121.33</v>
       </c>
       <c r="J112">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K112">
         <f t="shared" si="4"/>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="L112">
         <f t="shared" si="5"/>
-        <v>71.12332043341533</v>
+        <v>28.449328173366133</v>
       </c>
       <c r="M112">
         <f t="shared" si="6"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="N112">
         <f t="shared" si="7"/>
-        <v>149.20508043450045</v>
+        <v>106.53108817445126</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -5907,7 +5907,7 @@
         <v>72.33</v>
       </c>
       <c r="J113">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K113">
         <f t="shared" si="4"/>
@@ -5915,7 +5915,7 @@
       </c>
       <c r="L113">
         <f t="shared" si="5"/>
-        <v>53.573410196598566</v>
+        <v>21.429364078639427</v>
       </c>
       <c r="M113">
         <f t="shared" si="6"/>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="N113">
         <f t="shared" si="7"/>
-        <v>103.92616790479916</v>
+        <v>71.782121786840023</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -5955,7 +5955,7 @@
         <v>62.83</v>
       </c>
       <c r="J114">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K114">
         <f t="shared" si="4"/>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="L114">
         <f t="shared" si="5"/>
-        <v>25.244160356431703</v>
+        <v>10.097664142572681</v>
       </c>
       <c r="M114">
         <f t="shared" si="6"/>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="N114">
         <f t="shared" si="7"/>
-        <v>67.295964568895172</v>
+        <v>52.149468355036149</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -6003,7 +6003,7 @@
         <v>65.5</v>
       </c>
       <c r="J115">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K115">
         <f t="shared" si="4"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="L115">
         <f t="shared" si="5"/>
-        <v>20.163923182616319</v>
+        <v>8.0655692730465276</v>
       </c>
       <c r="M115">
         <f t="shared" si="6"/>
@@ -6019,7 +6019,7 @@
       </c>
       <c r="N115">
         <f t="shared" si="7"/>
-        <v>57.088653737303638</v>
+        <v>44.990299827733843</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -6051,7 +6051,7 @@
         <v>74.5</v>
       </c>
       <c r="J116">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K116">
         <f t="shared" si="4"/>
@@ -6059,7 +6059,7 @@
       </c>
       <c r="L116">
         <f t="shared" si="5"/>
-        <v>38.175673162507216</v>
+        <v>15.270269265002886</v>
       </c>
       <c r="M116">
         <f t="shared" si="6"/>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="N116">
         <f t="shared" si="7"/>
-        <v>88.355581967898772</v>
+        <v>65.450178070394458</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -6099,7 +6099,7 @@
         <v>85.83</v>
       </c>
       <c r="J117">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K117">
         <f t="shared" si="4"/>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="L117">
         <f t="shared" si="5"/>
-        <v>29.252929326315112</v>
+        <v>11.701171730526045</v>
       </c>
       <c r="M117">
         <f t="shared" si="6"/>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="N117">
         <f t="shared" si="7"/>
-        <v>92.562459077068567</v>
+        <v>75.010701481279497</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -6147,7 +6147,7 @@
         <v>54.33</v>
       </c>
       <c r="J118">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K118">
         <f t="shared" si="4"/>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="L118">
         <f t="shared" si="5"/>
-        <v>17.854724467245692</v>
+        <v>7.1418897868982771</v>
       </c>
       <c r="M118">
         <f t="shared" si="6"/>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="N118">
         <f t="shared" si="7"/>
-        <v>58.2405506269738</v>
+        <v>47.52771594662638</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -6195,7 +6195,7 @@
         <v>98</v>
       </c>
       <c r="J119">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K119">
         <f t="shared" si="4"/>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="L119">
         <f t="shared" si="5"/>
-        <v>48.797987253212099</v>
+        <v>19.519194901284841</v>
       </c>
       <c r="M119">
         <f t="shared" si="6"/>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="N119">
         <f t="shared" si="7"/>
-        <v>120.68863212187409</v>
+        <v>91.409839769946828</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -6243,7 +6243,7 @@
         <v>90</v>
       </c>
       <c r="J120">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K120">
         <f t="shared" si="4"/>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="L120">
         <f t="shared" si="5"/>
-        <v>62.653179545435869</v>
+        <v>25.061271818174347</v>
       </c>
       <c r="M120">
         <f t="shared" si="6"/>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="N120">
         <f t="shared" si="7"/>
-        <v>130.03312779696813</v>
+        <v>92.441220069706603</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -6291,7 +6291,7 @@
         <v>27.67</v>
       </c>
       <c r="J121">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K121">
         <f t="shared" si="4"/>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="L121">
         <f t="shared" si="5"/>
-        <v>30.638448555537494</v>
+        <v>12.255379422214997</v>
       </c>
       <c r="M121">
         <f t="shared" si="6"/>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="N121">
         <f t="shared" si="7"/>
-        <v>48.120523764148757</v>
+        <v>29.737454630826253</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -6339,7 +6339,7 @@
         <v>81.5</v>
       </c>
       <c r="J122">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K122">
         <f t="shared" si="4"/>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="L122">
         <f t="shared" si="5"/>
-        <v>50.183506482434481</v>
+        <v>20.073402592973792</v>
       </c>
       <c r="M122">
         <f t="shared" si="6"/>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="N122">
         <f t="shared" si="7"/>
-        <v>99.01579608315059</v>
+        <v>68.905692193689902</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -6387,7 +6387,7 @@
         <v>70.17</v>
       </c>
       <c r="J123">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K123">
         <f t="shared" si="4"/>
@@ -6395,7 +6395,7 @@
       </c>
       <c r="L123">
         <f t="shared" si="5"/>
-        <v>34.17614098748529</v>
+        <v>13.670456394994117</v>
       </c>
       <c r="M123">
         <f t="shared" si="6"/>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="N123">
         <f t="shared" si="7"/>
-        <v>77.295624711647065</v>
+        <v>56.789940119155887</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -6435,7 +6435,7 @@
         <v>100.75</v>
       </c>
       <c r="J124">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K124">
         <f t="shared" si="4"/>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="L124">
         <f t="shared" si="5"/>
-        <v>29.557743556744036</v>
+        <v>11.823097422697614</v>
       </c>
       <c r="M124">
         <f t="shared" si="6"/>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="N124">
         <f t="shared" si="7"/>
-        <v>73.203818884064134</v>
+        <v>55.469172750017712</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -6483,7 +6483,7 @@
         <v>109.5</v>
       </c>
       <c r="J125">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K125">
         <f t="shared" si="4"/>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="L125">
         <f t="shared" si="5"/>
-        <v>21.937387796020964</v>
+        <v>8.7749551184083856</v>
       </c>
       <c r="M125">
         <f t="shared" si="6"/>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="N125">
         <f t="shared" si="7"/>
-        <v>90.216796885416912</v>
+        <v>77.054364207804326</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -6531,7 +6531,7 @@
         <v>95.25</v>
       </c>
       <c r="J126">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K126">
         <f t="shared" si="4"/>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="L126">
         <f t="shared" si="5"/>
-        <v>27.479464712910474</v>
+        <v>10.991785885164189</v>
       </c>
       <c r="M126">
         <f t="shared" si="6"/>
@@ -6547,7 +6547,7 @@
       </c>
       <c r="N126">
         <f t="shared" si="7"/>
-        <v>81.296074114827093</v>
+        <v>64.808395287080799</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -6579,7 +6579,7 @@
         <v>40.5</v>
       </c>
       <c r="J127">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K127">
         <f t="shared" si="4"/>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="L127">
         <f t="shared" si="5"/>
-        <v>31.405102529040541</v>
+        <v>12.562041011616216</v>
       </c>
       <c r="M127">
         <f t="shared" si="6"/>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="N127">
         <f t="shared" si="7"/>
-        <v>55.370138866129132</v>
+        <v>36.527077348704807</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -6627,7 +6627,7 @@
         <v>104.75</v>
       </c>
       <c r="J128">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K128">
         <f t="shared" si="4"/>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="L128">
         <f t="shared" si="5"/>
-        <v>28.864983942132845</v>
+        <v>11.545993576853139</v>
       </c>
       <c r="M128">
         <f t="shared" si="6"/>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="N128">
         <f t="shared" si="7"/>
-        <v>97.377264498333744</v>
+        <v>80.058274133054041</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -6675,7 +6675,7 @@
         <v>129.33000000000001</v>
       </c>
       <c r="J129">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K129">
         <f t="shared" si="4"/>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="L129">
         <f t="shared" si="5"/>
-        <v>26.324865355225157</v>
+        <v>10.529946142090063</v>
       </c>
       <c r="M129">
         <f t="shared" si="6"/>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="N129">
         <f t="shared" si="7"/>
-        <v>109.24372715833138</v>
+        <v>93.448807945196279</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -6723,7 +6723,7 @@
         <v>72</v>
       </c>
       <c r="J130">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K130">
         <f t="shared" si="4"/>
@@ -6731,7 +6731,7 @@
       </c>
       <c r="L130">
         <f t="shared" si="5"/>
-        <v>60.270086471173386</v>
+        <v>24.108034588469355</v>
       </c>
       <c r="M130">
         <f t="shared" si="6"/>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="N130">
         <f t="shared" si="7"/>
-        <v>106.61966847387014</v>
+        <v>70.457616591166101</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -6771,7 +6771,7 @@
         <v>82.25</v>
       </c>
       <c r="J131">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K131">
         <f t="shared" ref="K131:K194" si="8">F131*C131</f>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="L131">
         <f t="shared" ref="L131:L194" si="9">G131*D131*J131</f>
-        <v>68.35228197497058</v>
+        <v>27.340912789988234</v>
       </c>
       <c r="M131">
         <f t="shared" ref="M131:M194" si="10">H131*E131</f>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="N131">
         <f t="shared" ref="N131:N194" si="11">L131+M131+H131+K131</f>
-        <v>121.2013616381961</v>
+        <v>80.189992453213748</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -6819,7 +6819,7 @@
         <v>77.5</v>
       </c>
       <c r="J132">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K132">
         <f t="shared" si="8"/>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="L132">
         <f t="shared" si="9"/>
-        <v>25.863025612151031</v>
+        <v>10.345210244860413</v>
       </c>
       <c r="M132">
         <f t="shared" si="10"/>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="N132">
         <f t="shared" si="11"/>
-        <v>91.200544382014868</v>
+        <v>75.682729014724245</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -6867,7 +6867,7 @@
         <v>92</v>
       </c>
       <c r="J133">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K133">
         <f t="shared" si="8"/>
@@ -6875,7 +6875,7 @@
       </c>
       <c r="L133">
         <f t="shared" si="9"/>
-        <v>78.743676194138402</v>
+        <v>31.497470477655362</v>
       </c>
       <c r="M133">
         <f t="shared" si="10"/>
@@ -6883,7 +6883,7 @@
       </c>
       <c r="N133">
         <f t="shared" si="11"/>
-        <v>135.9513823171456</v>
+        <v>88.705176600662568</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -6915,7 +6915,7 @@
         <v>89</v>
       </c>
       <c r="J134">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K134">
         <f t="shared" si="8"/>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="L134">
         <f t="shared" si="9"/>
-        <v>29.788663428281097</v>
+        <v>11.91546537131244</v>
       </c>
       <c r="M134">
         <f t="shared" si="10"/>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="N134">
         <f t="shared" si="11"/>
-        <v>97.627134382144263</v>
+        <v>79.753936325175601</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -6963,7 +6963,7 @@
         <v>95.25</v>
       </c>
       <c r="J135">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K135">
         <f t="shared" si="8"/>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="L135">
         <f t="shared" si="9"/>
-        <v>31.405102529040541</v>
+        <v>12.562041011616216</v>
       </c>
       <c r="M135">
         <f t="shared" si="10"/>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="N135">
         <f t="shared" si="11"/>
-        <v>111.44931680788963</v>
+        <v>92.606255290465299</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -7011,7 +7011,7 @@
         <v>99.5</v>
       </c>
       <c r="J136">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K136">
         <f t="shared" si="8"/>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="L136">
         <f t="shared" si="9"/>
-        <v>33.252461501337038</v>
+        <v>13.300984600534816</v>
       </c>
       <c r="M136">
         <f t="shared" si="10"/>
@@ -7027,7 +7027,7 @@
       </c>
       <c r="N136">
         <f t="shared" si="11"/>
-        <v>91.13948940403246</v>
+        <v>71.188012503230226</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -7059,7 +7059,7 @@
         <v>83.5</v>
       </c>
       <c r="J137">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K137">
         <f t="shared" si="8"/>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="L137">
         <f t="shared" si="9"/>
-        <v>34.17614098748529</v>
+        <v>13.670456394994117</v>
       </c>
       <c r="M137">
         <f t="shared" si="10"/>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="N137">
         <f t="shared" si="11"/>
-        <v>98.618003042907389</v>
+        <v>78.112318450416225</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -7107,7 +7107,7 @@
         <v>130</v>
       </c>
       <c r="J138">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K138">
         <f t="shared" si="8"/>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="L138">
         <f t="shared" si="9"/>
-        <v>37.409019189004169</v>
+        <v>14.963607675601668</v>
       </c>
       <c r="M138">
         <f t="shared" si="10"/>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="N138">
         <f t="shared" si="11"/>
-        <v>139.83502304478617</v>
+        <v>117.38961153138368</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -7155,7 +7155,7 @@
         <v>113.75</v>
       </c>
       <c r="J139">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K139">
         <f t="shared" si="8"/>
@@ -7163,7 +7163,7 @@
       </c>
       <c r="L139">
         <f t="shared" si="9"/>
-        <v>31.866942272114663</v>
+        <v>12.746776908845865</v>
       </c>
       <c r="M139">
         <f t="shared" si="10"/>
@@ -7171,7 +7171,7 @@
       </c>
       <c r="N139">
         <f t="shared" si="11"/>
-        <v>120.50395604275508</v>
+        <v>101.38379067948628</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -7203,7 +7203,7 @@
         <v>76</v>
       </c>
       <c r="J140">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K140">
         <f t="shared" si="8"/>
@@ -7211,7 +7211,7 @@
       </c>
       <c r="L140">
         <f t="shared" si="9"/>
-        <v>78.512756322601348</v>
+        <v>31.405102529040537</v>
       </c>
       <c r="M140">
         <f t="shared" si="10"/>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="N140">
         <f t="shared" si="11"/>
-        <v>126.90305975303797</v>
+        <v>79.795405959477151</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -7251,7 +7251,7 @@
         <v>110.25</v>
       </c>
       <c r="J141">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K141">
         <f t="shared" si="8"/>
@@ -7259,7 +7259,7 @@
       </c>
       <c r="L141">
         <f t="shared" si="9"/>
-        <v>41.796496748208362</v>
+        <v>16.718598699283344</v>
       </c>
       <c r="M141">
         <f t="shared" si="10"/>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="N141">
         <f t="shared" si="11"/>
-        <v>130.42524225282307</v>
+        <v>105.34734420389805</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -7299,7 +7299,7 @@
         <v>166.5</v>
       </c>
       <c r="J142">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K142">
         <f t="shared" si="8"/>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="L142">
         <f t="shared" si="9"/>
-        <v>50.802371738153809</v>
+        <v>20.320948695261524</v>
       </c>
       <c r="M142">
         <f t="shared" si="10"/>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="N142">
         <f t="shared" si="11"/>
-        <v>166.13824549668709</v>
+        <v>135.65682245379483</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
@@ -7347,7 +7347,7 @@
         <v>152</v>
       </c>
       <c r="J143">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K143">
         <f t="shared" si="8"/>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="L143">
         <f t="shared" si="9"/>
-        <v>61.424685828858699</v>
+        <v>24.569874331543481</v>
       </c>
       <c r="M143">
         <f t="shared" si="10"/>
@@ -7363,7 +7363,7 @@
       </c>
       <c r="N143">
         <f t="shared" si="11"/>
-        <v>174.48145451549669</v>
+        <v>137.62664301818145</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -7395,7 +7395,7 @@
         <v>154.5</v>
       </c>
       <c r="J144">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K144">
         <f t="shared" si="8"/>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="L144">
         <f t="shared" si="9"/>
-        <v>73.432519148785957</v>
+        <v>29.373007659514386</v>
       </c>
       <c r="M144">
         <f t="shared" si="10"/>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="N144">
         <f t="shared" si="11"/>
-        <v>186.95503076903387</v>
+        <v>142.89551927976228</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -7443,7 +7443,7 @@
         <v>99.5</v>
       </c>
       <c r="J145">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K145">
         <f t="shared" si="8"/>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="L145">
         <f t="shared" si="9"/>
-        <v>70.199640947267085</v>
+        <v>28.079856378906833</v>
       </c>
       <c r="M145">
         <f t="shared" si="10"/>
@@ -7459,7 +7459,7 @@
       </c>
       <c r="N145">
         <f t="shared" si="11"/>
-        <v>133.52399917614343</v>
+        <v>91.404214607783189</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -7491,7 +7491,7 @@
         <v>197.08</v>
       </c>
       <c r="J146">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K146">
         <f t="shared" si="8"/>
@@ -7499,7 +7499,7 @@
       </c>
       <c r="L146">
         <f t="shared" si="9"/>
-        <v>42.489256362819546</v>
+        <v>16.99570254512782</v>
       </c>
       <c r="M146">
         <f t="shared" si="10"/>
@@ -7507,7 +7507,7 @@
       </c>
       <c r="N146">
         <f t="shared" si="11"/>
-        <v>91.55166134166538</v>
+        <v>66.058107523973646</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -7539,7 +7539,7 @@
         <v>79.5</v>
       </c>
       <c r="J147">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K147">
         <f t="shared" si="8"/>
@@ -7547,7 +7547,7 @@
       </c>
       <c r="L147">
         <f t="shared" si="9"/>
-        <v>36.485339702855917</v>
+        <v>14.594135881142368</v>
       </c>
       <c r="M147">
         <f t="shared" si="10"/>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="N147">
         <f t="shared" si="11"/>
-        <v>84.881155310643024</v>
+        <v>62.989951488929478</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -7587,7 +7587,7 @@
         <v>136.25</v>
       </c>
       <c r="J148">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K148">
         <f t="shared" si="8"/>
@@ -7595,7 +7595,7 @@
       </c>
       <c r="L148">
         <f t="shared" si="9"/>
-        <v>134.85720497764467</v>
+        <v>53.942881991057867</v>
       </c>
       <c r="M148">
         <f t="shared" si="10"/>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="N148">
         <f t="shared" si="11"/>
-        <v>211.97606546901309</v>
+        <v>131.0617424824263</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -7635,7 +7635,7 @@
         <v>50.82</v>
       </c>
       <c r="J149">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K149">
         <f t="shared" si="8"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="L149">
         <f t="shared" si="9"/>
-        <v>40.885847643332667</v>
+        <v>16.354339057333068</v>
       </c>
       <c r="M149">
         <f t="shared" si="10"/>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="N149">
         <f t="shared" si="11"/>
-        <v>63.25919804884812</v>
+        <v>38.727689462848524</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -7683,7 +7683,7 @@
         <v>54.83</v>
       </c>
       <c r="J150">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K150">
         <f t="shared" si="8"/>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="L150">
         <f t="shared" si="9"/>
-        <v>34.108695144110683</v>
+        <v>13.643478057644273</v>
       </c>
       <c r="M150">
         <f t="shared" si="10"/>
@@ -7699,7 +7699,7 @@
       </c>
       <c r="N150">
         <f t="shared" si="11"/>
-        <v>70.696843250998498</v>
+        <v>50.231626164532088</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -7731,7 +7731,7 @@
         <v>88.43</v>
       </c>
       <c r="J151">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K151">
         <f t="shared" si="8"/>
@@ -7739,7 +7739,7 @@
       </c>
       <c r="L151">
         <f t="shared" si="9"/>
-        <v>34.911252676913286</v>
+        <v>13.964501070765314</v>
       </c>
       <c r="M151">
         <f t="shared" si="10"/>
@@ -7747,7 +7747,7 @@
       </c>
       <c r="N151">
         <f t="shared" si="11"/>
-        <v>71.547767868839401</v>
+        <v>50.601016262691438</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -7779,7 +7779,7 @@
         <v>45.67</v>
       </c>
       <c r="J152">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K152">
         <f t="shared" si="8"/>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="L152">
         <f t="shared" si="9"/>
-        <v>21.546440429269914</v>
+        <v>8.6185761717079661</v>
       </c>
       <c r="M152">
         <f t="shared" si="10"/>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="N152">
         <f t="shared" si="11"/>
-        <v>47.7550653708822</v>
+        <v>34.82720111332025</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -7827,7 +7827,7 @@
         <v>62.64</v>
       </c>
       <c r="J153">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K153">
         <f t="shared" si="8"/>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="L153">
         <f t="shared" si="9"/>
-        <v>30.452599716898817</v>
+        <v>12.181039886759526</v>
       </c>
       <c r="M153">
         <f t="shared" si="10"/>
@@ -7843,7 +7843,7 @@
       </c>
       <c r="N153">
         <f t="shared" si="11"/>
-        <v>59.579776322257331</v>
+        <v>41.308216492118042</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -7875,7 +7875,7 @@
         <v>52.77</v>
       </c>
       <c r="J154">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K154">
         <f t="shared" si="8"/>
@@ -7883,7 +7883,7 @@
       </c>
       <c r="L154">
         <f t="shared" si="9"/>
-        <v>31.745609075303012</v>
+        <v>12.698243630121205</v>
       </c>
       <c r="M154">
         <f t="shared" si="10"/>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="N154">
         <f t="shared" si="11"/>
-        <v>63.971818146917848</v>
+        <v>44.924452701736037</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -7923,7 +7923,7 @@
         <v>45.13</v>
       </c>
       <c r="J155">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K155">
         <f t="shared" si="8"/>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="L155">
         <f t="shared" si="9"/>
-        <v>35.368264605314771</v>
+        <v>14.147305842125908</v>
       </c>
       <c r="M155">
         <f t="shared" si="10"/>
@@ -7939,7 +7939,7 @@
       </c>
       <c r="N155">
         <f t="shared" si="11"/>
-        <v>63.794832286313493</v>
+        <v>42.573873523124632</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -7971,7 +7971,7 @@
         <v>100</v>
       </c>
       <c r="J156">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K156">
         <f t="shared" si="8"/>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="L156">
         <f t="shared" si="9"/>
-        <v>40.685208260132022</v>
+        <v>16.274083304052809</v>
       </c>
       <c r="M156">
         <f t="shared" si="10"/>
@@ -7987,7 +7987,7 @@
       </c>
       <c r="N156">
         <f t="shared" si="11"/>
-        <v>112.50950409854892</v>
+        <v>88.09837914246971</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -8019,7 +8019,7 @@
         <v>50.23</v>
       </c>
       <c r="J157">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K157">
         <f t="shared" si="8"/>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="L157">
         <f t="shared" si="9"/>
-        <v>40.283929493730717</v>
+        <v>16.113571797492288</v>
       </c>
       <c r="M157">
         <f t="shared" si="10"/>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="N157">
         <f t="shared" si="11"/>
-        <v>70.666015981051586</v>
+        <v>46.495658284813167</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -8067,7 +8067,7 @@
         <v>66.14</v>
       </c>
       <c r="J158">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K158">
         <f t="shared" si="8"/>
@@ -8075,7 +8075,7 @@
       </c>
       <c r="L158">
         <f t="shared" si="9"/>
-        <v>48.610463896557732</v>
+        <v>19.444185558623094</v>
       </c>
       <c r="M158">
         <f t="shared" si="10"/>
@@ -8083,7 +8083,7 @@
       </c>
       <c r="N158">
         <f t="shared" si="11"/>
-        <v>92.691467527957869</v>
+        <v>63.525189190023227</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
@@ -8115,7 +8115,7 @@
         <v>59.85</v>
       </c>
       <c r="J159">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K159">
         <f t="shared" si="8"/>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="L159">
         <f t="shared" si="9"/>
-        <v>46.537190270151008</v>
+        <v>18.614876108060404</v>
       </c>
       <c r="M159">
         <f t="shared" si="10"/>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="N159">
         <f t="shared" si="11"/>
-        <v>84.147767105357602</v>
+        <v>56.225452943267008</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -8163,7 +8163,7 @@
         <v>77.55</v>
       </c>
       <c r="J160">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K160">
         <f t="shared" si="8"/>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="L160">
         <f t="shared" si="9"/>
-        <v>40.439982347331231</v>
+        <v>16.175992938932492</v>
       </c>
       <c r="M160">
         <f t="shared" si="10"/>
@@ -8179,7 +8179,7 @@
       </c>
       <c r="N160">
         <f t="shared" si="11"/>
-        <v>88.136989857520575</v>
+        <v>63.873000449121825</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -8211,7 +8211,7 @@
         <v>46.5</v>
       </c>
       <c r="J161">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K161">
         <f t="shared" si="8"/>
@@ -8219,7 +8219,7 @@
       </c>
       <c r="L161">
         <f t="shared" si="9"/>
-        <v>56.290493620182659</v>
+        <v>22.516197448073065</v>
       </c>
       <c r="M161">
         <f t="shared" si="10"/>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="N161">
         <f t="shared" si="11"/>
-        <v>91.714762517956387</v>
+        <v>57.940466345846787</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -8259,7 +8259,7 @@
         <v>71.5</v>
       </c>
       <c r="J162">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K162">
         <f t="shared" si="8"/>
@@ -8267,7 +8267,7 @@
       </c>
       <c r="L162">
         <f t="shared" si="9"/>
-        <v>40.127876640130211</v>
+        <v>16.051150656052084</v>
       </c>
       <c r="M162">
         <f t="shared" si="10"/>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="N162">
         <f t="shared" si="11"/>
-        <v>87.870339370014378</v>
+        <v>63.79361338593624</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -8307,7 +8307,7 @@
         <v>77</v>
       </c>
       <c r="J163">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K163">
         <f t="shared" si="8"/>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="L163">
         <f t="shared" si="9"/>
-        <v>52.946503900171813</v>
+        <v>21.178601560068724</v>
       </c>
       <c r="M163">
         <f t="shared" si="10"/>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="N163">
         <f t="shared" si="11"/>
-        <v>107.80411951235115</v>
+        <v>76.036217172248072</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -8355,7 +8355,7 @@
         <v>81.5</v>
       </c>
       <c r="J164">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K164">
         <f t="shared" si="8"/>
@@ -8363,7 +8363,7 @@
       </c>
       <c r="L164">
         <f t="shared" si="9"/>
-        <v>68.551789260222449</v>
+        <v>27.42071570408898</v>
       </c>
       <c r="M164">
         <f t="shared" si="10"/>
@@ -8371,7 +8371,7 @@
       </c>
       <c r="N164">
         <f t="shared" si="11"/>
-        <v>115.57606914845175</v>
+        <v>74.444995592318278</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -8403,7 +8403,7 @@
         <v>118.25</v>
       </c>
       <c r="J165">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K165">
         <f t="shared" si="8"/>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="L165">
         <f t="shared" si="9"/>
-        <v>45.701192840148295</v>
+        <v>18.280477136059318</v>
       </c>
       <c r="M165">
         <f t="shared" si="10"/>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="N165">
         <f t="shared" si="11"/>
-        <v>127.37701602250755</v>
+        <v>99.95630031841857</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -8451,7 +8451,7 @@
         <v>66.25</v>
       </c>
       <c r="J166">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K166">
         <f t="shared" si="8"/>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="L166">
         <f t="shared" si="9"/>
-        <v>51.553174850167295</v>
+        <v>20.621269940066917</v>
       </c>
       <c r="M166">
         <f t="shared" si="10"/>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="N166">
         <f t="shared" si="11"/>
-        <v>90.541086575220874</v>
+        <v>59.609181665120488</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -8499,7 +8499,7 @@
         <v>93</v>
       </c>
       <c r="J167">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K167">
         <f t="shared" si="8"/>
@@ -8507,7 +8507,7 @@
       </c>
       <c r="L167">
         <f t="shared" si="9"/>
-        <v>46.81585608015191</v>
+        <v>18.726342432060765</v>
       </c>
       <c r="M167">
         <f t="shared" si="10"/>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="N167">
         <f t="shared" si="11"/>
-        <v>112.47348569814862</v>
+        <v>84.383972050057466</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -8547,7 +8547,7 @@
         <v>129.75</v>
       </c>
       <c r="J168">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K168">
         <f t="shared" si="8"/>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="L168">
         <f t="shared" si="9"/>
-        <v>50.717177420164575</v>
+        <v>20.286870968065831</v>
       </c>
       <c r="M168">
         <f t="shared" si="10"/>
@@ -8563,7 +8563,7 @@
       </c>
       <c r="N168">
         <f t="shared" si="11"/>
-        <v>145.0778551598267</v>
+        <v>114.64754870772792</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -8595,7 +8595,7 @@
         <v>56</v>
       </c>
       <c r="J169">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K169">
         <f t="shared" si="8"/>
@@ -8603,7 +8603,7 @@
       </c>
       <c r="L169">
         <f t="shared" si="9"/>
-        <v>61.585144010199841</v>
+        <v>24.634057604079935</v>
       </c>
       <c r="M169">
         <f t="shared" si="10"/>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="N169">
         <f t="shared" si="11"/>
-        <v>96.900327383995744</v>
+        <v>59.949240977875839</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
@@ -8643,7 +8643,7 @@
         <v>122</v>
       </c>
       <c r="J170">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K170">
         <f t="shared" si="8"/>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="L170">
         <f t="shared" si="9"/>
-        <v>43.895438391342445</v>
+        <v>17.558175356536978</v>
       </c>
       <c r="M170">
         <f t="shared" si="10"/>
@@ -8659,7 +8659,7 @@
       </c>
       <c r="N170">
         <f t="shared" si="11"/>
-        <v>120.83950072686336</v>
+        <v>94.502237692057903</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -8691,7 +8691,7 @@
         <v>102</v>
       </c>
       <c r="J171">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K171">
         <f t="shared" si="8"/>
@@ -8699,7 +8699,7 @@
       </c>
       <c r="L171">
         <f t="shared" si="9"/>
-        <v>84.714406240274883</v>
+        <v>33.885762496109955</v>
       </c>
       <c r="M171">
         <f t="shared" si="10"/>
@@ -8707,7 +8707,7 @@
       </c>
       <c r="N171">
         <f t="shared" si="11"/>
-        <v>155.86694507851291</v>
+        <v>105.03830133434798</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -8739,7 +8739,7 @@
         <v>45.33</v>
       </c>
       <c r="J172">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K172">
         <f t="shared" si="8"/>
@@ -8747,7 +8747,7 @@
       </c>
       <c r="L172">
         <f t="shared" si="9"/>
-        <v>37.89855016012298</v>
+        <v>15.159420064049192</v>
       </c>
       <c r="M172">
         <f t="shared" si="10"/>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="N172">
         <f t="shared" si="11"/>
-        <v>69.630936246157503</v>
+        <v>46.891806150083717</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -8787,7 +8787,7 @@
         <v>88.33</v>
       </c>
       <c r="J173">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K173">
         <f t="shared" si="8"/>
@@ -8795,7 +8795,7 @@
       </c>
       <c r="L173">
         <f t="shared" si="9"/>
-        <v>33.072058330907318</v>
+        <v>13.228823332362927</v>
       </c>
       <c r="M173">
         <f t="shared" si="10"/>
@@ -8803,7 +8803,7 @@
       </c>
       <c r="N173">
         <f t="shared" si="11"/>
-        <v>86.052950312114092</v>
+        <v>66.209715313569703</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -8835,7 +8835,7 @@
         <v>53.5</v>
       </c>
       <c r="J174">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K174">
         <f t="shared" si="8"/>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="L174">
         <f t="shared" si="9"/>
-        <v>74.314598211041144</v>
+        <v>29.725839284416459</v>
       </c>
       <c r="M174">
         <f t="shared" si="10"/>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="N174">
         <f t="shared" si="11"/>
-        <v>104.96214073022841</v>
+        <v>60.373381803603721</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
@@ -8883,7 +8883,7 @@
         <v>119</v>
       </c>
       <c r="J175">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K175">
         <f t="shared" si="8"/>
@@ -8891,7 +8891,7 @@
       </c>
       <c r="L175">
         <f t="shared" si="9"/>
-        <v>40.317369390930828</v>
+        <v>16.126947756372331</v>
       </c>
       <c r="M175">
         <f t="shared" si="10"/>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="N175">
         <f t="shared" si="11"/>
-        <v>131.31804666394407</v>
+        <v>107.12762502938556</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
@@ -8931,7 +8931,7 @@
         <v>119.67</v>
       </c>
       <c r="J176">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K176">
         <f t="shared" si="8"/>
@@ -8939,7 +8939,7 @@
       </c>
       <c r="L176">
         <f t="shared" si="9"/>
-        <v>54.80799151097785</v>
+        <v>21.923196604391141</v>
       </c>
       <c r="M176">
         <f t="shared" si="10"/>
@@ -8947,7 +8947,7 @@
       </c>
       <c r="N176">
         <f t="shared" si="11"/>
-        <v>153.51266929118589</v>
+        <v>120.62787438459918</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
@@ -8979,7 +8979,7 @@
         <v>149.5</v>
       </c>
       <c r="J177">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K177">
         <f t="shared" si="8"/>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="L177">
         <f t="shared" si="9"/>
-        <v>96.841942291514243</v>
+        <v>38.736776916605699</v>
       </c>
       <c r="M177">
         <f t="shared" si="10"/>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="N177">
         <f t="shared" si="11"/>
-        <v>227.05488676859949</v>
+        <v>168.94972139369094</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -9027,7 +9027,7 @@
         <v>60.67</v>
       </c>
       <c r="J178">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K178">
         <f t="shared" si="8"/>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="L178">
         <f t="shared" si="9"/>
-        <v>81.00257765106285</v>
+        <v>32.40103106042514</v>
       </c>
       <c r="M178">
         <f t="shared" si="10"/>
@@ -9043,7 +9043,7 @@
       </c>
       <c r="N178">
         <f t="shared" si="11"/>
-        <v>123.02745895010789</v>
+        <v>74.425912359470175</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
@@ -9075,7 +9075,7 @@
         <v>131.03</v>
       </c>
       <c r="J179">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K179">
         <f t="shared" si="8"/>
@@ -9083,7 +9083,7 @@
       </c>
       <c r="L179">
         <f t="shared" si="9"/>
-        <v>51.129602818965907</v>
+        <v>20.451841127586363</v>
       </c>
       <c r="M179">
         <f t="shared" si="10"/>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="N179">
         <f t="shared" si="11"/>
-        <v>132.21802993204119</v>
+        <v>101.54026824066165</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -9123,7 +9123,7 @@
         <v>107</v>
       </c>
       <c r="J180">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K180">
         <f t="shared" si="8"/>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="L180">
         <f t="shared" si="9"/>
-        <v>89.919883571091788</v>
+        <v>35.967953428436715</v>
       </c>
       <c r="M180">
         <f t="shared" si="10"/>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="N180">
         <f t="shared" si="11"/>
-        <v>176.19715738469685</v>
+        <v>122.24522724204179</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
@@ -9171,7 +9171,7 @@
         <v>68.17</v>
       </c>
       <c r="J181">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K181">
         <f t="shared" si="8"/>
@@ -9179,7 +9179,7 @@
       </c>
       <c r="L181">
         <f t="shared" si="9"/>
-        <v>49.234675310959766</v>
+        <v>19.693870124383906</v>
       </c>
       <c r="M181">
         <f t="shared" si="10"/>
@@ -9187,7 +9187,7 @@
       </c>
       <c r="N181">
         <f t="shared" si="11"/>
-        <v>100.08065853857408</v>
+        <v>70.539853351998218</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -9219,7 +9219,7 @@
         <v>108.5</v>
       </c>
       <c r="J182">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K182">
         <f t="shared" si="8"/>
@@ -9227,7 +9227,7 @@
       </c>
       <c r="L182">
         <f t="shared" si="9"/>
-        <v>66.132970029414594</v>
+        <v>26.453188011765839</v>
       </c>
       <c r="M182">
         <f t="shared" si="10"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="N182">
         <f t="shared" si="11"/>
-        <v>151.91485782247733</v>
+        <v>112.23507580482857</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
@@ -9267,7 +9267,7 @@
         <v>33.17</v>
       </c>
       <c r="J183">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K183">
         <f t="shared" si="8"/>
@@ -9275,7 +9275,7 @@
       </c>
       <c r="L183">
         <f t="shared" si="9"/>
-        <v>34.92239930931332</v>
+        <v>13.968959723725328</v>
       </c>
       <c r="M183">
         <f t="shared" si="10"/>
@@ -9283,7 +9283,7 @@
       </c>
       <c r="N183">
         <f t="shared" si="11"/>
-        <v>60.12848013795228</v>
+        <v>39.175040552364287</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -9315,7 +9315,7 @@
         <v>84.33</v>
       </c>
       <c r="J184">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K184">
         <f t="shared" si="8"/>
@@ -9323,7 +9323,7 @@
       </c>
       <c r="L184">
         <f t="shared" si="9"/>
-        <v>47.005348830952528</v>
+        <v>18.802139532381013</v>
       </c>
       <c r="M184">
         <f t="shared" si="10"/>
@@ -9331,7 +9331,7 @@
       </c>
       <c r="N184">
         <f t="shared" si="11"/>
-        <v>103.98212466658909</v>
+        <v>75.778915368017564</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -9363,7 +9363,7 @@
         <v>114.75</v>
       </c>
       <c r="J185">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K185">
         <f t="shared" si="8"/>
@@ -9371,7 +9371,7 @@
       </c>
       <c r="L185">
         <f t="shared" si="9"/>
-        <v>45.143861220146491</v>
+        <v>18.057544488058596</v>
       </c>
       <c r="M185">
         <f t="shared" si="10"/>
@@ -9379,7 +9379,7 @@
       </c>
       <c r="N185">
         <f t="shared" si="11"/>
-        <v>130.95302039420366</v>
+        <v>103.8667036621158</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
@@ -9411,7 +9411,7 @@
         <v>78.17</v>
       </c>
       <c r="J186">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K186">
         <f t="shared" si="8"/>
@@ -9419,7 +9419,7 @@
       </c>
       <c r="L186">
         <f t="shared" si="9"/>
-        <v>41.61037874933502</v>
+        <v>16.644151499734008</v>
       </c>
       <c r="M186">
         <f t="shared" si="10"/>
@@ -9427,7 +9427,7 @@
       </c>
       <c r="N186">
         <f t="shared" si="11"/>
-        <v>100.62097012458442</v>
+        <v>75.654742874983413</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -9459,7 +9459,7 @@
         <v>109.83</v>
       </c>
       <c r="J187">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K187">
         <f t="shared" si="8"/>
@@ -9467,7 +9467,7 @@
       </c>
       <c r="L187">
         <f t="shared" si="9"/>
-        <v>69.298613631024878</v>
+        <v>27.71944545240995</v>
       </c>
       <c r="M187">
         <f t="shared" si="10"/>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="N187">
         <f t="shared" si="11"/>
-        <v>155.62243789662068</v>
+        <v>114.04326971800572</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -9507,7 +9507,7 @@
         <v>60</v>
       </c>
       <c r="J188">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K188">
         <f t="shared" si="8"/>
@@ -9515,7 +9515,7 @@
       </c>
       <c r="L188">
         <f t="shared" si="9"/>
-        <v>63.167965811004976</v>
+        <v>25.26718632440199</v>
       </c>
       <c r="M188">
         <f t="shared" si="10"/>
@@ -9523,7 +9523,7 @@
       </c>
       <c r="N188">
         <f t="shared" si="11"/>
-        <v>108.91248661367425</v>
+        <v>71.011707127071261</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -9555,7 +9555,7 @@
         <v>77</v>
       </c>
       <c r="J189">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K189">
         <f t="shared" si="8"/>
@@ -9563,7 +9563,7 @@
       </c>
       <c r="L189">
         <f t="shared" si="9"/>
-        <v>79.141090040256813</v>
+        <v>31.656436016102724</v>
       </c>
       <c r="M189">
         <f t="shared" si="10"/>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="N189">
         <f t="shared" si="11"/>
-        <v>135.84065090330668</v>
+        <v>88.355996879152571</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -9603,7 +9603,7 @@
         <v>115.38</v>
       </c>
       <c r="J190">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K190">
         <f t="shared" si="8"/>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="L190">
         <f t="shared" si="9"/>
-        <v>78.728664641455467</v>
+        <v>31.491465856582185</v>
       </c>
       <c r="M190">
         <f t="shared" si="10"/>
@@ -9619,7 +9619,7 @@
       </c>
       <c r="N190">
         <f t="shared" si="11"/>
-        <v>173.43698638751147</v>
+        <v>126.19978760263821</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
@@ -9651,7 +9651,7 @@
         <v>77.17</v>
       </c>
       <c r="J191">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K191">
         <f t="shared" si="8"/>
@@ -9659,7 +9659,7 @@
       </c>
       <c r="L191">
         <f t="shared" si="9"/>
-        <v>46.258524460150106</v>
+        <v>18.503409784060043</v>
       </c>
       <c r="M191">
         <f t="shared" si="10"/>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="N191">
         <f t="shared" si="11"/>
-        <v>111.17118516638809</v>
+        <v>83.416070490298026</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
@@ -9699,7 +9699,7 @@
         <v>138.33000000000001</v>
       </c>
       <c r="J192">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K192">
         <f t="shared" si="8"/>
@@ -9707,7 +9707,7 @@
       </c>
       <c r="L192">
         <f t="shared" si="9"/>
-        <v>74.314598211041144</v>
+        <v>29.725839284416459</v>
       </c>
       <c r="M192">
         <f t="shared" si="10"/>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="N192">
         <f t="shared" si="11"/>
-        <v>191.69202987427553</v>
+        <v>147.10327094765086</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -9747,7 +9747,7 @@
         <v>86</v>
       </c>
       <c r="J193">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K193">
         <f t="shared" si="8"/>
@@ -9755,7 +9755,7 @@
       </c>
       <c r="L193">
         <f t="shared" si="9"/>
-        <v>82.295587009467042</v>
+        <v>32.918234803786817</v>
       </c>
       <c r="M193">
         <f t="shared" si="10"/>
@@ -9763,7 +9763,7 @@
       </c>
       <c r="N193">
         <f t="shared" si="11"/>
-        <v>148.84655060594454</v>
+        <v>99.469198400264304</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -9795,7 +9795,7 @@
         <v>128.5</v>
       </c>
       <c r="J194">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K194">
         <f t="shared" si="8"/>
@@ -9803,7 +9803,7 @@
       </c>
       <c r="L194">
         <f t="shared" si="9"/>
-        <v>46.81585608015191</v>
+        <v>18.726342432060765</v>
       </c>
       <c r="M194">
         <f t="shared" si="10"/>
@@ -9811,7 +9811,7 @@
       </c>
       <c r="N194">
         <f t="shared" si="11"/>
-        <v>149.04927369702301</v>
+        <v>120.95976004893187</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -9843,7 +9843,7 @@
         <v>74.5</v>
       </c>
       <c r="J195">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K195">
         <f t="shared" ref="K195:K258" si="12">F195*C195</f>
@@ -9851,7 +9851,7 @@
       </c>
       <c r="L195">
         <f t="shared" ref="L195:L258" si="13">G195*D195*J195</f>
-        <v>54.897164570178134</v>
+        <v>21.958865828071254</v>
       </c>
       <c r="M195">
         <f t="shared" ref="M195:M258" si="14">H195*E195</f>
@@ -9859,7 +9859,7 @@
       </c>
       <c r="N195">
         <f t="shared" ref="N195:N258" si="15">L195+M195+H195+K195</f>
-        <v>112.08508976555329</v>
+        <v>79.146791023446411</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
@@ -9891,7 +9891,7 @@
         <v>113.5</v>
       </c>
       <c r="J196">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K196">
         <f t="shared" si="12"/>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="L196">
         <f t="shared" si="13"/>
-        <v>62.610634191003172</v>
+        <v>25.044253676401269</v>
       </c>
       <c r="M196">
         <f t="shared" si="14"/>
@@ -9907,7 +9907,7 @@
       </c>
       <c r="N196">
         <f t="shared" si="15"/>
-        <v>165.71023901587532</v>
+        <v>128.14385850127343</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -9939,7 +9939,7 @@
         <v>67.83</v>
       </c>
       <c r="J197">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K197">
         <f t="shared" si="12"/>
@@ -9947,7 +9947,7 @@
       </c>
       <c r="L197">
         <f t="shared" si="13"/>
-        <v>93.63171216030382</v>
+        <v>37.45268486412153</v>
       </c>
       <c r="M197">
         <f t="shared" si="14"/>
@@ -9955,7 +9955,7 @@
       </c>
       <c r="N197">
         <f t="shared" si="15"/>
-        <v>145.21454737916395</v>
+        <v>89.035520082981662</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -9987,7 +9987,7 @@
         <v>78.8</v>
       </c>
       <c r="J198">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K198">
         <f t="shared" si="12"/>
@@ -9995,7 +9995,7 @@
       </c>
       <c r="L198">
         <f t="shared" si="13"/>
-        <v>51.051576392165657</v>
+        <v>20.420630556866264</v>
       </c>
       <c r="M198">
         <f t="shared" si="14"/>
@@ -10003,7 +10003,7 @@
       </c>
       <c r="N198">
         <f t="shared" si="15"/>
-        <v>104.35828652085858</v>
+        <v>73.727340685559184</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -10035,7 +10035,7 @@
         <v>109</v>
       </c>
       <c r="J199">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K199">
         <f t="shared" si="12"/>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="L199">
         <f t="shared" si="13"/>
-        <v>75.239768700244142</v>
+        <v>30.095907480097658</v>
       </c>
       <c r="M199">
         <f t="shared" si="14"/>
@@ -10051,7 +10051,7 @@
       </c>
       <c r="N199">
         <f t="shared" si="15"/>
-        <v>159.79644016973575</v>
+        <v>114.65257894958927</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -10083,7 +10083,7 @@
         <v>66</v>
       </c>
       <c r="J200">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K200">
         <f t="shared" si="12"/>
@@ -10091,7 +10091,7 @@
       </c>
       <c r="L200">
         <f t="shared" si="13"/>
-        <v>58.887658969391083</v>
+        <v>23.555063587756432</v>
       </c>
       <c r="M200">
         <f t="shared" si="14"/>
@@ -10099,7 +10099,7 @@
       </c>
       <c r="N200">
         <f t="shared" si="15"/>
-        <v>101.49375628371341</v>
+        <v>66.161160902078763</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -10131,7 +10131,7 @@
         <v>52.83</v>
       </c>
       <c r="J201">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K201">
         <f t="shared" si="12"/>
@@ -10139,7 +10139,7 @@
       </c>
       <c r="L201">
         <f t="shared" si="13"/>
-        <v>50.527684669363957</v>
+        <v>20.211073867745583</v>
       </c>
       <c r="M201">
         <f t="shared" si="14"/>
@@ -10147,7 +10147,7 @@
       </c>
       <c r="N201">
         <f t="shared" si="15"/>
-        <v>88.180684625463272</v>
+        <v>57.864073823844912</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -10179,7 +10179,7 @@
         <v>64.83</v>
       </c>
       <c r="J202">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K202">
         <f t="shared" si="12"/>
@@ -10187,7 +10187,7 @@
       </c>
       <c r="L202">
         <f t="shared" si="13"/>
-        <v>38.266389029324174</v>
+        <v>15.306555611729669</v>
       </c>
       <c r="M202">
         <f t="shared" si="14"/>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="N202">
         <f t="shared" si="15"/>
-        <v>87.573942737867981</v>
+        <v>64.614109320273485</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -10227,7 +10227,7 @@
         <v>70.67</v>
       </c>
       <c r="J203">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K203">
         <f t="shared" si="12"/>
@@ -10235,7 +10235,7 @@
       </c>
       <c r="L203">
         <f t="shared" si="13"/>
-        <v>74.871929831042962</v>
+        <v>29.948771932417184</v>
       </c>
       <c r="M203">
         <f t="shared" si="14"/>
@@ -10243,7 +10243,7 @@
       </c>
       <c r="N203">
         <f t="shared" si="15"/>
-        <v>126.07645686333677</v>
+        <v>81.153298964710999</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -10275,7 +10275,7 @@
         <v>60</v>
       </c>
       <c r="J204">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K204">
         <f t="shared" si="12"/>
@@ -10283,7 +10283,7 @@
       </c>
       <c r="L204">
         <f t="shared" si="13"/>
-        <v>70.591622989429069</v>
+        <v>28.236649195771626</v>
       </c>
       <c r="M204">
         <f t="shared" si="14"/>
@@ -10291,7 +10291,7 @@
       </c>
       <c r="N204">
         <f t="shared" si="15"/>
-        <v>112.40535492873551</v>
+        <v>70.050381135078055</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -10323,7 +10323,7 @@
         <v>123.4</v>
       </c>
       <c r="J205">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K205">
         <f t="shared" si="12"/>
@@ -10331,7 +10331,7 @@
       </c>
       <c r="L205">
         <f t="shared" si="13"/>
-        <v>66.433929104215565</v>
+        <v>26.573571641686229</v>
       </c>
       <c r="M205">
         <f t="shared" si="14"/>
@@ -10339,7 +10339,7 @@
       </c>
       <c r="N205">
         <f t="shared" si="15"/>
-        <v>149.11520826489161</v>
+        <v>109.25485080236228</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -10371,7 +10371,7 @@
         <v>82.33</v>
       </c>
       <c r="J206">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K206">
         <f t="shared" si="12"/>
@@ -10379,7 +10379,7 @@
       </c>
       <c r="L206">
         <f t="shared" si="13"/>
-        <v>80.623592149461615</v>
+        <v>32.249436859784645</v>
       </c>
       <c r="M206">
         <f t="shared" si="14"/>
@@ -10387,7 +10387,7 @@
       </c>
       <c r="N206">
         <f t="shared" si="15"/>
-        <v>137.60036798509816</v>
+        <v>89.226212695421196</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -10419,7 +10419,7 @@
         <v>114.33</v>
       </c>
       <c r="J207">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K207">
         <f t="shared" si="12"/>
@@ -10427,7 +10427,7 @@
       </c>
       <c r="L207">
         <f t="shared" si="13"/>
-        <v>81.927748140265848</v>
+        <v>32.771099256106339</v>
       </c>
       <c r="M207">
         <f t="shared" si="14"/>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="N207">
         <f t="shared" si="15"/>
-        <v>164.75557573461634</v>
+        <v>115.59892685045685</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -10467,7 +10467,7 @@
         <v>52.35</v>
       </c>
       <c r="J208">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K208">
         <f t="shared" si="12"/>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="L208">
         <f t="shared" si="13"/>
-        <v>20.108524849665251</v>
+        <v>8.0434099398661001</v>
       </c>
       <c r="M208">
         <f t="shared" si="14"/>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="N208">
         <f t="shared" si="15"/>
-        <v>55.817644706704115</v>
+        <v>43.752529796904966</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
@@ -10515,7 +10515,7 @@
         <v>54.39</v>
       </c>
       <c r="J209">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K209">
         <f t="shared" si="12"/>
@@ -10523,7 +10523,7 @@
       </c>
       <c r="L209">
         <f t="shared" si="13"/>
-        <v>26.547865940814436</v>
+        <v>10.619146376325775</v>
       </c>
       <c r="M209">
         <f t="shared" si="14"/>
@@ -10531,7 +10531,7 @@
       </c>
       <c r="N209">
         <f t="shared" si="15"/>
-        <v>53.097167023842559</v>
+        <v>37.168447459353899</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
@@ -10563,7 +10563,7 @@
         <v>47.07</v>
       </c>
       <c r="J210">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K210">
         <f t="shared" si="12"/>
@@ -10571,7 +10571,7 @@
       </c>
       <c r="L210">
         <f t="shared" si="13"/>
-        <v>31.798386815956171</v>
+        <v>12.719354726382468</v>
       </c>
       <c r="M210">
         <f t="shared" si="14"/>
@@ -10579,7 +10579,7 @@
       </c>
       <c r="N210">
         <f t="shared" si="15"/>
-        <v>57.845957355191373</v>
+        <v>38.766925265617672</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
@@ -10611,7 +10611,7 @@
         <v>56.08</v>
       </c>
       <c r="J211">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K211">
         <f t="shared" si="12"/>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="L211">
         <f t="shared" si="13"/>
-        <v>32.735521348683179</v>
+        <v>13.094208539473271</v>
       </c>
       <c r="M211">
         <f t="shared" si="14"/>
@@ -10627,7 +10627,7 @@
       </c>
       <c r="N211">
         <f t="shared" si="15"/>
-        <v>67.907307760600276</v>
+        <v>48.265994951390361</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
@@ -10659,7 +10659,7 @@
         <v>45.67</v>
       </c>
       <c r="J212">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K212">
         <f t="shared" si="12"/>
@@ -10667,7 +10667,7 @@
       </c>
       <c r="L212">
         <f t="shared" si="13"/>
-        <v>20.539934963879642</v>
+        <v>8.215973985551857</v>
       </c>
       <c r="M212">
         <f t="shared" si="14"/>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="N212">
         <f t="shared" si="15"/>
-        <v>55.613933051528392</v>
+        <v>43.289972073200602</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
@@ -10707,7 +10707,7 @@
         <v>47.03</v>
       </c>
       <c r="J213">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K213">
         <f t="shared" si="12"/>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="L213">
         <f t="shared" si="13"/>
-        <v>42.800089480984205</v>
+        <v>17.120035792393683</v>
       </c>
       <c r="M213">
         <f t="shared" si="14"/>
@@ -10723,7 +10723,7 @@
       </c>
       <c r="N213">
         <f t="shared" si="15"/>
-        <v>69.731434558155087</v>
+        <v>44.051380869564547</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
@@ -10755,7 +10755,7 @@
         <v>59.6</v>
       </c>
       <c r="J214">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K214">
         <f t="shared" si="12"/>
@@ -10763,7 +10763,7 @@
       </c>
       <c r="L214">
         <f t="shared" si="13"/>
-        <v>39.128576106190721</v>
+        <v>15.651430442476288</v>
       </c>
       <c r="M214">
         <f t="shared" si="14"/>
@@ -10771,7 +10771,7 @@
       </c>
       <c r="N214">
         <f t="shared" si="15"/>
-        <v>74.56338848489024</v>
+        <v>51.086242821175794</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
@@ -10803,7 +10803,7 @@
         <v>55.61</v>
       </c>
       <c r="J215">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K215">
         <f t="shared" si="12"/>
@@ -10811,7 +10811,7 @@
       </c>
       <c r="L215">
         <f t="shared" si="13"/>
-        <v>32.144998218471642</v>
+        <v>12.857999287388656</v>
       </c>
       <c r="M215">
         <f t="shared" si="14"/>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="N215">
         <f t="shared" si="15"/>
-        <v>64.217179744209403</v>
+        <v>44.930180813126427</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
@@ -10851,7 +10851,7 @@
         <v>101.5</v>
       </c>
       <c r="J216">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K216">
         <f t="shared" si="12"/>
@@ -10859,7 +10859,7 @@
       </c>
       <c r="L216">
         <f t="shared" si="13"/>
-        <v>53.917329280184063</v>
+        <v>21.566931712073625</v>
       </c>
       <c r="M216">
         <f t="shared" si="14"/>
@@ -10867,7 +10867,7 @@
       </c>
       <c r="N216">
         <f t="shared" si="15"/>
-        <v>137.72296073011242</v>
+        <v>105.37256316200201</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
@@ -10899,7 +10899,7 @@
         <v>56.76</v>
       </c>
       <c r="J217">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K217">
         <f t="shared" si="12"/>
@@ -10907,7 +10907,7 @@
       </c>
       <c r="L217">
         <f t="shared" si="13"/>
-        <v>63.18597493263475</v>
+        <v>25.2743899730539</v>
       </c>
       <c r="M217">
         <f t="shared" si="14"/>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="N217">
         <f t="shared" si="15"/>
-        <v>95.144404188597335</v>
+        <v>57.232819229016485</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
@@ -10947,7 +10947,7 @@
         <v>73.64</v>
       </c>
       <c r="J218">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K218">
         <f t="shared" si="12"/>
@@ -10955,7 +10955,7 @@
       </c>
       <c r="L218">
         <f t="shared" si="13"/>
-        <v>45.483118485640979</v>
+        <v>18.193247394256392</v>
       </c>
       <c r="M218">
         <f t="shared" si="14"/>
@@ -10963,7 +10963,7 @@
       </c>
       <c r="N218">
         <f t="shared" si="15"/>
-        <v>89.470041861055137</v>
+        <v>62.180170769670568</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
@@ -10995,7 +10995,7 @@
         <v>62.67</v>
       </c>
       <c r="J219">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K219">
         <f t="shared" si="12"/>
@@ -11003,7 +11003,7 @@
       </c>
       <c r="L219">
         <f t="shared" si="13"/>
-        <v>50.926201251069088</v>
+        <v>20.370480500427636</v>
       </c>
       <c r="M219">
         <f t="shared" si="14"/>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="N219">
         <f t="shared" si="15"/>
-        <v>87.0898727837791</v>
+        <v>56.534152033137644</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
@@ -11043,7 +11043,7 @@
         <v>51.93</v>
       </c>
       <c r="J220">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K220">
         <f t="shared" si="12"/>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="L220">
         <f t="shared" si="13"/>
-        <v>29.410619376405162</v>
+        <v>11.764247750562065</v>
       </c>
       <c r="M220">
         <f t="shared" si="14"/>
@@ -11059,7 +11059,7 @@
       </c>
       <c r="N220">
         <f t="shared" si="15"/>
-        <v>64.767451837330796</v>
+        <v>47.121080211487701</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
@@ -11091,7 +11091,7 @@
         <v>81</v>
       </c>
       <c r="J221">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K221">
         <f t="shared" si="12"/>
@@ -11099,7 +11099,7 @@
       </c>
       <c r="L221">
         <f t="shared" si="13"/>
-        <v>77.666629082169891</v>
+        <v>31.066651632867959</v>
       </c>
       <c r="M221">
         <f t="shared" si="14"/>
@@ -11107,7 +11107,7 @@
       </c>
       <c r="N221">
         <f t="shared" si="15"/>
-        <v>143.42316655988313</v>
+        <v>96.823189110581211</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
@@ -11139,7 +11139,7 @@
         <v>38.5</v>
       </c>
       <c r="J222">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K222">
         <f t="shared" si="12"/>
@@ -11147,7 +11147,7 @@
       </c>
       <c r="L222">
         <f t="shared" si="13"/>
-        <v>56.484821150669013</v>
+        <v>22.593928460267605</v>
       </c>
       <c r="M222">
         <f t="shared" si="14"/>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="N222">
         <f t="shared" si="15"/>
-        <v>84.540525905092011</v>
+        <v>50.649633214690596</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
@@ -11187,7 +11187,7 @@
         <v>116</v>
       </c>
       <c r="J223">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K223">
         <f t="shared" si="12"/>
@@ -11195,7 +11195,7 @@
       </c>
       <c r="L223">
         <f t="shared" si="13"/>
-        <v>51.991710377320345</v>
+        <v>20.796684150928137</v>
       </c>
       <c r="M223">
         <f t="shared" si="14"/>
@@ -11203,7 +11203,7 @@
       </c>
       <c r="N223">
         <f t="shared" si="15"/>
-        <v>144.044594305099</v>
+        <v>112.8495680787068</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
@@ -11235,7 +11235,7 @@
         <v>96.5</v>
       </c>
       <c r="J224">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K224">
         <f t="shared" si="12"/>
@@ -11243,7 +11243,7 @@
       </c>
       <c r="L224">
         <f t="shared" si="13"/>
-        <v>80.875993920276102</v>
+        <v>32.350397568110438</v>
       </c>
       <c r="M224">
         <f t="shared" si="14"/>
@@ -11251,7 +11251,7 @@
       </c>
       <c r="N224">
         <f t="shared" si="15"/>
-        <v>150.63810164044321</v>
+        <v>102.11250528827757</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
@@ -11283,7 +11283,7 @@
         <v>105</v>
       </c>
       <c r="J225">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K225">
         <f t="shared" si="12"/>
@@ -11291,7 +11291,7 @@
       </c>
       <c r="L225">
         <f t="shared" si="13"/>
-        <v>61.619804891638935</v>
+        <v>24.647921956655573</v>
       </c>
       <c r="M225">
         <f t="shared" si="14"/>
@@ -11299,7 +11299,7 @@
       </c>
       <c r="N225">
         <f t="shared" si="15"/>
-        <v>137.47698126685862</v>
+        <v>100.50509833187525</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
@@ -11331,7 +11331,7 @@
         <v>53.5</v>
       </c>
       <c r="J226">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K226">
         <f t="shared" si="12"/>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="L226">
         <f t="shared" si="13"/>
-        <v>35.944886186789375</v>
+        <v>14.37795447471575</v>
       </c>
       <c r="M226">
         <f t="shared" si="14"/>
@@ -11347,7 +11347,7 @@
       </c>
       <c r="N226">
         <f t="shared" si="15"/>
-        <v>71.917703310821565</v>
+        <v>50.350771598747933</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
@@ -11379,7 +11379,7 @@
         <v>58.5</v>
       </c>
       <c r="J227">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K227">
         <f t="shared" si="12"/>
@@ -11387,7 +11387,7 @@
       </c>
       <c r="L227">
         <f t="shared" si="13"/>
-        <v>51.991710377320345</v>
+        <v>20.796684150928137</v>
       </c>
       <c r="M227">
         <f t="shared" si="14"/>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="N227">
         <f t="shared" si="15"/>
-        <v>95.818954460762669</v>
+        <v>64.623928234370467</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
@@ -11427,7 +11427,7 @@
         <v>51</v>
       </c>
       <c r="J228">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K228">
         <f t="shared" si="12"/>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="L228">
         <f t="shared" si="13"/>
-        <v>92.429707337458382</v>
+        <v>36.971882934983356</v>
       </c>
       <c r="M228">
         <f t="shared" si="14"/>
@@ -11443,7 +11443,7 @@
       </c>
       <c r="N228">
         <f t="shared" si="15"/>
-        <v>126.58048074693392</v>
+        <v>71.122656344458903</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
@@ -11475,7 +11475,7 @@
         <v>72</v>
       </c>
       <c r="J229">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K229">
         <f t="shared" si="12"/>
@@ -11483,7 +11483,7 @@
       </c>
       <c r="L229">
         <f t="shared" si="13"/>
-        <v>66.754788632608836</v>
+        <v>26.701915453043537</v>
       </c>
       <c r="M229">
         <f t="shared" si="14"/>
@@ -11491,7 +11491,7 @@
       </c>
       <c r="N229">
         <f t="shared" si="15"/>
-        <v>121.56235076573638</v>
+        <v>81.509477586171087</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
@@ -11523,7 +11523,7 @@
         <v>101.5</v>
       </c>
       <c r="J230">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K230">
         <f t="shared" si="12"/>
@@ -11531,7 +11531,7 @@
       </c>
       <c r="L230">
         <f t="shared" si="13"/>
-        <v>59.052313021153971</v>
+        <v>23.620925208461589</v>
       </c>
       <c r="M230">
         <f t="shared" si="14"/>
@@ -11539,7 +11539,7 @@
       </c>
       <c r="N230">
         <f t="shared" si="15"/>
-        <v>146.8008293033372</v>
+        <v>111.3694414906448</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
@@ -11571,7 +11571,7 @@
         <v>67</v>
       </c>
       <c r="J231">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K231">
         <f t="shared" si="12"/>
@@ -11579,7 +11579,7 @@
       </c>
       <c r="L231">
         <f t="shared" si="13"/>
-        <v>84.085358758382284</v>
+        <v>33.634143503352917</v>
       </c>
       <c r="M231">
         <f t="shared" si="14"/>
@@ -11587,7 +11587,7 @@
       </c>
       <c r="N231">
         <f t="shared" si="15"/>
-        <v>136.28522614007295</v>
+        <v>85.834010885043597</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
@@ -11619,7 +11619,7 @@
         <v>88</v>
       </c>
       <c r="J232">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K232">
         <f t="shared" si="12"/>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="L232">
         <f t="shared" si="13"/>
-        <v>62.903550826881407</v>
+        <v>25.161420330752563</v>
       </c>
       <c r="M232">
         <f t="shared" si="14"/>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="N232">
         <f t="shared" si="15"/>
-        <v>125.17271440097899</v>
+        <v>87.430583904850138</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
@@ -11667,7 +11667,7 @@
         <v>46.25</v>
       </c>
       <c r="J233">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K233">
         <f t="shared" si="12"/>
@@ -11675,7 +11675,7 @@
       </c>
       <c r="L233">
         <f t="shared" si="13"/>
-        <v>63.22448731069202</v>
+        <v>25.289794924276809</v>
       </c>
       <c r="M233">
         <f t="shared" si="14"/>
@@ -11683,7 +11683,7 @@
       </c>
       <c r="N233">
         <f t="shared" si="15"/>
-        <v>84.470514312004198</v>
+        <v>46.535821925588991</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
@@ -11715,7 +11715,7 @@
         <v>59.5</v>
       </c>
       <c r="J234">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K234">
         <f t="shared" si="12"/>
@@ -11723,7 +11723,7 @@
       </c>
       <c r="L234">
         <f t="shared" si="13"/>
-        <v>50.284328283447849</v>
+        <v>20.113731313379141</v>
       </c>
       <c r="M234">
         <f t="shared" si="14"/>
@@ -11731,7 +11731,7 @@
       </c>
       <c r="N234">
         <f t="shared" si="15"/>
-        <v>98.198674395148473</v>
+        <v>68.028077425079772</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
@@ -11763,7 +11763,7 @@
         <v>51.5</v>
       </c>
       <c r="J235">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K235">
         <f t="shared" si="12"/>
@@ -11771,7 +11771,7 @@
       </c>
       <c r="L235">
         <f t="shared" si="13"/>
-        <v>52.633583344941584</v>
+        <v>21.053433337976635</v>
       </c>
       <c r="M235">
         <f t="shared" si="14"/>
@@ -11779,7 +11779,7 @@
       </c>
       <c r="N235">
         <f t="shared" si="15"/>
-        <v>92.486599891029556</v>
+        <v>60.9064498840646</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
@@ -11811,7 +11811,7 @@
         <v>30.5</v>
       </c>
       <c r="J236">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K236">
         <f t="shared" si="12"/>
@@ -11819,7 +11819,7 @@
       </c>
       <c r="L236">
         <f t="shared" si="13"/>
-        <v>36.586759154410615</v>
+        <v>14.634703661764245</v>
       </c>
       <c r="M236">
         <f t="shared" si="14"/>
@@ -11827,7 +11827,7 @@
       </c>
       <c r="N236">
         <f t="shared" si="15"/>
-        <v>61.579258228757574</v>
+        <v>39.627202736111201</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
@@ -11859,7 +11859,7 @@
         <v>81</v>
       </c>
       <c r="J237">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K237">
         <f t="shared" si="12"/>
@@ -11867,7 +11867,7 @@
       </c>
       <c r="L237">
         <f t="shared" si="13"/>
-        <v>51.773473568329116</v>
+        <v>20.709389427331647</v>
       </c>
       <c r="M237">
         <f t="shared" si="14"/>
@@ -11875,7 +11875,7 @@
       </c>
       <c r="N237">
         <f t="shared" si="15"/>
-        <v>112.17704790187562</v>
+        <v>81.112963760878159</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
@@ -11907,7 +11907,7 @@
         <v>38</v>
       </c>
       <c r="J238">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K238">
         <f t="shared" si="12"/>
@@ -11915,7 +11915,7 @@
       </c>
       <c r="L238">
         <f t="shared" si="13"/>
-        <v>34.661140251546897</v>
+        <v>13.864456100618758</v>
       </c>
       <c r="M238">
         <f t="shared" si="14"/>
@@ -11923,7 +11923,7 @@
       </c>
       <c r="N238">
         <f t="shared" si="15"/>
-        <v>61.381654925151935</v>
+        <v>40.584970774223791</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
@@ -11955,7 +11955,7 @@
         <v>62</v>
       </c>
       <c r="J239">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K239">
         <f t="shared" si="12"/>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="L239">
         <f t="shared" si="13"/>
-        <v>75.741010179306187</v>
+        <v>30.296404071722474</v>
       </c>
       <c r="M239">
         <f t="shared" si="14"/>
@@ -11971,7 +11971,7 @@
       </c>
       <c r="N239">
         <f t="shared" si="15"/>
-        <v>114.68300486811584</v>
+        <v>69.238398760532121</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
@@ -12003,7 +12003,7 @@
         <v>166.33</v>
       </c>
       <c r="J240">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K240">
         <f t="shared" si="12"/>
@@ -12011,7 +12011,7 @@
       </c>
       <c r="L240">
         <f t="shared" si="13"/>
-        <v>15.82858738153975</v>
+        <v>6.3314349526158997</v>
       </c>
       <c r="M240">
         <f t="shared" si="14"/>
@@ -12019,7 +12019,7 @@
       </c>
       <c r="N240">
         <f t="shared" si="15"/>
-        <v>38.027175283612998</v>
+        <v>28.530022854689143</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
@@ -12051,7 +12051,7 @@
         <v>32.5</v>
       </c>
       <c r="J241">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K241">
         <f t="shared" si="12"/>
@@ -12059,7 +12059,7 @@
       </c>
       <c r="L241">
         <f t="shared" si="13"/>
-        <v>48.140472571592916</v>
+        <v>19.256189028637166</v>
       </c>
       <c r="M241">
         <f t="shared" si="14"/>
@@ -12067,7 +12067,7 @@
       </c>
       <c r="N241">
         <f t="shared" si="15"/>
-        <v>70.918102412943114</v>
+        <v>42.033818869987371</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
@@ -12099,7 +12099,7 @@
         <v>49.5</v>
       </c>
       <c r="J242">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K242">
         <f t="shared" si="12"/>
@@ -12107,7 +12107,7 @@
       </c>
       <c r="L242">
         <f t="shared" si="13"/>
-        <v>41.721742895380522</v>
+        <v>16.688697158152209</v>
       </c>
       <c r="M242">
         <f t="shared" si="14"/>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="N242">
         <f t="shared" si="15"/>
-        <v>81.150591217928849</v>
+        <v>56.117545480700542</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
@@ -12147,7 +12147,7 @@
         <v>42.5</v>
       </c>
       <c r="J243">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K243">
         <f t="shared" si="12"/>
@@ -12155,7 +12155,7 @@
       </c>
       <c r="L243">
         <f t="shared" si="13"/>
-        <v>45.572980701107959</v>
+        <v>18.229192280443183</v>
       </c>
       <c r="M243">
         <f t="shared" si="14"/>
@@ -12163,7 +12163,7 @@
       </c>
       <c r="N243">
         <f t="shared" si="15"/>
-        <v>72.262152669613471</v>
+        <v>44.918364248948691</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
@@ -12195,7 +12195,7 @@
         <v>50.14</v>
       </c>
       <c r="J244">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K244">
         <f t="shared" si="12"/>
@@ -12203,7 +12203,7 @@
       </c>
       <c r="L244">
         <f t="shared" si="13"/>
-        <v>46.39457809966315</v>
+        <v>18.557831239865259</v>
       </c>
       <c r="M244">
         <f t="shared" si="14"/>
@@ -12211,7 +12211,7 @@
       </c>
       <c r="N244">
         <f t="shared" si="15"/>
-        <v>84.666386995280163</v>
+        <v>56.829640135482279</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
@@ -12243,7 +12243,7 @@
         <v>34</v>
       </c>
       <c r="J245">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K245">
         <f t="shared" si="12"/>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="L245">
         <f t="shared" si="13"/>
-        <v>50.066091474456627</v>
+        <v>20.026436589782652</v>
       </c>
       <c r="M245">
         <f t="shared" si="14"/>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="N245">
         <f t="shared" si="15"/>
-        <v>73.26788953934647</v>
+        <v>43.228234654672491</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
@@ -12291,7 +12291,7 @@
         <v>44.43</v>
       </c>
       <c r="J246">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K246">
         <f t="shared" si="12"/>
@@ -12299,7 +12299,7 @@
       </c>
       <c r="L246">
         <f t="shared" si="13"/>
-        <v>38.884664378494648</v>
+        <v>15.55386575139786</v>
       </c>
       <c r="M246">
         <f t="shared" si="14"/>
@@ -12307,7 +12307,7 @@
       </c>
       <c r="N246">
         <f t="shared" si="15"/>
-        <v>67.784317601282979</v>
+        <v>44.453518974186188</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
@@ -12339,7 +12339,7 @@
         <v>63.5</v>
       </c>
       <c r="J247">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K247">
         <f t="shared" si="12"/>
@@ -12347,7 +12347,7 @@
       </c>
       <c r="L247">
         <f t="shared" si="13"/>
-        <v>52.633583344941584</v>
+        <v>21.053433337976635</v>
       </c>
       <c r="M247">
         <f t="shared" si="14"/>
@@ -12355,7 +12355,7 @@
       </c>
       <c r="N247">
         <f t="shared" si="15"/>
-        <v>99.36761309156158</v>
+        <v>67.787463084596624</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
@@ -12387,7 +12387,7 @@
         <v>42</v>
       </c>
       <c r="J248">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K248">
         <f t="shared" si="12"/>
@@ -12395,7 +12395,7 @@
       </c>
       <c r="L248">
         <f t="shared" si="13"/>
-        <v>39.796123992516804</v>
+        <v>15.918449597006722</v>
       </c>
       <c r="M248">
         <f t="shared" si="14"/>
@@ -12403,7 +12403,7 @@
       </c>
       <c r="N248">
         <f t="shared" si="15"/>
-        <v>72.705735436472949</v>
+        <v>48.828061040962872</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
@@ -12435,7 +12435,7 @@
         <v>47.71</v>
       </c>
       <c r="J249">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K249">
         <f t="shared" si="12"/>
@@ -12443,7 +12443,7 @@
       </c>
       <c r="L249">
         <f t="shared" si="13"/>
-        <v>36.496896938943642</v>
+        <v>14.598758775577457</v>
       </c>
       <c r="M249">
         <f t="shared" si="14"/>
@@ -12451,7 +12451,7 @@
       </c>
       <c r="N249">
         <f t="shared" si="15"/>
-        <v>73.718565866112641</v>
+        <v>51.820427702746457</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
@@ -12483,7 +12483,7 @@
         <v>39.5</v>
       </c>
       <c r="J250">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K250">
         <f t="shared" si="12"/>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="L250">
         <f t="shared" si="13"/>
-        <v>82.159739855518566</v>
+        <v>32.863895942207428</v>
       </c>
       <c r="M250">
         <f t="shared" si="14"/>
@@ -12499,7 +12499,7 @@
       </c>
       <c r="N250">
         <f t="shared" si="15"/>
-        <v>112.3989711378388</v>
+        <v>63.103127224527654</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
@@ -12531,7 +12531,7 @@
         <v>62.75</v>
       </c>
       <c r="J251">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K251">
         <f t="shared" si="12"/>
@@ -12539,7 +12539,7 @@
       </c>
       <c r="L251">
         <f t="shared" si="13"/>
-        <v>26.393816428585339</v>
+        <v>10.557526571434135</v>
       </c>
       <c r="M251">
         <f t="shared" si="14"/>
@@ -12547,7 +12547,7 @@
       </c>
       <c r="N251">
         <f t="shared" si="15"/>
-        <v>54.839421687519881</v>
+        <v>39.003131830368673</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
@@ -12579,7 +12579,7 @@
         <v>49.5</v>
       </c>
       <c r="J252">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K252">
         <f t="shared" si="12"/>
@@ -12587,7 +12587,7 @@
       </c>
       <c r="L252">
         <f t="shared" si="13"/>
-        <v>62.903550826881407</v>
+        <v>25.161420330752563</v>
       </c>
       <c r="M252">
         <f t="shared" si="14"/>
@@ -12595,7 +12595,7 @@
       </c>
       <c r="N252">
         <f t="shared" si="15"/>
-        <v>99.724704397992866</v>
+        <v>61.982573901864022</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
@@ -12627,7 +12627,7 @@
         <v>68.5</v>
       </c>
       <c r="J253">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K253">
         <f t="shared" si="12"/>
@@ -12635,7 +12635,7 @@
       </c>
       <c r="L253">
         <f t="shared" si="13"/>
-        <v>70.387789629345036</v>
+        <v>28.155115851738017</v>
       </c>
       <c r="M253">
         <f t="shared" si="14"/>
@@ -12643,7 +12643,7 @@
       </c>
       <c r="N253">
         <f t="shared" si="15"/>
-        <v>120.4856622689429</v>
+        <v>78.252988491335884</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
@@ -12675,7 +12675,7 @@
         <v>69.5</v>
       </c>
       <c r="J254">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K254">
         <f t="shared" si="12"/>
@@ -12683,7 +12683,7 @@
       </c>
       <c r="L254">
         <f t="shared" si="13"/>
-        <v>59.052313021153971</v>
+        <v>23.620925208461589</v>
       </c>
       <c r="M254">
         <f t="shared" si="14"/>
@@ -12691,7 +12691,7 @@
       </c>
       <c r="N254">
         <f t="shared" si="15"/>
-        <v>109.88564761692717</v>
+        <v>74.454259804234781</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
@@ -12723,7 +12723,7 @@
         <v>86.5</v>
       </c>
       <c r="J255">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K255">
         <f t="shared" si="12"/>
@@ -12731,7 +12731,7 @@
       </c>
       <c r="L255">
         <f t="shared" si="13"/>
-        <v>49.745154990646007</v>
+        <v>19.898061996258402</v>
       </c>
       <c r="M255">
         <f t="shared" si="14"/>
@@ -12739,7 +12739,7 @@
       </c>
       <c r="N255">
         <f t="shared" si="15"/>
-        <v>97.54662661144269</v>
+        <v>67.699533617055081</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
@@ -12771,7 +12771,7 @@
         <v>85</v>
       </c>
       <c r="J256">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K256">
         <f t="shared" si="12"/>
@@ -12779,7 +12779,7 @@
       </c>
       <c r="L256">
         <f t="shared" si="13"/>
-        <v>112.3277693337168</v>
+        <v>44.931107733486719</v>
       </c>
       <c r="M256">
         <f t="shared" si="14"/>
@@ -12787,7 +12787,7 @@
       </c>
       <c r="N256">
         <f t="shared" si="15"/>
-        <v>170.13585173672135</v>
+        <v>102.73919013649126</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
@@ -12819,7 +12819,7 @@
         <v>63.5</v>
       </c>
       <c r="J257">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K257">
         <f t="shared" si="12"/>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="L257">
         <f t="shared" si="13"/>
-        <v>116.17900713944422</v>
+        <v>46.471602855777689</v>
       </c>
       <c r="M257">
         <f t="shared" si="14"/>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="N257">
         <f t="shared" si="15"/>
-        <v>157.33587106125063</v>
+        <v>87.628466777584094</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
@@ -12867,7 +12867,7 @@
         <v>97</v>
       </c>
       <c r="J258">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K258">
         <f t="shared" si="12"/>
@@ -12875,7 +12875,7 @@
       </c>
       <c r="L258">
         <f t="shared" si="13"/>
-        <v>97.564691078428311</v>
+        <v>39.025876431371323</v>
       </c>
       <c r="M258">
         <f t="shared" si="14"/>
@@ -12883,7 +12883,7 @@
       </c>
       <c r="N258">
         <f t="shared" si="15"/>
-        <v>162.86571762750239</v>
+        <v>104.32690298044541</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
@@ -12915,7 +12915,7 @@
         <v>81</v>
       </c>
       <c r="J259">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K259">
         <f t="shared" ref="K259:K270" si="16">F259*C259</f>
@@ -12923,7 +12923,7 @@
       </c>
       <c r="L259">
         <f t="shared" ref="L259:L270" si="17">G259*D259*J259</f>
-        <v>52.851820153932813</v>
+        <v>21.140728061573125</v>
       </c>
       <c r="M259">
         <f t="shared" ref="M259:M270" si="18">H259*E259</f>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="N259">
         <f t="shared" ref="N259:N270" si="19">L259+M259+H259+K259</f>
-        <v>112.15151265465367</v>
+        <v>80.440420562293994</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
@@ -12963,7 +12963,7 @@
         <v>98</v>
       </c>
       <c r="J260">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K260">
         <f t="shared" si="16"/>
@@ -12971,7 +12971,7 @@
       </c>
       <c r="L260">
         <f t="shared" si="17"/>
-        <v>115.11349801319298</v>
+        <v>46.045399205277192</v>
       </c>
       <c r="M260">
         <f t="shared" si="18"/>
@@ -12979,7 +12979,7 @@
       </c>
       <c r="N260">
         <f t="shared" si="19"/>
-        <v>195.80544119374116</v>
+        <v>126.73734238582539</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
@@ -13011,7 +13011,7 @@
         <v>103</v>
       </c>
       <c r="J261">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K261">
         <f t="shared" si="16"/>
@@ -13019,7 +13019,7 @@
       </c>
       <c r="L261">
         <f t="shared" si="17"/>
-        <v>185.50128764253802</v>
+        <v>74.20051505701521</v>
       </c>
       <c r="M261">
         <f t="shared" si="18"/>
@@ -13027,7 +13027,7 @@
       </c>
       <c r="N261">
         <f t="shared" si="19"/>
-        <v>256.50455732822451</v>
+        <v>145.20378474270171</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
@@ -13059,7 +13059,7 @@
         <v>141</v>
       </c>
       <c r="J262">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K262">
         <f t="shared" si="16"/>
@@ -13067,7 +13067,7 @@
       </c>
       <c r="L262">
         <f t="shared" si="17"/>
-        <v>110.40215043085308</v>
+        <v>44.160860172341231</v>
       </c>
       <c r="M262">
         <f t="shared" si="18"/>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="N262">
         <f t="shared" si="19"/>
-        <v>221.3211220728266</v>
+        <v>155.07983181431476</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
@@ -13107,7 +13107,7 @@
         <v>117.5</v>
       </c>
       <c r="J263">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K263">
         <f t="shared" si="16"/>
@@ -13115,7 +13115,7 @@
       </c>
       <c r="L263">
         <f t="shared" si="17"/>
-        <v>168.81259048438579</v>
+        <v>67.525036193754318</v>
       </c>
       <c r="M263">
         <f t="shared" si="18"/>
@@ -13123,7 +13123,7 @@
       </c>
       <c r="N263">
         <f t="shared" si="19"/>
-        <v>241.5752184744299</v>
+        <v>140.28766418379843</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
@@ -13155,7 +13155,7 @@
         <v>34.5</v>
       </c>
       <c r="J264">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K264">
         <f t="shared" si="16"/>
@@ -13163,7 +13163,7 @@
       </c>
       <c r="L264">
         <f t="shared" si="17"/>
-        <v>43.005488830622994</v>
+        <v>17.202195532249199</v>
       </c>
       <c r="M264">
         <f t="shared" si="18"/>
@@ -13171,7 +13171,7 @@
       </c>
       <c r="N264">
         <f t="shared" si="19"/>
-        <v>66.238629600612356</v>
+        <v>40.435336302238561</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
@@ -13203,7 +13203,7 @@
         <v>54.45</v>
       </c>
       <c r="J265">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K265">
         <f t="shared" si="16"/>
@@ -13211,7 +13211,7 @@
       </c>
       <c r="L265">
         <f t="shared" si="17"/>
-        <v>59.989447553880979</v>
+        <v>23.995779021552391</v>
       </c>
       <c r="M265">
         <f t="shared" si="18"/>
@@ -13219,7 +13219,7 @@
       </c>
       <c r="N265">
         <f t="shared" si="19"/>
-        <v>102.04571569798496</v>
+        <v>66.052047165656376</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
@@ -13251,7 +13251,7 @@
         <v>37.5</v>
       </c>
       <c r="J266">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K266">
         <f t="shared" si="16"/>
@@ -13259,7 +13259,7 @@
       </c>
       <c r="L266">
         <f t="shared" si="17"/>
-        <v>59.052313021153971</v>
+        <v>23.620925208461589</v>
       </c>
       <c r="M266">
         <f t="shared" si="18"/>
@@ -13267,7 +13267,7 @@
       </c>
       <c r="N266">
         <f t="shared" si="19"/>
-        <v>76.127699725891745</v>
+        <v>40.696311913199359</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
@@ -13299,7 +13299,7 @@
         <v>49.67</v>
       </c>
       <c r="J267">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K267">
         <f t="shared" si="16"/>
@@ -13307,7 +13307,7 @@
       </c>
       <c r="L267">
         <f t="shared" si="17"/>
-        <v>53.493693121554045</v>
+        <v>21.39747724862162</v>
       </c>
       <c r="M267">
         <f t="shared" si="18"/>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="N267">
         <f t="shared" si="19"/>
-        <v>88.212851950572698</v>
+        <v>56.116636077640273</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
@@ -13347,7 +13347,7 @@
         <v>80</v>
       </c>
       <c r="J268">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K268">
         <f t="shared" si="16"/>
@@ -13355,7 +13355,7 @@
       </c>
       <c r="L268">
         <f t="shared" si="17"/>
-        <v>64.187296762123879</v>
+        <v>25.674918704849553</v>
       </c>
       <c r="M268">
         <f t="shared" si="18"/>
@@ -13363,7 +13363,7 @@
       </c>
       <c r="N268">
         <f t="shared" si="19"/>
-        <v>124.27293380832423</v>
+        <v>85.760555751049893</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
@@ -13395,7 +13395,7 @@
         <v>54</v>
       </c>
       <c r="J269">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K269">
         <f t="shared" si="16"/>
@@ -13403,7 +13403,7 @@
       </c>
       <c r="L269">
         <f t="shared" si="17"/>
-        <v>93.71345327270086</v>
+        <v>37.485381309080346</v>
       </c>
       <c r="M269">
         <f t="shared" si="18"/>
@@ -13411,7 +13411,7 @@
       </c>
       <c r="N269">
         <f t="shared" si="19"/>
-        <v>127.86422668217639</v>
+        <v>71.636154718555886</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
@@ -13443,7 +13443,7 @@
         <v>50.3</v>
       </c>
       <c r="J270">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="K270">
         <f t="shared" si="16"/>
@@ -13451,7 +13451,7 @@
       </c>
       <c r="L270">
         <f t="shared" si="17"/>
-        <v>34.276016470974156</v>
+        <v>13.710406588389661</v>
       </c>
       <c r="M270">
         <f t="shared" si="18"/>
@@ -13459,7 +13459,7 @@
       </c>
       <c r="N270">
         <f t="shared" si="19"/>
-        <v>69.586044130831894</v>
+        <v>49.020434248247398</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">

--- a/test/config/LevelMatch.xlsx
+++ b/test/config/LevelMatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Data\PPO_M3_Simulator\test\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lap14888/Documents/PPO_M3_Simulator/test/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEE01D7-A837-43B2-8269-38159FEECD50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3769AAE0-FC37-2C42-BDEA-15681EA2B117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12510" xr2:uid="{B9903A0D-43CB-4CC0-90C5-F208CAF6E270}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{B9903A0D-43CB-4CC0-90C5-F208CAF6E270}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -491,22 +501,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91DACD3-D001-456A-B059-56F94030D226}">
   <dimension ref="A1:N278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J270"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -579,7 +589,7 @@
         <v>11.49</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K2">
         <f>F2*C2</f>
@@ -587,7 +597,7 @@
       </c>
       <c r="L2">
         <f>G2*D2*J2</f>
-        <v>4.5711417828975272</v>
+        <v>11.427854457243818</v>
       </c>
       <c r="M2">
         <f>H2/E2</f>
@@ -595,10 +605,10 @@
       </c>
       <c r="N2">
         <f>L2+M2+H2+K2</f>
-        <v>9.3368569239154731</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>16.193569598261764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -627,7 +637,7 @@
         <v>28.25</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K66" si="0">F3*C3</f>
@@ -635,7 +645,7 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" si="1">G3*D3*J3</f>
-        <v>6.9810683138435037</v>
+        <v>17.45267078460876</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M66" si="2">H3*E3</f>
@@ -643,10 +653,10 @@
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="3">L3+M3+H3+K3</f>
-        <v>17.817428086062836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>28.289030556828092</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -675,7 +685,7 @@
         <v>70.260000000000005</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
@@ -683,7 +693,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>18.781989689578957</v>
+        <v>46.954974223947389</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
@@ -691,10 +701,10 @@
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
-        <v>53.66151821231184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>81.834502746680272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -723,7 +733,7 @@
         <v>38.39</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
@@ -731,7 +741,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>9.8026548927802502</v>
+        <v>24.506637231950627</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
@@ -739,10 +749,10 @@
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>31.612707135171306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>46.316689474341679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -771,7 +781,7 @@
         <v>19.22</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
@@ -779,7 +789,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>9.511062358786786</v>
+        <v>23.777655896966966</v>
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
@@ -787,10 +797,10 @@
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>19.526631977430345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>33.793225515610523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -819,7 +829,7 @@
         <v>32.130000000000003</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
@@ -827,7 +837,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>6.8352720468467707</v>
+        <v>17.088180117116927</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
@@ -835,10 +845,10 @@
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>24.603241829912715</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>34.856149900182871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -867,7 +877,7 @@
         <v>62.91</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
@@ -875,7 +885,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>23.147301448481098</v>
+        <v>57.868253621202747</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
@@ -883,10 +893,10 @@
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>51.869554558501797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>86.590506731223442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -915,7 +925,7 @@
         <v>39.369999999999997</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
@@ -923,7 +933,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>7.1691215198744924</v>
+        <v>17.922803799686232</v>
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
@@ -931,10 +941,10 @@
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
-        <v>27.369883563246376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>38.12356584305811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -963,7 +973,7 @@
         <v>86.83</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
@@ -971,7 +981,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>13.918545364152989</v>
+        <v>34.796363410382469</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
@@ -979,10 +989,10 @@
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
-        <v>52.851207395118877</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>73.729025441348355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1011,7 +1021,7 @@
         <v>39.979999999999997</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
@@ -1019,7 +1029,7 @@
       </c>
       <c r="L11">
         <f>G11*D11*J11</f>
-        <v>8.3168661837492639</v>
+        <v>20.792165459373159</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
@@ -1027,10 +1037,10 @@
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
-        <v>32.51577086389343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>44.991070139517326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1059,7 +1069,7 @@
         <v>70.38</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
@@ -1067,7 +1077,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>13.169085229160135</v>
+        <v>32.922713072900336</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
@@ -1075,10 +1085,10 @@
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
-        <v>52.912607801435605</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>72.666235645175803</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1107,7 +1117,7 @@
         <v>25.25</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
@@ -1115,7 +1125,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>5.4175261186626251</v>
+        <v>13.543815296656563</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
@@ -1123,10 +1133,10 @@
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>20.911880695068216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29.038169873062156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1155,7 +1165,7 @@
         <v>35.450000000000003</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
@@ -1163,7 +1173,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>3.4774950263668387</v>
+        <v>8.6937375659170968</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
@@ -1171,10 +1181,10 @@
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
-        <v>22.910934743483224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>28.127177283033483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1203,7 +1213,7 @@
         <v>36.86</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
@@ -1211,7 +1221,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>4.7622838292117304</v>
+        <v>11.905709573029327</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
@@ -1219,10 +1229,10 @@
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
-        <v>32.107809515846313</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39.251235259663908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1251,7 +1261,7 @@
         <v>84.5</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
@@ -1259,7 +1269,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>15.63159710127951</v>
+        <v>39.078992753198776</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
@@ -1267,10 +1277,10 @@
       </c>
       <c r="N16">
         <f t="shared" si="3"/>
-        <v>72.28895427806205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>95.736349929981316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1299,7 +1309,7 @@
         <v>30.13</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
@@ -1307,7 +1317,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>4.4111082231007934</v>
+        <v>11.027770557751984</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
@@ -1315,10 +1325,10 @@
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
-        <v>25.62005591109299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>32.236718245744186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1347,7 +1357,7 @@
         <v>47.15</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
@@ -1355,7 +1365,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>7.053490527618453</v>
+        <v>17.633726319046133</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
@@ -1363,10 +1373,10 @@
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
-        <v>40.912111124873221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>51.492346916300903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1395,7 +1405,7 @@
         <v>33.65</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
@@ -1403,7 +1413,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>6.7751196203353938</v>
+        <v>16.937799050838485</v>
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
@@ -1411,10 +1421,10 @@
       </c>
       <c r="N19">
         <f t="shared" si="3"/>
-        <v>29.326899093011491</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39.489578523514588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1443,7 +1453,7 @@
         <v>45.11</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
@@ -1451,7 +1461,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>4.0899110223895709</v>
+        <v>10.224777555973928</v>
       </c>
       <c r="M20">
         <f t="shared" si="2"/>
@@ -1459,10 +1469,10 @@
       </c>
       <c r="N20">
         <f t="shared" si="3"/>
-        <v>35.581045952151797</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>41.715912485736155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1491,7 +1501,7 @@
         <v>81.5</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
@@ -1499,7 +1509,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>13.490282429871359</v>
+        <v>33.725706074678399</v>
       </c>
       <c r="M21">
         <f t="shared" si="2"/>
@@ -1507,10 +1517,10 @@
       </c>
       <c r="N21">
         <f t="shared" si="3"/>
-        <v>80.841665370315681</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101.07708901512272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1539,7 +1549,7 @@
         <v>31.5</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
@@ -1547,7 +1557,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>8.1369957513509785</v>
+        <v>20.342489378377447</v>
       </c>
       <c r="M22">
         <f t="shared" si="2"/>
@@ -1555,10 +1565,10 @@
       </c>
       <c r="N22">
         <f t="shared" si="3"/>
-        <v>36.46567433974225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>48.671167966768721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1587,7 +1597,7 @@
         <v>60</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
@@ -1595,7 +1605,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>10.70657335704076</v>
+        <v>26.7664333926019</v>
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
@@ -1603,10 +1613,10 @@
       </c>
       <c r="N23">
         <f t="shared" si="3"/>
-        <v>59.484953797107082</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75.544813832668225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1635,7 +1645,7 @@
         <v>45</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
@@ -1643,7 +1653,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>5.995681079942826</v>
+        <v>14.989202699857065</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
@@ -1651,10 +1661,10 @@
       </c>
       <c r="N24">
         <f t="shared" si="3"/>
-        <v>49.516142797646012</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>58.509664417560245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1683,7 +1693,7 @@
         <v>78.5</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
@@ -1691,7 +1701,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>7.7087328170693477</v>
+        <v>19.27183204267337</v>
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
@@ -1699,10 +1709,10 @@
       </c>
       <c r="N25">
         <f t="shared" si="3"/>
-        <v>76.370644764690226</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>87.933743990294246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1731,7 +1741,7 @@
         <v>62.5</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
@@ -1739,7 +1749,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>9.8500474884775002</v>
+        <v>24.625118721193751</v>
       </c>
       <c r="M26">
         <f t="shared" si="2"/>
@@ -1747,10 +1757,10 @@
       </c>
       <c r="N26">
         <f t="shared" si="3"/>
-        <v>57.868266571830809</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>72.643337804547059</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1779,7 +1789,7 @@
         <v>60</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
@@ -1787,7 +1797,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>8.1369957513509785</v>
+        <v>20.342489378377447</v>
       </c>
       <c r="M27">
         <f t="shared" si="2"/>
@@ -1795,10 +1805,10 @@
       </c>
       <c r="N27">
         <f t="shared" si="3"/>
-        <v>59.16425487424236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>71.369748501268845</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1827,7 +1837,7 @@
         <v>43</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
@@ -1835,7 +1845,7 @@
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>3.4261034742530434</v>
+        <v>8.5652586856326085</v>
       </c>
       <c r="M28">
         <f t="shared" si="2"/>
@@ -1843,10 +1853,10 @@
       </c>
       <c r="N28">
         <f t="shared" si="3"/>
-        <v>34.942010421117899</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>40.081165632497466</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1875,7 +1885,7 @@
         <v>67</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
@@ -1883,7 +1893,7 @@
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>9.4217845541958702</v>
+        <v>23.554461385489674</v>
       </c>
       <c r="M29">
         <f t="shared" si="2"/>
@@ -1891,10 +1901,10 @@
       </c>
       <c r="N29">
         <f t="shared" si="3"/>
-        <v>49.188847569304954</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>63.321524400598761</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1923,7 +1933,7 @@
         <v>54</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
@@ -1931,7 +1941,7 @@
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>9.4217845541958702</v>
+        <v>23.554461385489674</v>
       </c>
       <c r="M30">
         <f t="shared" si="2"/>
@@ -1939,10 +1949,10 @@
       </c>
       <c r="N30">
         <f t="shared" si="3"/>
-        <v>56.695644974493163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>70.82832180578697</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1971,7 +1981,7 @@
         <v>98</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
@@ -1979,7 +1989,7 @@
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>12.847888028448914</v>
+        <v>32.119720071122288</v>
       </c>
       <c r="M31">
         <f t="shared" si="2"/>
@@ -1987,10 +1997,10 @@
       </c>
       <c r="N31">
         <f t="shared" si="3"/>
-        <v>102.50986947820836</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>121.78170152088173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2019,7 +2029,7 @@
         <v>51</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
@@ -2027,7 +2037,7 @@
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>3.8543664085346738</v>
+        <v>9.6359160213366852</v>
       </c>
       <c r="M32">
         <f t="shared" si="2"/>
@@ -2035,10 +2045,10 @@
       </c>
       <c r="N32">
         <f t="shared" si="3"/>
-        <v>45.49812877494081</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>51.27967838774282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2067,7 +2077,7 @@
         <v>32</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
@@ -2075,7 +2085,7 @@
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>11.991362159885652</v>
+        <v>29.978405399714131</v>
       </c>
       <c r="M33">
         <f t="shared" si="2"/>
@@ -2083,10 +2093,10 @@
       </c>
       <c r="N33">
         <f t="shared" si="3"/>
-        <v>40.886211092397431</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>58.873254332225912</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2115,7 +2125,7 @@
         <v>72.5</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
@@ -2123,7 +2133,7 @@
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>3.6402349413938584</v>
+        <v>9.1005873534846451</v>
       </c>
       <c r="M34">
         <f t="shared" si="2"/>
@@ -2131,10 +2141,10 @@
       </c>
       <c r="N34">
         <f t="shared" si="3"/>
-        <v>62.158488775816458</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>67.618841187907236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2163,7 +2173,7 @@
         <v>28</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
@@ -2171,7 +2181,7 @@
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>3.4261034742530434</v>
+        <v>8.5652586856326085</v>
       </c>
       <c r="M35">
         <f t="shared" si="2"/>
@@ -2179,10 +2189,10 @@
       </c>
       <c r="N35">
         <f t="shared" si="3"/>
-        <v>26.302872327688672</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>31.442027539068235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2211,7 +2221,7 @@
         <v>79</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
@@ -2219,7 +2229,7 @@
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>4.7108922770979351</v>
+        <v>11.777230692744837</v>
       </c>
       <c r="M36">
         <f t="shared" si="2"/>
@@ -2227,10 +2237,10 @@
       </c>
       <c r="N36">
         <f t="shared" si="3"/>
-        <v>60.592285403510459</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>67.65862381915737</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2259,7 +2269,7 @@
         <v>56</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
@@ -2267,7 +2277,7 @@
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>8.5652586856326085</v>
+        <v>21.41314671408152</v>
       </c>
       <c r="M37">
         <f t="shared" si="2"/>
@@ -2275,10 +2285,10 @@
       </c>
       <c r="N37">
         <f t="shared" si="3"/>
-        <v>62.213575822877068</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75.061463851325982</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2307,7 +2317,7 @@
         <v>30</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
@@ -2315,7 +2325,7 @@
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>14.132676831293804</v>
+        <v>35.331692078234511</v>
       </c>
       <c r="M38">
         <f t="shared" si="2"/>
@@ -2323,10 +2333,10 @@
       </c>
       <c r="N38">
         <f t="shared" si="3"/>
-        <v>44.516243089917637</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>65.715258336858341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2355,7 +2365,7 @@
         <v>41.18</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
@@ -2363,7 +2373,7 @@
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>9.0399652403505844</v>
+        <v>22.59991310087646</v>
       </c>
       <c r="M39">
         <f t="shared" si="2"/>
@@ -2371,10 +2381,10 @@
       </c>
       <c r="N39">
         <f t="shared" si="3"/>
-        <v>36.931776871415195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>50.491724731941069</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -2403,7 +2413,7 @@
         <v>30.99</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
@@ -2411,7 +2421,7 @@
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>7.9040533776887312</v>
+        <v>19.760133444221829</v>
       </c>
       <c r="M40">
         <f t="shared" si="2"/>
@@ -2419,10 +2429,10 @@
       </c>
       <c r="N40">
         <f t="shared" si="3"/>
-        <v>29.153151949332909</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>41.009232015866004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2</v>
       </c>
@@ -2451,7 +2461,7 @@
         <v>50.59</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
@@ -2459,7 +2469,7 @@
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>10.524395515420052</v>
+        <v>26.31098878855013</v>
       </c>
       <c r="M41">
         <f t="shared" si="2"/>
@@ -2467,10 +2477,10 @@
       </c>
       <c r="N41">
         <f t="shared" si="3"/>
-        <v>43.970337235556201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>59.756930508686281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -2499,7 +2509,7 @@
         <v>67.5</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
@@ -2507,7 +2517,7 @@
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>5.5935053843197329</v>
+        <v>13.983763460799333</v>
       </c>
       <c r="M42">
         <f t="shared" si="2"/>
@@ -2515,10 +2525,10 @@
       </c>
       <c r="N42">
         <f t="shared" si="3"/>
-        <v>69.916887129372569</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>78.307145205852166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -2547,7 +2557,7 @@
         <v>45.49</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
@@ -2555,7 +2565,7 @@
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>10.304957996496739</v>
+        <v>25.762394991241848</v>
       </c>
       <c r="M43">
         <f t="shared" si="2"/>
@@ -2563,10 +2573,10 @@
       </c>
       <c r="N43">
         <f t="shared" si="3"/>
-        <v>36.113175786102239</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>51.570612780847348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -2595,7 +2605,7 @@
         <v>44.57</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
@@ -2603,7 +2613,7 @@
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>11.836717932510451</v>
+        <v>29.591794831276129</v>
       </c>
       <c r="M44">
         <f t="shared" si="2"/>
@@ -2611,10 +2621,10 @@
       </c>
       <c r="N44">
         <f t="shared" si="3"/>
-        <v>40.602164526114827</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>58.357241424880506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2643,7 +2653,7 @@
         <v>44.92</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
@@ -2651,7 +2661,7 @@
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>9.646645439726802</v>
+        <v>24.116613599317006</v>
       </c>
       <c r="M45">
         <f t="shared" si="2"/>
@@ -2659,10 +2669,10 @@
       </c>
       <c r="N45">
         <f t="shared" si="3"/>
-        <v>39.829929913251682</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>54.299898072841884</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2</v>
       </c>
@@ -2691,7 +2701,7 @@
         <v>73</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
@@ -2699,7 +2709,7 @@
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>8.3902580764795989</v>
+        <v>20.975645191198996</v>
       </c>
       <c r="M46">
         <f t="shared" si="2"/>
@@ -2707,10 +2717,10 @@
       </c>
       <c r="N46">
         <f t="shared" si="3"/>
-        <v>79.607692750636375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>92.193079865355784</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2</v>
       </c>
@@ -2739,7 +2749,7 @@
         <v>51.7</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
@@ -2747,7 +2757,7 @@
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>13.428715618816836</v>
+        <v>33.571789047042088</v>
       </c>
       <c r="M47">
         <f t="shared" si="2"/>
@@ -2755,10 +2765,10 @@
       </c>
       <c r="N47">
         <f t="shared" si="3"/>
-        <v>46.235084179976241</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>66.378157608201491</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
@@ -2787,7 +2797,7 @@
         <v>59.67</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
@@ -2795,7 +2805,7 @@
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>13.940736496304565</v>
+        <v>34.851841240761409</v>
       </c>
       <c r="M48">
         <f t="shared" si="2"/>
@@ -2803,10 +2813,10 @@
       </c>
       <c r="N48">
         <f t="shared" si="3"/>
-        <v>54.16459931494181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75.07570405939866</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2835,7 +2845,7 @@
         <v>53.87</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
@@ -2843,7 +2853,7 @@
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>12.310014541952889</v>
+        <v>30.775036354882221</v>
       </c>
       <c r="M49">
         <f t="shared" si="2"/>
@@ -2851,10 +2861,10 @@
       </c>
       <c r="N49">
         <f t="shared" si="3"/>
-        <v>49.216954405462559</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <v>67.681976218391895</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2</v>
       </c>
@@ -2883,7 +2893,7 @@
         <v>85.47</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
@@ -2891,7 +2901,7 @@
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>21.444639104191964</v>
+        <v>53.61159776047991</v>
       </c>
       <c r="M50">
         <f t="shared" si="2"/>
@@ -2899,10 +2909,10 @@
       </c>
       <c r="N50">
         <f t="shared" si="3"/>
-        <v>77.093269050104041</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109.26022770639199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2931,7 +2941,7 @@
         <v>100.5</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
@@ -2939,7 +2949,7 @@
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>21.728617069857425</v>
+        <v>54.32154267464356</v>
       </c>
       <c r="M51">
         <f t="shared" si="2"/>
@@ -2947,10 +2957,10 @@
       </c>
       <c r="N51">
         <f t="shared" si="3"/>
-        <v>104.55305190642785</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>137.145977511214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2979,7 +2989,7 @@
         <v>45.5</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
@@ -2987,7 +2997,7 @@
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>7.7448536090580919</v>
+        <v>19.362134022645229</v>
       </c>
       <c r="M52">
         <f t="shared" si="2"/>
@@ -2995,10 +3005,10 @@
       </c>
       <c r="N52">
         <f t="shared" si="3"/>
-        <v>51.386076566799076</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+        <v>63.003356980386215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2</v>
       </c>
@@ -3027,7 +3037,7 @@
         <v>55</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
@@ -3035,7 +3045,7 @@
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>9.6810670113226145</v>
+        <v>24.202667528306534</v>
       </c>
       <c r="M53">
         <f t="shared" si="2"/>
@@ -3043,10 +3053,10 @@
       </c>
       <c r="N53">
         <f t="shared" si="3"/>
-        <v>63.429345146432581</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>77.950945663416505</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2</v>
       </c>
@@ -3075,7 +3085,7 @@
         <v>82.25</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
@@ -3083,7 +3093,7 @@
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>14.414033105747004</v>
+        <v>36.035082764367509</v>
       </c>
       <c r="M54">
         <f t="shared" si="2"/>
@@ -3091,10 +3101,10 @@
       </c>
       <c r="N54">
         <f t="shared" si="3"/>
-        <v>99.177632324355727</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>120.79868198297623</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
@@ -3123,7 +3133,7 @@
         <v>64.25</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
@@ -3131,7 +3141,7 @@
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>9.1432299551380254</v>
+        <v>22.858074887845063</v>
       </c>
       <c r="M55">
         <f t="shared" si="2"/>
@@ -3139,10 +3149,10 @@
       </c>
       <c r="N55">
         <f t="shared" si="3"/>
-        <v>60.582934317254669</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <v>74.297779249961707</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
@@ -3171,7 +3181,7 @@
         <v>71.5</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
@@ -3179,7 +3189,7 @@
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>10.111336656270288</v>
+        <v>25.27834164067572</v>
       </c>
       <c r="M56">
         <f t="shared" si="2"/>
@@ -3187,10 +3197,10 @@
       </c>
       <c r="N56">
         <f t="shared" si="3"/>
-        <v>78.084100692286</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+        <v>93.251105676691424</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
@@ -3219,7 +3229,7 @@
         <v>80.5</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
@@ -3227,7 +3237,7 @@
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>21.728617069857425</v>
+        <v>54.32154267464356</v>
       </c>
       <c r="M57">
         <f t="shared" si="2"/>
@@ -3235,10 +3245,10 @@
       </c>
       <c r="N57">
         <f t="shared" si="3"/>
-        <v>91.042189623842674</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>123.63511522862881</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -3267,7 +3277,7 @@
         <v>50.5</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
@@ -3275,7 +3285,7 @@
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>6.023775029267405</v>
+        <v>15.059437573168513</v>
       </c>
       <c r="M58">
         <f t="shared" si="2"/>
@@ -3283,10 +3293,10 @@
       </c>
       <c r="N58">
         <f t="shared" si="3"/>
-        <v>56.075168288600452</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <v>65.110830832501549</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3315,7 +3325,7 @@
         <v>72.5</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
@@ -3323,7 +3333,7 @@
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>23.664830472121949</v>
+        <v>59.162076180304872</v>
       </c>
       <c r="M59">
         <f t="shared" si="2"/>
@@ -3331,10 +3341,10 @@
       </c>
       <c r="N59">
         <f t="shared" si="3"/>
-        <v>87.520163784600911</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+        <v>123.01740949278383</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -3363,7 +3373,7 @@
         <v>94.5</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
@@ -3371,7 +3381,7 @@
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>18.716729555223722</v>
+        <v>46.791823888059305</v>
       </c>
       <c r="M60">
         <f t="shared" si="2"/>
@@ -3379,10 +3389,10 @@
       </c>
       <c r="N60">
         <f t="shared" si="3"/>
-        <v>100.94564788202119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+        <v>129.02074221485677</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2</v>
       </c>
@@ -3411,7 +3421,7 @@
         <v>74</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
@@ -3419,7 +3429,7 @@
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>24.525369762017291</v>
+        <v>61.313424405043229</v>
       </c>
       <c r="M61">
         <f t="shared" si="2"/>
@@ -3427,10 +3437,10 @@
       </c>
       <c r="N61">
         <f t="shared" si="3"/>
-        <v>89.293048647236958</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+        <v>126.08110329026289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2</v>
       </c>
@@ -3459,7 +3469,7 @@
         <v>87.38</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
@@ -3467,7 +3477,7 @@
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>26.302383395651177</v>
+        <v>65.755958489127948</v>
       </c>
       <c r="M62">
         <f t="shared" si="2"/>
@@ -3475,10 +3485,10 @@
       </c>
       <c r="N62">
         <f t="shared" si="3"/>
-        <v>102.09738012844957</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <v>141.55095522192633</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2</v>
       </c>
@@ -3507,7 +3517,7 @@
         <v>45</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
@@ -3515,7 +3525,7 @@
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>7.7448536090580919</v>
+        <v>19.362134022645229</v>
       </c>
       <c r="M63">
         <f t="shared" si="2"/>
@@ -3523,10 +3533,10 @@
       </c>
       <c r="N63">
         <f t="shared" si="3"/>
-        <v>40.374592914158384</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+        <v>51.991873327745523</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2</v>
       </c>
@@ -3555,7 +3565,7 @@
         <v>46</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
@@ -3563,7 +3573,7 @@
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>16.780516152959198</v>
+        <v>41.951290382397993</v>
       </c>
       <c r="M64">
         <f t="shared" si="2"/>
@@ -3571,10 +3581,10 @@
       </c>
       <c r="N64">
         <f t="shared" si="3"/>
-        <v>60.921455933150099</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <v>86.092230162588891</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2</v>
       </c>
@@ -3603,7 +3613,7 @@
         <v>68</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
@@ -3611,7 +3621,7 @@
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>36.14265017560443</v>
+        <v>90.356625439011083</v>
       </c>
       <c r="M65">
         <f t="shared" si="2"/>
@@ -3619,10 +3629,10 @@
       </c>
       <c r="N65">
         <f t="shared" si="3"/>
-        <v>92.183667888769705</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+        <v>146.39764315217639</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3651,7 +3661,7 @@
         <v>77</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
@@ -3659,7 +3669,7 @@
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>18.716729555223722</v>
+        <v>46.791823888059305</v>
       </c>
       <c r="M66">
         <f t="shared" si="2"/>
@@ -3667,10 +3677,10 @@
       </c>
       <c r="N66">
         <f t="shared" si="3"/>
-        <v>80.731537527283223</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+        <v>108.80663186011881</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
@@ -3699,7 +3709,7 @@
         <v>37.5</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K67">
         <f t="shared" ref="K67:K130" si="4">F67*C67</f>
@@ -3707,7 +3717,7 @@
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L130" si="5">G67*D67*J67</f>
-        <v>15.059437573168513</v>
+        <v>37.64859393292128</v>
       </c>
       <c r="M67">
         <f t="shared" ref="M67:M130" si="6">H67*E67</f>
@@ -3715,10 +3725,10 @@
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N130" si="7">L67+M67+H67+K67</f>
-        <v>49.077487981052407</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+        <v>71.666644340805178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2</v>
       </c>
@@ -3747,7 +3757,7 @@
         <v>43.5</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K68">
         <f t="shared" si="4"/>
@@ -3755,7 +3765,7 @@
       </c>
       <c r="L68">
         <f t="shared" si="5"/>
-        <v>12.908089348430153</v>
+        <v>32.270223371075382</v>
       </c>
       <c r="M68">
         <f t="shared" si="6"/>
@@ -3763,10 +3773,10 @@
       </c>
       <c r="N68">
         <f t="shared" si="7"/>
-        <v>56.565146501109155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+        <v>75.927280523754391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2</v>
       </c>
@@ -3795,7 +3805,7 @@
         <v>82.5</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K69">
         <f t="shared" si="4"/>
@@ -3803,7 +3813,7 @@
       </c>
       <c r="L69">
         <f t="shared" si="5"/>
-        <v>24.09510011706962</v>
+        <v>60.23775029267405</v>
       </c>
       <c r="M69">
         <f t="shared" si="6"/>
@@ -3811,10 +3821,10 @@
       </c>
       <c r="N69">
         <f t="shared" si="7"/>
-        <v>93.924223688442794</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+        <v>130.06687386404724</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2</v>
       </c>
@@ -3843,7 +3853,7 @@
         <v>55</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K70">
         <f t="shared" si="4"/>
@@ -3851,7 +3861,7 @@
       </c>
       <c r="L70">
         <f t="shared" si="5"/>
-        <v>18.716729555223722</v>
+        <v>46.791823888059305</v>
       </c>
       <c r="M70">
         <f t="shared" si="6"/>
@@ -3859,10 +3869,10 @@
       </c>
       <c r="N70">
         <f t="shared" si="7"/>
-        <v>69.688385484766485</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+        <v>97.763479817602075</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2</v>
       </c>
@@ -3891,7 +3901,7 @@
         <v>62</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K71">
         <f t="shared" si="4"/>
@@ -3899,7 +3909,7 @@
       </c>
       <c r="L71">
         <f t="shared" si="5"/>
-        <v>21.728617069857425</v>
+        <v>54.32154267464356</v>
       </c>
       <c r="M71">
         <f t="shared" si="6"/>
@@ -3907,10 +3917,10 @@
       </c>
       <c r="N71">
         <f t="shared" si="7"/>
-        <v>76.381323680239106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+        <v>108.97424928502524</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2</v>
       </c>
@@ -3939,7 +3949,7 @@
         <v>94</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K72">
         <f t="shared" si="4"/>
@@ -3947,7 +3957,7 @@
       </c>
       <c r="L72">
         <f t="shared" si="5"/>
-        <v>21.083212602435918</v>
+        <v>52.708031506089796</v>
       </c>
       <c r="M72">
         <f t="shared" si="6"/>
@@ -3955,10 +3965,10 @@
       </c>
       <c r="N72">
         <f t="shared" si="7"/>
-        <v>73.443179634762288</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+        <v>105.06799853841616</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2</v>
       </c>
@@ -3987,7 +3997,7 @@
         <v>66</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K73">
         <f t="shared" si="4"/>
@@ -3995,7 +4005,7 @@
       </c>
       <c r="L73">
         <f t="shared" si="5"/>
-        <v>33.02319524973381</v>
+        <v>82.557988124334528</v>
       </c>
       <c r="M73">
         <f t="shared" si="6"/>
@@ -4003,10 +4013,10 @@
       </c>
       <c r="N73">
         <f t="shared" si="7"/>
-        <v>77.584680877684534</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+        <v>127.11947375228524</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2</v>
       </c>
@@ -4035,7 +4045,7 @@
         <v>87.17</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K74">
         <f t="shared" si="4"/>
@@ -4043,7 +4053,7 @@
       </c>
       <c r="L74">
         <f t="shared" si="5"/>
-        <v>28.612931389020172</v>
+        <v>71.532328472550432</v>
       </c>
       <c r="M74">
         <f t="shared" si="6"/>
@@ -4051,10 +4061,10 @@
       </c>
       <c r="N74">
         <f t="shared" si="7"/>
-        <v>97.20890298231231</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+        <v>140.12830006584258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2</v>
       </c>
@@ -4083,7 +4093,7 @@
         <v>107.67</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K75">
         <f t="shared" si="4"/>
@@ -4091,7 +4101,7 @@
       </c>
       <c r="L75">
         <f t="shared" si="5"/>
-        <v>11.617280413587139</v>
+        <v>29.043201033967847</v>
       </c>
       <c r="M75">
         <f t="shared" si="6"/>
@@ -4099,10 +4109,10 @@
       </c>
       <c r="N75">
         <f t="shared" si="7"/>
-        <v>51.263157098711524</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <v>68.689077719092239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
@@ -4131,7 +4141,7 @@
         <v>68</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K76">
         <f t="shared" si="4"/>
@@ -4139,7 +4149,7 @@
       </c>
       <c r="L76">
         <f t="shared" si="5"/>
-        <v>21.94375189233126</v>
+        <v>54.859379730828152</v>
       </c>
       <c r="M76">
         <f t="shared" si="6"/>
@@ -4147,10 +4157,10 @@
       </c>
       <c r="N76">
         <f t="shared" si="7"/>
-        <v>70.856692460105663</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+        <v>103.77232029860255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2</v>
       </c>
@@ -4179,7 +4189,7 @@
         <v>99.75</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K77">
         <f t="shared" si="4"/>
@@ -4187,7 +4197,7 @@
       </c>
       <c r="L77">
         <f t="shared" si="5"/>
-        <v>28.612931389020172</v>
+        <v>71.532328472550432</v>
       </c>
       <c r="M77">
         <f t="shared" si="6"/>
@@ -4195,10 +4205,10 @@
       </c>
       <c r="N77">
         <f t="shared" si="7"/>
-        <v>110.83393261834863</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+        <v>153.7533297018789</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2</v>
       </c>
@@ -4227,7 +4237,7 @@
         <v>78</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K78">
         <f t="shared" si="4"/>
@@ -4235,7 +4245,7 @@
       </c>
       <c r="L78">
         <f t="shared" si="5"/>
-        <v>30.118875146337025</v>
+        <v>75.29718786584256</v>
       </c>
       <c r="M78">
         <f t="shared" si="6"/>
@@ -4243,10 +4253,10 @@
       </c>
       <c r="N78">
         <f t="shared" si="7"/>
-        <v>87.548203962285896</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132.72651668179145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2</v>
       </c>
@@ -4275,7 +4285,7 @@
         <v>60.5</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K79">
         <f t="shared" si="4"/>
@@ -4283,7 +4293,7 @@
       </c>
       <c r="L79">
         <f t="shared" si="5"/>
-        <v>14.414033105747004</v>
+        <v>36.035082764367509</v>
       </c>
       <c r="M79">
         <f t="shared" si="6"/>
@@ -4291,10 +4301,10 @@
       </c>
       <c r="N79">
         <f t="shared" si="7"/>
-        <v>67.725931198159145</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+        <v>89.346980856779652</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2</v>
       </c>
@@ -4323,7 +4333,7 @@
         <v>75</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K80">
         <f t="shared" si="4"/>
@@ -4331,7 +4341,7 @@
       </c>
       <c r="L80">
         <f t="shared" si="5"/>
-        <v>29.473470678915518</v>
+        <v>73.683676697288803</v>
       </c>
       <c r="M80">
         <f t="shared" si="6"/>
@@ -4339,10 +4349,10 @@
       </c>
       <c r="N80">
         <f t="shared" si="7"/>
-        <v>89.211373267857738</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+        <v>133.42157928623101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2</v>
       </c>
@@ -4371,7 +4381,7 @@
         <v>120.5</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K81">
         <f t="shared" si="4"/>
@@ -4379,7 +4389,7 @@
       </c>
       <c r="L81">
         <f t="shared" si="5"/>
-        <v>35.282110885709088</v>
+        <v>88.205277214272712</v>
       </c>
       <c r="M81">
         <f t="shared" si="6"/>
@@ -4387,10 +4397,10 @@
       </c>
       <c r="N81">
         <f t="shared" si="7"/>
-        <v>134.05992308134364</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+        <v>186.98308940990728</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2</v>
       </c>
@@ -4419,7 +4429,7 @@
         <v>54</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K82">
         <f t="shared" si="4"/>
@@ -4427,7 +4437,7 @@
       </c>
       <c r="L82">
         <f t="shared" si="5"/>
-        <v>34.20643677333991</v>
+        <v>85.51609193334977</v>
       </c>
       <c r="M82">
         <f t="shared" si="6"/>
@@ -4435,10 +4445,10 @@
       </c>
       <c r="N82">
         <f t="shared" si="7"/>
-        <v>77.847659731080896</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+        <v>129.15731489109075</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2</v>
       </c>
@@ -4467,7 +4477,7 @@
         <v>100.5</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K83">
         <f t="shared" si="4"/>
@@ -4475,7 +4485,7 @@
       </c>
       <c r="L83">
         <f t="shared" si="5"/>
-        <v>19.577268845119065</v>
+        <v>48.943172112797662</v>
       </c>
       <c r="M83">
         <f t="shared" si="6"/>
@@ -4483,10 +4493,10 @@
       </c>
       <c r="N83">
         <f t="shared" si="7"/>
-        <v>104.09892674997187</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+        <v>133.46483001765046</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2</v>
       </c>
@@ -4515,7 +4525,7 @@
         <v>82</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K84">
         <f t="shared" si="4"/>
@@ -4523,7 +4533,7 @@
       </c>
       <c r="L84">
         <f t="shared" si="5"/>
-        <v>17.210785797906873</v>
+        <v>43.026964494767185</v>
       </c>
       <c r="M84">
         <f t="shared" si="6"/>
@@ -4531,10 +4541,10 @@
       </c>
       <c r="N84">
         <f t="shared" si="7"/>
-        <v>84.731335596286712</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+        <v>110.54751429314703</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2</v>
       </c>
@@ -4563,7 +4573,7 @@
         <v>45</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K85">
         <f t="shared" si="4"/>
@@ -4571,7 +4581,7 @@
       </c>
       <c r="L85">
         <f t="shared" si="5"/>
-        <v>29.258335856441683</v>
+        <v>73.145839641104203</v>
       </c>
       <c r="M85">
         <f t="shared" si="6"/>
@@ -4579,10 +4589,10 @@
       </c>
       <c r="N85">
         <f t="shared" si="7"/>
-        <v>57.738976048129189</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101.62647983279172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2</v>
       </c>
@@ -4611,7 +4621,7 @@
         <v>104.5</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K86">
         <f t="shared" si="4"/>
@@ -4619,7 +4629,7 @@
       </c>
       <c r="L86">
         <f t="shared" si="5"/>
-        <v>36.14265017560443</v>
+        <v>90.356625439011083</v>
       </c>
       <c r="M86">
         <f t="shared" si="6"/>
@@ -4627,10 +4637,10 @@
       </c>
       <c r="N86">
         <f t="shared" si="7"/>
-        <v>120.18042545294531</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+        <v>174.39440071635198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2</v>
       </c>
@@ -4659,7 +4669,7 @@
         <v>89.5</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K87">
         <f t="shared" si="4"/>
@@ -4667,7 +4677,7 @@
       </c>
       <c r="L87">
         <f t="shared" si="5"/>
-        <v>33.991301950866074</v>
+        <v>84.978254877165185</v>
       </c>
       <c r="M87">
         <f t="shared" si="6"/>
@@ -4675,10 +4685,10 @@
       </c>
       <c r="N87">
         <f t="shared" si="7"/>
-        <v>107.01759357556627</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+        <v>158.00454650186538</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2</v>
       </c>
@@ -4707,7 +4717,7 @@
         <v>47.5</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K88">
         <f t="shared" si="4"/>
@@ -4715,7 +4725,7 @@
       </c>
       <c r="L88">
         <f t="shared" si="5"/>
-        <v>29.688605501389354</v>
+        <v>74.221513753473388</v>
       </c>
       <c r="M88">
         <f t="shared" si="6"/>
@@ -4723,10 +4733,10 @@
       </c>
       <c r="N88">
         <f t="shared" si="7"/>
-        <v>66.451609724964413</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+        <v>110.98451797704845</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3</v>
       </c>
@@ -4755,7 +4765,7 @@
         <v>54.8</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K89">
         <f t="shared" si="4"/>
@@ -4763,7 +4773,7 @@
       </c>
       <c r="L89">
         <f t="shared" si="5"/>
-        <v>8.4091780418936786</v>
+        <v>21.022945104734198</v>
       </c>
       <c r="M89">
         <f t="shared" si="6"/>
@@ -4771,10 +4781,10 @@
       </c>
       <c r="N89">
         <f t="shared" si="7"/>
-        <v>37.576688854512078</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+        <v>50.190455917352594</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>3</v>
       </c>
@@ -4803,7 +4813,7 @@
         <v>38.65</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K90">
         <f t="shared" si="4"/>
@@ -4811,7 +4821,7 @@
       </c>
       <c r="L90">
         <f t="shared" si="5"/>
-        <v>7.3377098379617065</v>
+        <v>18.344274594904267</v>
       </c>
       <c r="M90">
         <f t="shared" si="6"/>
@@ -4819,10 +4829,10 @@
       </c>
       <c r="N90">
         <f t="shared" si="7"/>
-        <v>28.931101019091873</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39.937665776034443</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>3</v>
       </c>
@@ -4851,7 +4861,7 @@
         <v>43.6</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K91">
         <f t="shared" si="4"/>
@@ -4859,7 +4869,7 @@
       </c>
       <c r="L91">
         <f t="shared" si="5"/>
-        <v>8.8821019388015827</v>
+        <v>22.205254847003957</v>
       </c>
       <c r="M91">
         <f t="shared" si="6"/>
@@ -4867,10 +4877,10 @@
       </c>
       <c r="N91">
         <f t="shared" si="7"/>
-        <v>31.858994436008508</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45.182147344210883</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>3</v>
       </c>
@@ -4899,7 +4909,7 @@
         <v>57.5</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K92">
         <f t="shared" si="4"/>
@@ -4907,7 +4917,7 @@
       </c>
       <c r="L92">
         <f t="shared" si="5"/>
-        <v>13.855192292223768</v>
+        <v>34.63798073055942</v>
       </c>
       <c r="M92">
         <f t="shared" si="6"/>
@@ -4915,10 +4925,10 @@
       </c>
       <c r="N92">
         <f t="shared" si="7"/>
-        <v>62.239983545309912</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+        <v>83.022771983645569</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>3</v>
       </c>
@@ -4947,7 +4957,7 @@
         <v>39.83</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K93">
         <f t="shared" si="4"/>
@@ -4955,7 +4965,7 @@
       </c>
       <c r="L93">
         <f t="shared" si="5"/>
-        <v>6.9830169152807784</v>
+        <v>17.457542288201946</v>
       </c>
       <c r="M93">
         <f t="shared" si="6"/>
@@ -4963,10 +4973,10 @@
       </c>
       <c r="N93">
         <f t="shared" si="7"/>
-        <v>29.197856340219801</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39.672381713140965</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>3</v>
       </c>
@@ -4995,7 +5005,7 @@
         <v>51.6</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K94">
         <f t="shared" si="4"/>
@@ -5003,7 +5013,7 @@
       </c>
       <c r="L94">
         <f t="shared" si="5"/>
-        <v>13.718487728273827</v>
+        <v>34.296219320684564</v>
       </c>
       <c r="M94">
         <f t="shared" si="6"/>
@@ -5011,10 +5021,10 @@
       </c>
       <c r="N94">
         <f t="shared" si="7"/>
-        <v>40.664327472788457</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+        <v>61.242059065199186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>3</v>
       </c>
@@ -5043,7 +5053,7 @@
         <v>51.91</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K95">
         <f t="shared" si="4"/>
@@ -5051,7 +5061,7 @@
       </c>
       <c r="L95">
         <f t="shared" si="5"/>
-        <v>10.363683834583378</v>
+        <v>25.909209586458445</v>
       </c>
       <c r="M95">
         <f t="shared" si="6"/>
@@ -5059,10 +5069,10 @@
       </c>
       <c r="N95">
         <f t="shared" si="7"/>
-        <v>40.241106848034818</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+        <v>55.786632599909886</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>3</v>
       </c>
@@ -5091,7 +5101,7 @@
         <v>57</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K96">
         <f t="shared" si="4"/>
@@ -5099,7 +5109,7 @@
       </c>
       <c r="L96">
         <f t="shared" si="5"/>
-        <v>29.188271762284735</v>
+        <v>72.970679405711834</v>
       </c>
       <c r="M96">
         <f t="shared" si="6"/>
@@ -5107,10 +5117,10 @@
       </c>
       <c r="N96">
         <f t="shared" si="7"/>
-        <v>74.406569495059543</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+        <v>118.18897713848663</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>3</v>
       </c>
@@ -5139,7 +5149,7 @@
         <v>59.55</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K97">
         <f t="shared" si="4"/>
@@ -5147,7 +5157,7 @@
       </c>
       <c r="L97">
         <f t="shared" si="5"/>
-        <v>11.010259474887153</v>
+        <v>27.525648687217881</v>
       </c>
       <c r="M97">
         <f t="shared" si="6"/>
@@ -5155,10 +5165,10 @@
       </c>
       <c r="N97">
         <f t="shared" si="7"/>
-        <v>47.724221672894814</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+        <v>64.239610885225545</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3</v>
       </c>
@@ -5187,7 +5197,7 @@
         <v>64.83</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K98">
         <f t="shared" si="4"/>
@@ -5195,7 +5205,7 @@
       </c>
       <c r="L98">
         <f t="shared" si="5"/>
-        <v>15.381110803340679</v>
+        <v>38.452777008351696</v>
       </c>
       <c r="M98">
         <f t="shared" si="6"/>
@@ -5203,10 +5213,10 @@
       </c>
       <c r="N98">
         <f t="shared" si="7"/>
-        <v>49.988100970256603</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+        <v>73.059767175267609</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>3</v>
       </c>
@@ -5235,7 +5245,7 @@
         <v>80.63</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K99">
         <f t="shared" si="4"/>
@@ -5243,7 +5253,7 @@
       </c>
       <c r="L99">
         <f t="shared" si="5"/>
-        <v>12.894565626629586</v>
+        <v>32.236414066573964</v>
       </c>
       <c r="M99">
         <f t="shared" si="6"/>
@@ -5251,10 +5261,10 @@
       </c>
       <c r="N99">
         <f t="shared" si="7"/>
-        <v>63.248976988035324</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+        <v>82.590825427979709</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>3</v>
       </c>
@@ -5283,7 +5293,7 @@
         <v>110.47</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K100">
         <f t="shared" si="4"/>
@@ -5291,7 +5301,7 @@
       </c>
       <c r="L100">
         <f t="shared" si="5"/>
-        <v>28.408686275975612</v>
+        <v>71.021715689939029</v>
       </c>
       <c r="M100">
         <f t="shared" si="6"/>
@@ -5299,10 +5309,10 @@
       </c>
       <c r="N100">
         <f t="shared" si="7"/>
-        <v>95.197501817026449</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+        <v>137.81053123098985</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>3</v>
       </c>
@@ -5331,7 +5341,7 @@
         <v>74.5</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K101">
         <f t="shared" si="4"/>
@@ -5339,7 +5349,7 @@
       </c>
       <c r="L101">
         <f t="shared" si="5"/>
-        <v>17.642278185431596</v>
+        <v>44.105695463578989</v>
       </c>
       <c r="M101">
         <f t="shared" si="6"/>
@@ -5347,10 +5357,10 @@
       </c>
       <c r="N101">
         <f t="shared" si="7"/>
-        <v>74.173418617425824</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+        <v>100.63683589557323</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>3</v>
       </c>
@@ -5379,7 +5389,7 @@
         <v>41</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K102">
         <f t="shared" si="4"/>
@@ -5387,7 +5397,7 @@
       </c>
       <c r="L102">
         <f t="shared" si="5"/>
-        <v>12.746776908845865</v>
+        <v>31.866942272114663</v>
       </c>
       <c r="M102">
         <f t="shared" si="6"/>
@@ -5395,10 +5405,10 @@
       </c>
       <c r="N102">
         <f t="shared" si="7"/>
-        <v>42.138119217414442</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+        <v>61.258284580683238</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>3</v>
       </c>
@@ -5427,7 +5437,7 @@
         <v>107.5</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K103">
         <f t="shared" si="4"/>
@@ -5435,7 +5445,7 @@
       </c>
       <c r="L103">
         <f t="shared" si="5"/>
-        <v>23.646194845395229</v>
+        <v>59.115487113488072</v>
       </c>
       <c r="M103">
         <f t="shared" si="6"/>
@@ -5443,10 +5453,10 @@
       </c>
       <c r="N103">
         <f t="shared" si="7"/>
-        <v>79.500769586376492</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+        <v>114.97006185446932</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>3</v>
       </c>
@@ -5475,7 +5485,7 @@
         <v>67.75</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K104">
         <f t="shared" si="4"/>
@@ -5483,7 +5493,7 @@
       </c>
       <c r="L104">
         <f t="shared" si="5"/>
-        <v>17.919382031276072</v>
+        <v>44.79845507819018</v>
       </c>
       <c r="M104">
         <f t="shared" si="6"/>
@@ -5491,10 +5501,10 @@
       </c>
       <c r="N104">
         <f t="shared" si="7"/>
-        <v>69.925385383582523</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+        <v>96.804458430496638</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>3</v>
       </c>
@@ -5523,7 +5533,7 @@
         <v>72.75</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K105">
         <f t="shared" si="4"/>
@@ -5531,7 +5541,7 @@
       </c>
       <c r="L105">
         <f t="shared" si="5"/>
-        <v>20.875156386950476</v>
+        <v>52.187890967376191</v>
       </c>
       <c r="M105">
         <f t="shared" si="6"/>
@@ -5539,10 +5549,10 @@
       </c>
       <c r="N105">
         <f t="shared" si="7"/>
-        <v>71.070553689646772</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102.3832882700725</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3</v>
       </c>
@@ -5571,7 +5581,7 @@
         <v>81.25</v>
       </c>
       <c r="J106">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K106">
         <f t="shared" si="4"/>
@@ -5579,7 +5589,7 @@
       </c>
       <c r="L106">
         <f t="shared" si="5"/>
-        <v>17.827014082661247</v>
+        <v>44.567535206653119</v>
       </c>
       <c r="M106">
         <f t="shared" si="6"/>
@@ -5587,10 +5597,10 @@
       </c>
       <c r="N106">
         <f t="shared" si="7"/>
-        <v>78.201213725979798</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+        <v>104.94173484997167</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3</v>
       </c>
@@ -5619,7 +5629,7 @@
         <v>80.25</v>
       </c>
       <c r="J107">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K107">
         <f t="shared" si="4"/>
@@ -5627,7 +5637,7 @@
       </c>
       <c r="L107">
         <f t="shared" si="5"/>
-        <v>13.762824343608942</v>
+        <v>34.407060859022359</v>
       </c>
       <c r="M107">
         <f t="shared" si="6"/>
@@ -5635,10 +5645,10 @@
       </c>
       <c r="N107">
         <f t="shared" si="7"/>
-        <v>64.415696313889455</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+        <v>85.05993282930288</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3</v>
       </c>
@@ -5667,7 +5677,7 @@
         <v>79</v>
       </c>
       <c r="J108">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K108">
         <f t="shared" si="4"/>
@@ -5675,7 +5685,7 @@
       </c>
       <c r="L108">
         <f t="shared" si="5"/>
-        <v>29.28063971089956</v>
+        <v>73.201599277248903</v>
       </c>
       <c r="M108">
         <f t="shared" si="6"/>
@@ -5683,10 +5693,10 @@
       </c>
       <c r="N108">
         <f t="shared" si="7"/>
-        <v>96.206917418269555</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+        <v>140.12787698461889</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>3</v>
       </c>
@@ -5715,7 +5725,7 @@
         <v>53.25</v>
       </c>
       <c r="J109">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K109">
         <f t="shared" si="4"/>
@@ -5723,7 +5733,7 @@
       </c>
       <c r="L109">
         <f t="shared" si="5"/>
-        <v>14.778871778372018</v>
+        <v>36.947179445930047</v>
       </c>
       <c r="M109">
         <f t="shared" si="6"/>
@@ -5731,10 +5741,10 @@
       </c>
       <c r="N109">
         <f t="shared" si="7"/>
-        <v>54.798222829121322</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+        <v>76.966530496679354</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>3</v>
       </c>
@@ -5763,7 +5773,7 @@
         <v>68</v>
       </c>
       <c r="J110">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K110">
         <f t="shared" si="4"/>
@@ -5771,7 +5781,7 @@
       </c>
       <c r="L110">
         <f t="shared" si="5"/>
-        <v>21.429364078639427</v>
+        <v>53.573410196598566</v>
       </c>
       <c r="M110">
         <f t="shared" si="6"/>
@@ -5779,10 +5789,10 @@
       </c>
       <c r="N110">
         <f t="shared" si="7"/>
-        <v>62.430025311456021</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+        <v>94.57407142941517</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3</v>
       </c>
@@ -5811,7 +5821,7 @@
         <v>100.33</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K111">
         <f t="shared" si="4"/>
@@ -5819,7 +5829,7 @@
       </c>
       <c r="L111">
         <f t="shared" si="5"/>
-        <v>24.137592332026099</v>
+        <v>60.343980830065249</v>
       </c>
       <c r="M111">
         <f t="shared" si="6"/>
@@ -5827,10 +5837,10 @@
       </c>
       <c r="N111">
         <f t="shared" si="7"/>
-        <v>98.003423887081553</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+        <v>134.2098123851207</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>3</v>
       </c>
@@ -5859,7 +5869,7 @@
         <v>121.33</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K112">
         <f t="shared" si="4"/>
@@ -5867,7 +5877,7 @@
       </c>
       <c r="L112">
         <f t="shared" si="5"/>
-        <v>28.449328173366133</v>
+        <v>71.12332043341533</v>
       </c>
       <c r="M112">
         <f t="shared" si="6"/>
@@ -5875,10 +5885,10 @@
       </c>
       <c r="N112">
         <f t="shared" si="7"/>
-        <v>106.53108817445126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+        <v>149.20508043450045</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>3</v>
       </c>
@@ -5907,7 +5917,7 @@
         <v>72.33</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K113">
         <f t="shared" si="4"/>
@@ -5915,7 +5925,7 @@
       </c>
       <c r="L113">
         <f t="shared" si="5"/>
-        <v>21.429364078639427</v>
+        <v>53.573410196598566</v>
       </c>
       <c r="M113">
         <f t="shared" si="6"/>
@@ -5923,10 +5933,10 @@
       </c>
       <c r="N113">
         <f t="shared" si="7"/>
-        <v>71.782121786840023</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+        <v>103.92616790479916</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>3</v>
       </c>
@@ -5955,7 +5965,7 @@
         <v>62.83</v>
       </c>
       <c r="J114">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K114">
         <f t="shared" si="4"/>
@@ -5963,7 +5973,7 @@
       </c>
       <c r="L114">
         <f t="shared" si="5"/>
-        <v>10.097664142572681</v>
+        <v>25.244160356431703</v>
       </c>
       <c r="M114">
         <f t="shared" si="6"/>
@@ -5971,10 +5981,10 @@
       </c>
       <c r="N114">
         <f t="shared" si="7"/>
-        <v>52.149468355036149</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+        <v>67.295964568895172</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>3</v>
       </c>
@@ -6003,7 +6013,7 @@
         <v>65.5</v>
       </c>
       <c r="J115">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K115">
         <f t="shared" si="4"/>
@@ -6011,7 +6021,7 @@
       </c>
       <c r="L115">
         <f t="shared" si="5"/>
-        <v>8.0655692730465276</v>
+        <v>20.163923182616319</v>
       </c>
       <c r="M115">
         <f t="shared" si="6"/>
@@ -6019,10 +6029,10 @@
       </c>
       <c r="N115">
         <f t="shared" si="7"/>
-        <v>44.990299827733843</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+        <v>57.088653737303638</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>3</v>
       </c>
@@ -6051,7 +6061,7 @@
         <v>74.5</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K116">
         <f t="shared" si="4"/>
@@ -6059,7 +6069,7 @@
       </c>
       <c r="L116">
         <f t="shared" si="5"/>
-        <v>15.270269265002886</v>
+        <v>38.175673162507216</v>
       </c>
       <c r="M116">
         <f t="shared" si="6"/>
@@ -6067,10 +6077,10 @@
       </c>
       <c r="N116">
         <f t="shared" si="7"/>
-        <v>65.450178070394458</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+        <v>88.355581967898772</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3</v>
       </c>
@@ -6099,7 +6109,7 @@
         <v>85.83</v>
       </c>
       <c r="J117">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K117">
         <f t="shared" si="4"/>
@@ -6107,7 +6117,7 @@
       </c>
       <c r="L117">
         <f t="shared" si="5"/>
-        <v>11.701171730526045</v>
+        <v>29.252929326315112</v>
       </c>
       <c r="M117">
         <f t="shared" si="6"/>
@@ -6115,10 +6125,10 @@
       </c>
       <c r="N117">
         <f t="shared" si="7"/>
-        <v>75.010701481279497</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+        <v>92.562459077068567</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3</v>
       </c>
@@ -6147,7 +6157,7 @@
         <v>54.33</v>
       </c>
       <c r="J118">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K118">
         <f t="shared" si="4"/>
@@ -6155,7 +6165,7 @@
       </c>
       <c r="L118">
         <f t="shared" si="5"/>
-        <v>7.1418897868982771</v>
+        <v>17.854724467245692</v>
       </c>
       <c r="M118">
         <f t="shared" si="6"/>
@@ -6163,10 +6173,10 @@
       </c>
       <c r="N118">
         <f t="shared" si="7"/>
-        <v>47.52771594662638</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+        <v>58.2405506269738</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>3</v>
       </c>
@@ -6195,7 +6205,7 @@
         <v>98</v>
       </c>
       <c r="J119">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K119">
         <f t="shared" si="4"/>
@@ -6203,7 +6213,7 @@
       </c>
       <c r="L119">
         <f t="shared" si="5"/>
-        <v>19.519194901284841</v>
+        <v>48.797987253212099</v>
       </c>
       <c r="M119">
         <f t="shared" si="6"/>
@@ -6211,10 +6221,10 @@
       </c>
       <c r="N119">
         <f t="shared" si="7"/>
-        <v>91.409839769946828</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+        <v>120.68863212187409</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3</v>
       </c>
@@ -6243,7 +6253,7 @@
         <v>90</v>
       </c>
       <c r="J120">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K120">
         <f t="shared" si="4"/>
@@ -6251,7 +6261,7 @@
       </c>
       <c r="L120">
         <f t="shared" si="5"/>
-        <v>25.061271818174347</v>
+        <v>62.653179545435869</v>
       </c>
       <c r="M120">
         <f t="shared" si="6"/>
@@ -6259,10 +6269,10 @@
       </c>
       <c r="N120">
         <f t="shared" si="7"/>
-        <v>92.441220069706603</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+        <v>130.03312779696813</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>3</v>
       </c>
@@ -6291,7 +6301,7 @@
         <v>27.67</v>
       </c>
       <c r="J121">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K121">
         <f t="shared" si="4"/>
@@ -6299,7 +6309,7 @@
       </c>
       <c r="L121">
         <f t="shared" si="5"/>
-        <v>12.255379422214997</v>
+        <v>30.638448555537494</v>
       </c>
       <c r="M121">
         <f t="shared" si="6"/>
@@ -6307,10 +6317,10 @@
       </c>
       <c r="N121">
         <f t="shared" si="7"/>
-        <v>29.737454630826253</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+        <v>48.120523764148757</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3</v>
       </c>
@@ -6339,7 +6349,7 @@
         <v>81.5</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K122">
         <f t="shared" si="4"/>
@@ -6347,7 +6357,7 @@
       </c>
       <c r="L122">
         <f t="shared" si="5"/>
-        <v>20.073402592973792</v>
+        <v>50.183506482434481</v>
       </c>
       <c r="M122">
         <f t="shared" si="6"/>
@@ -6355,10 +6365,10 @@
       </c>
       <c r="N122">
         <f t="shared" si="7"/>
-        <v>68.905692193689902</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+        <v>99.01579608315059</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>3</v>
       </c>
@@ -6387,7 +6397,7 @@
         <v>70.17</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K123">
         <f t="shared" si="4"/>
@@ -6395,7 +6405,7 @@
       </c>
       <c r="L123">
         <f t="shared" si="5"/>
-        <v>13.670456394994117</v>
+        <v>34.17614098748529</v>
       </c>
       <c r="M123">
         <f t="shared" si="6"/>
@@ -6403,10 +6413,10 @@
       </c>
       <c r="N123">
         <f t="shared" si="7"/>
-        <v>56.789940119155887</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+        <v>77.295624711647065</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3</v>
       </c>
@@ -6435,7 +6445,7 @@
         <v>100.75</v>
       </c>
       <c r="J124">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K124">
         <f t="shared" si="4"/>
@@ -6443,7 +6453,7 @@
       </c>
       <c r="L124">
         <f t="shared" si="5"/>
-        <v>11.823097422697614</v>
+        <v>29.557743556744036</v>
       </c>
       <c r="M124">
         <f t="shared" si="6"/>
@@ -6451,10 +6461,10 @@
       </c>
       <c r="N124">
         <f t="shared" si="7"/>
-        <v>55.469172750017712</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+        <v>73.203818884064134</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>3</v>
       </c>
@@ -6483,7 +6493,7 @@
         <v>109.5</v>
       </c>
       <c r="J125">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K125">
         <f t="shared" si="4"/>
@@ -6491,7 +6501,7 @@
       </c>
       <c r="L125">
         <f t="shared" si="5"/>
-        <v>8.7749551184083856</v>
+        <v>21.937387796020964</v>
       </c>
       <c r="M125">
         <f t="shared" si="6"/>
@@ -6499,10 +6509,10 @@
       </c>
       <c r="N125">
         <f t="shared" si="7"/>
-        <v>77.054364207804326</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+        <v>90.216796885416912</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>3</v>
       </c>
@@ -6531,7 +6541,7 @@
         <v>95.25</v>
       </c>
       <c r="J126">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K126">
         <f t="shared" si="4"/>
@@ -6539,7 +6549,7 @@
       </c>
       <c r="L126">
         <f t="shared" si="5"/>
-        <v>10.991785885164189</v>
+        <v>27.479464712910474</v>
       </c>
       <c r="M126">
         <f t="shared" si="6"/>
@@ -6547,10 +6557,10 @@
       </c>
       <c r="N126">
         <f t="shared" si="7"/>
-        <v>64.808395287080799</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+        <v>81.296074114827093</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>3</v>
       </c>
@@ -6579,7 +6589,7 @@
         <v>40.5</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K127">
         <f t="shared" si="4"/>
@@ -6587,7 +6597,7 @@
       </c>
       <c r="L127">
         <f t="shared" si="5"/>
-        <v>12.562041011616216</v>
+        <v>31.405102529040541</v>
       </c>
       <c r="M127">
         <f t="shared" si="6"/>
@@ -6595,10 +6605,10 @@
       </c>
       <c r="N127">
         <f t="shared" si="7"/>
-        <v>36.527077348704807</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+        <v>55.370138866129132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>3</v>
       </c>
@@ -6627,7 +6637,7 @@
         <v>104.75</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K128">
         <f t="shared" si="4"/>
@@ -6635,7 +6645,7 @@
       </c>
       <c r="L128">
         <f t="shared" si="5"/>
-        <v>11.545993576853139</v>
+        <v>28.864983942132845</v>
       </c>
       <c r="M128">
         <f t="shared" si="6"/>
@@ -6643,10 +6653,10 @@
       </c>
       <c r="N128">
         <f t="shared" si="7"/>
-        <v>80.058274133054041</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+        <v>97.377264498333744</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>3</v>
       </c>
@@ -6675,7 +6685,7 @@
         <v>129.33000000000001</v>
       </c>
       <c r="J129">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K129">
         <f t="shared" si="4"/>
@@ -6683,7 +6693,7 @@
       </c>
       <c r="L129">
         <f t="shared" si="5"/>
-        <v>10.529946142090063</v>
+        <v>26.324865355225157</v>
       </c>
       <c r="M129">
         <f t="shared" si="6"/>
@@ -6691,10 +6701,10 @@
       </c>
       <c r="N129">
         <f t="shared" si="7"/>
-        <v>93.448807945196279</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109.24372715833138</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>3</v>
       </c>
@@ -6723,7 +6733,7 @@
         <v>72</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K130">
         <f t="shared" si="4"/>
@@ -6731,7 +6741,7 @@
       </c>
       <c r="L130">
         <f t="shared" si="5"/>
-        <v>24.108034588469355</v>
+        <v>60.270086471173386</v>
       </c>
       <c r="M130">
         <f t="shared" si="6"/>
@@ -6739,10 +6749,10 @@
       </c>
       <c r="N130">
         <f t="shared" si="7"/>
-        <v>70.457616591166101</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+        <v>106.61966847387014</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>3</v>
       </c>
@@ -6771,7 +6781,7 @@
         <v>82.25</v>
       </c>
       <c r="J131">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K131">
         <f t="shared" ref="K131:K194" si="8">F131*C131</f>
@@ -6779,7 +6789,7 @@
       </c>
       <c r="L131">
         <f t="shared" ref="L131:L194" si="9">G131*D131*J131</f>
-        <v>27.340912789988234</v>
+        <v>68.35228197497058</v>
       </c>
       <c r="M131">
         <f t="shared" ref="M131:M194" si="10">H131*E131</f>
@@ -6787,10 +6797,10 @@
       </c>
       <c r="N131">
         <f t="shared" ref="N131:N194" si="11">L131+M131+H131+K131</f>
-        <v>80.189992453213748</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+        <v>121.2013616381961</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>3</v>
       </c>
@@ -6819,7 +6829,7 @@
         <v>77.5</v>
       </c>
       <c r="J132">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K132">
         <f t="shared" si="8"/>
@@ -6827,7 +6837,7 @@
       </c>
       <c r="L132">
         <f t="shared" si="9"/>
-        <v>10.345210244860413</v>
+        <v>25.863025612151031</v>
       </c>
       <c r="M132">
         <f t="shared" si="10"/>
@@ -6835,10 +6845,10 @@
       </c>
       <c r="N132">
         <f t="shared" si="11"/>
-        <v>75.682729014724245</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+        <v>91.200544382014868</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>3</v>
       </c>
@@ -6867,7 +6877,7 @@
         <v>92</v>
       </c>
       <c r="J133">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K133">
         <f t="shared" si="8"/>
@@ -6875,7 +6885,7 @@
       </c>
       <c r="L133">
         <f t="shared" si="9"/>
-        <v>31.497470477655362</v>
+        <v>78.743676194138402</v>
       </c>
       <c r="M133">
         <f t="shared" si="10"/>
@@ -6883,10 +6893,10 @@
       </c>
       <c r="N133">
         <f t="shared" si="11"/>
-        <v>88.705176600662568</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+        <v>135.9513823171456</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>3</v>
       </c>
@@ -6915,7 +6925,7 @@
         <v>89</v>
       </c>
       <c r="J134">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K134">
         <f t="shared" si="8"/>
@@ -6923,7 +6933,7 @@
       </c>
       <c r="L134">
         <f t="shared" si="9"/>
-        <v>11.91546537131244</v>
+        <v>29.788663428281097</v>
       </c>
       <c r="M134">
         <f t="shared" si="10"/>
@@ -6931,10 +6941,10 @@
       </c>
       <c r="N134">
         <f t="shared" si="11"/>
-        <v>79.753936325175601</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+        <v>97.627134382144263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>3</v>
       </c>
@@ -6963,7 +6973,7 @@
         <v>95.25</v>
       </c>
       <c r="J135">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K135">
         <f t="shared" si="8"/>
@@ -6971,7 +6981,7 @@
       </c>
       <c r="L135">
         <f t="shared" si="9"/>
-        <v>12.562041011616216</v>
+        <v>31.405102529040541</v>
       </c>
       <c r="M135">
         <f t="shared" si="10"/>
@@ -6979,10 +6989,10 @@
       </c>
       <c r="N135">
         <f t="shared" si="11"/>
-        <v>92.606255290465299</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+        <v>111.44931680788963</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>3</v>
       </c>
@@ -7011,7 +7021,7 @@
         <v>99.5</v>
       </c>
       <c r="J136">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K136">
         <f t="shared" si="8"/>
@@ -7019,7 +7029,7 @@
       </c>
       <c r="L136">
         <f t="shared" si="9"/>
-        <v>13.300984600534816</v>
+        <v>33.252461501337038</v>
       </c>
       <c r="M136">
         <f t="shared" si="10"/>
@@ -7027,10 +7037,10 @@
       </c>
       <c r="N136">
         <f t="shared" si="11"/>
-        <v>71.188012503230226</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+        <v>91.13948940403246</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>3</v>
       </c>
@@ -7059,7 +7069,7 @@
         <v>83.5</v>
       </c>
       <c r="J137">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K137">
         <f t="shared" si="8"/>
@@ -7067,7 +7077,7 @@
       </c>
       <c r="L137">
         <f t="shared" si="9"/>
-        <v>13.670456394994117</v>
+        <v>34.17614098748529</v>
       </c>
       <c r="M137">
         <f t="shared" si="10"/>
@@ -7075,10 +7085,10 @@
       </c>
       <c r="N137">
         <f t="shared" si="11"/>
-        <v>78.112318450416225</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+        <v>98.618003042907389</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>3</v>
       </c>
@@ -7107,7 +7117,7 @@
         <v>130</v>
       </c>
       <c r="J138">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K138">
         <f t="shared" si="8"/>
@@ -7115,7 +7125,7 @@
       </c>
       <c r="L138">
         <f t="shared" si="9"/>
-        <v>14.963607675601668</v>
+        <v>37.409019189004169</v>
       </c>
       <c r="M138">
         <f t="shared" si="10"/>
@@ -7123,10 +7133,10 @@
       </c>
       <c r="N138">
         <f t="shared" si="11"/>
-        <v>117.38961153138368</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+        <v>139.83502304478617</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>3</v>
       </c>
@@ -7155,7 +7165,7 @@
         <v>113.75</v>
       </c>
       <c r="J139">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K139">
         <f t="shared" si="8"/>
@@ -7163,7 +7173,7 @@
       </c>
       <c r="L139">
         <f t="shared" si="9"/>
-        <v>12.746776908845865</v>
+        <v>31.866942272114663</v>
       </c>
       <c r="M139">
         <f t="shared" si="10"/>
@@ -7171,10 +7181,10 @@
       </c>
       <c r="N139">
         <f t="shared" si="11"/>
-        <v>101.38379067948628</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+        <v>120.50395604275508</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>3</v>
       </c>
@@ -7203,7 +7213,7 @@
         <v>76</v>
       </c>
       <c r="J140">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K140">
         <f t="shared" si="8"/>
@@ -7211,7 +7221,7 @@
       </c>
       <c r="L140">
         <f t="shared" si="9"/>
-        <v>31.405102529040537</v>
+        <v>78.512756322601348</v>
       </c>
       <c r="M140">
         <f t="shared" si="10"/>
@@ -7219,10 +7229,10 @@
       </c>
       <c r="N140">
         <f t="shared" si="11"/>
-        <v>79.795405959477151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+        <v>126.90305975303797</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>3</v>
       </c>
@@ -7251,7 +7261,7 @@
         <v>110.25</v>
       </c>
       <c r="J141">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K141">
         <f t="shared" si="8"/>
@@ -7259,7 +7269,7 @@
       </c>
       <c r="L141">
         <f t="shared" si="9"/>
-        <v>16.718598699283344</v>
+        <v>41.796496748208362</v>
       </c>
       <c r="M141">
         <f t="shared" si="10"/>
@@ -7267,10 +7277,10 @@
       </c>
       <c r="N141">
         <f t="shared" si="11"/>
-        <v>105.34734420389805</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+        <v>130.42524225282307</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3</v>
       </c>
@@ -7299,7 +7309,7 @@
         <v>166.5</v>
       </c>
       <c r="J142">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K142">
         <f t="shared" si="8"/>
@@ -7307,7 +7317,7 @@
       </c>
       <c r="L142">
         <f t="shared" si="9"/>
-        <v>20.320948695261524</v>
+        <v>50.802371738153809</v>
       </c>
       <c r="M142">
         <f t="shared" si="10"/>
@@ -7315,10 +7325,10 @@
       </c>
       <c r="N142">
         <f t="shared" si="11"/>
-        <v>135.65682245379483</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+        <v>166.13824549668709</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>3</v>
       </c>
@@ -7347,7 +7357,7 @@
         <v>152</v>
       </c>
       <c r="J143">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K143">
         <f t="shared" si="8"/>
@@ -7355,7 +7365,7 @@
       </c>
       <c r="L143">
         <f t="shared" si="9"/>
-        <v>24.569874331543481</v>
+        <v>61.424685828858699</v>
       </c>
       <c r="M143">
         <f t="shared" si="10"/>
@@ -7363,10 +7373,10 @@
       </c>
       <c r="N143">
         <f t="shared" si="11"/>
-        <v>137.62664301818145</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+        <v>174.48145451549669</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>3</v>
       </c>
@@ -7395,7 +7405,7 @@
         <v>154.5</v>
       </c>
       <c r="J144">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K144">
         <f t="shared" si="8"/>
@@ -7403,7 +7413,7 @@
       </c>
       <c r="L144">
         <f t="shared" si="9"/>
-        <v>29.373007659514386</v>
+        <v>73.432519148785957</v>
       </c>
       <c r="M144">
         <f t="shared" si="10"/>
@@ -7411,10 +7421,10 @@
       </c>
       <c r="N144">
         <f t="shared" si="11"/>
-        <v>142.89551927976228</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+        <v>186.95503076903387</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>3</v>
       </c>
@@ -7443,7 +7453,7 @@
         <v>99.5</v>
       </c>
       <c r="J145">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K145">
         <f t="shared" si="8"/>
@@ -7451,7 +7461,7 @@
       </c>
       <c r="L145">
         <f t="shared" si="9"/>
-        <v>28.079856378906833</v>
+        <v>70.199640947267085</v>
       </c>
       <c r="M145">
         <f t="shared" si="10"/>
@@ -7459,10 +7469,10 @@
       </c>
       <c r="N145">
         <f t="shared" si="11"/>
-        <v>91.404214607783189</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+        <v>133.52399917614343</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>3</v>
       </c>
@@ -7491,7 +7501,7 @@
         <v>197.08</v>
       </c>
       <c r="J146">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K146">
         <f t="shared" si="8"/>
@@ -7499,7 +7509,7 @@
       </c>
       <c r="L146">
         <f t="shared" si="9"/>
-        <v>16.99570254512782</v>
+        <v>42.489256362819546</v>
       </c>
       <c r="M146">
         <f t="shared" si="10"/>
@@ -7507,10 +7517,10 @@
       </c>
       <c r="N146">
         <f t="shared" si="11"/>
-        <v>66.058107523973646</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+        <v>91.55166134166538</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>3</v>
       </c>
@@ -7539,7 +7549,7 @@
         <v>79.5</v>
       </c>
       <c r="J147">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K147">
         <f t="shared" si="8"/>
@@ -7547,7 +7557,7 @@
       </c>
       <c r="L147">
         <f t="shared" si="9"/>
-        <v>14.594135881142368</v>
+        <v>36.485339702855917</v>
       </c>
       <c r="M147">
         <f t="shared" si="10"/>
@@ -7555,10 +7565,10 @@
       </c>
       <c r="N147">
         <f t="shared" si="11"/>
-        <v>62.989951488929478</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+        <v>84.881155310643024</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>3</v>
       </c>
@@ -7587,7 +7597,7 @@
         <v>136.25</v>
       </c>
       <c r="J148">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K148">
         <f t="shared" si="8"/>
@@ -7595,7 +7605,7 @@
       </c>
       <c r="L148">
         <f t="shared" si="9"/>
-        <v>53.942881991057867</v>
+        <v>134.85720497764467</v>
       </c>
       <c r="M148">
         <f t="shared" si="10"/>
@@ -7603,10 +7613,10 @@
       </c>
       <c r="N148">
         <f t="shared" si="11"/>
-        <v>131.0617424824263</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+        <v>211.97606546901309</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>4</v>
       </c>
@@ -7635,7 +7645,7 @@
         <v>50.82</v>
       </c>
       <c r="J149">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K149">
         <f t="shared" si="8"/>
@@ -7643,7 +7653,7 @@
       </c>
       <c r="L149">
         <f t="shared" si="9"/>
-        <v>16.354339057333068</v>
+        <v>40.885847643332667</v>
       </c>
       <c r="M149">
         <f t="shared" si="10"/>
@@ -7651,10 +7661,10 @@
       </c>
       <c r="N149">
         <f t="shared" si="11"/>
-        <v>38.727689462848524</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+        <v>63.25919804884812</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>4</v>
       </c>
@@ -7683,7 +7693,7 @@
         <v>54.83</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K150">
         <f t="shared" si="8"/>
@@ -7691,7 +7701,7 @@
       </c>
       <c r="L150">
         <f t="shared" si="9"/>
-        <v>13.643478057644273</v>
+        <v>34.108695144110683</v>
       </c>
       <c r="M150">
         <f t="shared" si="10"/>
@@ -7699,10 +7709,10 @@
       </c>
       <c r="N150">
         <f t="shared" si="11"/>
-        <v>50.231626164532088</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+        <v>70.696843250998498</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>4</v>
       </c>
@@ -7731,7 +7741,7 @@
         <v>88.43</v>
       </c>
       <c r="J151">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K151">
         <f t="shared" si="8"/>
@@ -7739,7 +7749,7 @@
       </c>
       <c r="L151">
         <f t="shared" si="9"/>
-        <v>13.964501070765314</v>
+        <v>34.911252676913286</v>
       </c>
       <c r="M151">
         <f t="shared" si="10"/>
@@ -7747,10 +7757,10 @@
       </c>
       <c r="N151">
         <f t="shared" si="11"/>
-        <v>50.601016262691438</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+        <v>71.547767868839401</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>4</v>
       </c>
@@ -7779,7 +7789,7 @@
         <v>45.67</v>
       </c>
       <c r="J152">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K152">
         <f t="shared" si="8"/>
@@ -7787,7 +7797,7 @@
       </c>
       <c r="L152">
         <f t="shared" si="9"/>
-        <v>8.6185761717079661</v>
+        <v>21.546440429269914</v>
       </c>
       <c r="M152">
         <f t="shared" si="10"/>
@@ -7795,10 +7805,10 @@
       </c>
       <c r="N152">
         <f t="shared" si="11"/>
-        <v>34.82720111332025</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+        <v>47.7550653708822</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>4</v>
       </c>
@@ -7827,7 +7837,7 @@
         <v>62.64</v>
       </c>
       <c r="J153">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K153">
         <f t="shared" si="8"/>
@@ -7835,7 +7845,7 @@
       </c>
       <c r="L153">
         <f t="shared" si="9"/>
-        <v>12.181039886759526</v>
+        <v>30.452599716898817</v>
       </c>
       <c r="M153">
         <f t="shared" si="10"/>
@@ -7843,10 +7853,10 @@
       </c>
       <c r="N153">
         <f t="shared" si="11"/>
-        <v>41.308216492118042</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+        <v>59.579776322257331</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>4</v>
       </c>
@@ -7875,7 +7885,7 @@
         <v>52.77</v>
       </c>
       <c r="J154">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K154">
         <f t="shared" si="8"/>
@@ -7883,7 +7893,7 @@
       </c>
       <c r="L154">
         <f t="shared" si="9"/>
-        <v>12.698243630121205</v>
+        <v>31.745609075303012</v>
       </c>
       <c r="M154">
         <f t="shared" si="10"/>
@@ -7891,10 +7901,10 @@
       </c>
       <c r="N154">
         <f t="shared" si="11"/>
-        <v>44.924452701736037</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+        <v>63.971818146917848</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>4</v>
       </c>
@@ -7923,7 +7933,7 @@
         <v>45.13</v>
       </c>
       <c r="J155">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K155">
         <f t="shared" si="8"/>
@@ -7931,7 +7941,7 @@
       </c>
       <c r="L155">
         <f t="shared" si="9"/>
-        <v>14.147305842125908</v>
+        <v>35.368264605314771</v>
       </c>
       <c r="M155">
         <f t="shared" si="10"/>
@@ -7939,10 +7949,10 @@
       </c>
       <c r="N155">
         <f t="shared" si="11"/>
-        <v>42.573873523124632</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+        <v>63.794832286313493</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>4</v>
       </c>
@@ -7971,7 +7981,7 @@
         <v>100</v>
       </c>
       <c r="J156">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K156">
         <f t="shared" si="8"/>
@@ -7979,7 +7989,7 @@
       </c>
       <c r="L156">
         <f t="shared" si="9"/>
-        <v>16.274083304052809</v>
+        <v>40.685208260132022</v>
       </c>
       <c r="M156">
         <f t="shared" si="10"/>
@@ -7987,10 +7997,10 @@
       </c>
       <c r="N156">
         <f t="shared" si="11"/>
-        <v>88.09837914246971</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+        <v>112.50950409854892</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>4</v>
       </c>
@@ -8019,7 +8029,7 @@
         <v>50.23</v>
       </c>
       <c r="J157">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K157">
         <f t="shared" si="8"/>
@@ -8027,7 +8037,7 @@
       </c>
       <c r="L157">
         <f t="shared" si="9"/>
-        <v>16.113571797492288</v>
+        <v>40.283929493730717</v>
       </c>
       <c r="M157">
         <f t="shared" si="10"/>
@@ -8035,10 +8045,10 @@
       </c>
       <c r="N157">
         <f t="shared" si="11"/>
-        <v>46.495658284813167</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+        <v>70.666015981051586</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>4</v>
       </c>
@@ -8067,7 +8077,7 @@
         <v>66.14</v>
       </c>
       <c r="J158">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K158">
         <f t="shared" si="8"/>
@@ -8075,7 +8085,7 @@
       </c>
       <c r="L158">
         <f t="shared" si="9"/>
-        <v>19.444185558623094</v>
+        <v>48.610463896557732</v>
       </c>
       <c r="M158">
         <f t="shared" si="10"/>
@@ -8083,10 +8093,10 @@
       </c>
       <c r="N158">
         <f t="shared" si="11"/>
-        <v>63.525189190023227</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+        <v>92.691467527957869</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>4</v>
       </c>
@@ -8115,7 +8125,7 @@
         <v>59.85</v>
       </c>
       <c r="J159">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K159">
         <f t="shared" si="8"/>
@@ -8123,7 +8133,7 @@
       </c>
       <c r="L159">
         <f t="shared" si="9"/>
-        <v>18.614876108060404</v>
+        <v>46.537190270151008</v>
       </c>
       <c r="M159">
         <f t="shared" si="10"/>
@@ -8131,10 +8141,10 @@
       </c>
       <c r="N159">
         <f t="shared" si="11"/>
-        <v>56.225452943267008</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+        <v>84.147767105357602</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>4</v>
       </c>
@@ -8163,7 +8173,7 @@
         <v>77.55</v>
       </c>
       <c r="J160">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K160">
         <f t="shared" si="8"/>
@@ -8171,7 +8181,7 @@
       </c>
       <c r="L160">
         <f t="shared" si="9"/>
-        <v>16.175992938932492</v>
+        <v>40.439982347331231</v>
       </c>
       <c r="M160">
         <f t="shared" si="10"/>
@@ -8179,10 +8189,10 @@
       </c>
       <c r="N160">
         <f t="shared" si="11"/>
-        <v>63.873000449121825</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+        <v>88.136989857520575</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>4</v>
       </c>
@@ -8211,7 +8221,7 @@
         <v>46.5</v>
       </c>
       <c r="J161">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K161">
         <f t="shared" si="8"/>
@@ -8219,7 +8229,7 @@
       </c>
       <c r="L161">
         <f t="shared" si="9"/>
-        <v>22.516197448073065</v>
+        <v>56.290493620182659</v>
       </c>
       <c r="M161">
         <f t="shared" si="10"/>
@@ -8227,10 +8237,10 @@
       </c>
       <c r="N161">
         <f t="shared" si="11"/>
-        <v>57.940466345846787</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+        <v>91.714762517956387</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>4</v>
       </c>
@@ -8259,7 +8269,7 @@
         <v>71.5</v>
       </c>
       <c r="J162">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K162">
         <f t="shared" si="8"/>
@@ -8267,7 +8277,7 @@
       </c>
       <c r="L162">
         <f t="shared" si="9"/>
-        <v>16.051150656052084</v>
+        <v>40.127876640130211</v>
       </c>
       <c r="M162">
         <f t="shared" si="10"/>
@@ -8275,10 +8285,10 @@
       </c>
       <c r="N162">
         <f t="shared" si="11"/>
-        <v>63.79361338593624</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+        <v>87.870339370014378</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>4</v>
       </c>
@@ -8307,7 +8317,7 @@
         <v>77</v>
       </c>
       <c r="J163">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K163">
         <f t="shared" si="8"/>
@@ -8315,7 +8325,7 @@
       </c>
       <c r="L163">
         <f t="shared" si="9"/>
-        <v>21.178601560068724</v>
+        <v>52.946503900171813</v>
       </c>
       <c r="M163">
         <f t="shared" si="10"/>
@@ -8323,10 +8333,10 @@
       </c>
       <c r="N163">
         <f t="shared" si="11"/>
-        <v>76.036217172248072</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+        <v>107.80411951235115</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>4</v>
       </c>
@@ -8355,7 +8365,7 @@
         <v>81.5</v>
       </c>
       <c r="J164">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K164">
         <f t="shared" si="8"/>
@@ -8363,7 +8373,7 @@
       </c>
       <c r="L164">
         <f t="shared" si="9"/>
-        <v>27.42071570408898</v>
+        <v>68.551789260222449</v>
       </c>
       <c r="M164">
         <f t="shared" si="10"/>
@@ -8371,10 +8381,10 @@
       </c>
       <c r="N164">
         <f t="shared" si="11"/>
-        <v>74.444995592318278</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+        <v>115.57606914845175</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>4</v>
       </c>
@@ -8403,7 +8413,7 @@
         <v>118.25</v>
       </c>
       <c r="J165">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K165">
         <f t="shared" si="8"/>
@@ -8411,7 +8421,7 @@
       </c>
       <c r="L165">
         <f t="shared" si="9"/>
-        <v>18.280477136059318</v>
+        <v>45.701192840148295</v>
       </c>
       <c r="M165">
         <f t="shared" si="10"/>
@@ -8419,10 +8429,10 @@
       </c>
       <c r="N165">
         <f t="shared" si="11"/>
-        <v>99.95630031841857</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+        <v>127.37701602250755</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>4</v>
       </c>
@@ -8451,7 +8461,7 @@
         <v>66.25</v>
       </c>
       <c r="J166">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K166">
         <f t="shared" si="8"/>
@@ -8459,7 +8469,7 @@
       </c>
       <c r="L166">
         <f t="shared" si="9"/>
-        <v>20.621269940066917</v>
+        <v>51.553174850167295</v>
       </c>
       <c r="M166">
         <f t="shared" si="10"/>
@@ -8467,10 +8477,10 @@
       </c>
       <c r="N166">
         <f t="shared" si="11"/>
-        <v>59.609181665120488</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+        <v>90.541086575220874</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>4</v>
       </c>
@@ -8499,7 +8509,7 @@
         <v>93</v>
       </c>
       <c r="J167">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K167">
         <f t="shared" si="8"/>
@@ -8507,7 +8517,7 @@
       </c>
       <c r="L167">
         <f t="shared" si="9"/>
-        <v>18.726342432060765</v>
+        <v>46.81585608015191</v>
       </c>
       <c r="M167">
         <f t="shared" si="10"/>
@@ -8515,10 +8525,10 @@
       </c>
       <c r="N167">
         <f t="shared" si="11"/>
-        <v>84.383972050057466</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+        <v>112.47348569814862</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>4</v>
       </c>
@@ -8547,7 +8557,7 @@
         <v>129.75</v>
       </c>
       <c r="J168">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K168">
         <f t="shared" si="8"/>
@@ -8555,7 +8565,7 @@
       </c>
       <c r="L168">
         <f t="shared" si="9"/>
-        <v>20.286870968065831</v>
+        <v>50.717177420164575</v>
       </c>
       <c r="M168">
         <f t="shared" si="10"/>
@@ -8563,10 +8573,10 @@
       </c>
       <c r="N168">
         <f t="shared" si="11"/>
-        <v>114.64754870772792</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+        <v>145.0778551598267</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>4</v>
       </c>
@@ -8595,7 +8605,7 @@
         <v>56</v>
       </c>
       <c r="J169">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K169">
         <f t="shared" si="8"/>
@@ -8603,7 +8613,7 @@
       </c>
       <c r="L169">
         <f t="shared" si="9"/>
-        <v>24.634057604079935</v>
+        <v>61.585144010199841</v>
       </c>
       <c r="M169">
         <f t="shared" si="10"/>
@@ -8611,10 +8621,10 @@
       </c>
       <c r="N169">
         <f t="shared" si="11"/>
-        <v>59.949240977875839</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+        <v>96.900327383995744</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>4</v>
       </c>
@@ -8643,7 +8653,7 @@
         <v>122</v>
       </c>
       <c r="J170">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K170">
         <f t="shared" si="8"/>
@@ -8651,7 +8661,7 @@
       </c>
       <c r="L170">
         <f t="shared" si="9"/>
-        <v>17.558175356536978</v>
+        <v>43.895438391342445</v>
       </c>
       <c r="M170">
         <f t="shared" si="10"/>
@@ -8659,10 +8669,10 @@
       </c>
       <c r="N170">
         <f t="shared" si="11"/>
-        <v>94.502237692057903</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+        <v>120.83950072686336</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>4</v>
       </c>
@@ -8691,7 +8701,7 @@
         <v>102</v>
       </c>
       <c r="J171">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K171">
         <f t="shared" si="8"/>
@@ -8699,7 +8709,7 @@
       </c>
       <c r="L171">
         <f t="shared" si="9"/>
-        <v>33.885762496109955</v>
+        <v>84.714406240274883</v>
       </c>
       <c r="M171">
         <f t="shared" si="10"/>
@@ -8707,10 +8717,10 @@
       </c>
       <c r="N171">
         <f t="shared" si="11"/>
-        <v>105.03830133434798</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+        <v>155.86694507851291</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>4</v>
       </c>
@@ -8739,7 +8749,7 @@
         <v>45.33</v>
       </c>
       <c r="J172">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K172">
         <f t="shared" si="8"/>
@@ -8747,7 +8757,7 @@
       </c>
       <c r="L172">
         <f t="shared" si="9"/>
-        <v>15.159420064049192</v>
+        <v>37.89855016012298</v>
       </c>
       <c r="M172">
         <f t="shared" si="10"/>
@@ -8755,10 +8765,10 @@
       </c>
       <c r="N172">
         <f t="shared" si="11"/>
-        <v>46.891806150083717</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69.630936246157503</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>4</v>
       </c>
@@ -8787,7 +8797,7 @@
         <v>88.33</v>
       </c>
       <c r="J173">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K173">
         <f t="shared" si="8"/>
@@ -8795,7 +8805,7 @@
       </c>
       <c r="L173">
         <f t="shared" si="9"/>
-        <v>13.228823332362927</v>
+        <v>33.072058330907318</v>
       </c>
       <c r="M173">
         <f t="shared" si="10"/>
@@ -8803,10 +8813,10 @@
       </c>
       <c r="N173">
         <f t="shared" si="11"/>
-        <v>66.209715313569703</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+        <v>86.052950312114092</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>4</v>
       </c>
@@ -8835,7 +8845,7 @@
         <v>53.5</v>
       </c>
       <c r="J174">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K174">
         <f t="shared" si="8"/>
@@ -8843,7 +8853,7 @@
       </c>
       <c r="L174">
         <f t="shared" si="9"/>
-        <v>29.725839284416459</v>
+        <v>74.314598211041144</v>
       </c>
       <c r="M174">
         <f t="shared" si="10"/>
@@ -8851,10 +8861,10 @@
       </c>
       <c r="N174">
         <f t="shared" si="11"/>
-        <v>60.373381803603721</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+        <v>104.96214073022841</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>4</v>
       </c>
@@ -8883,7 +8893,7 @@
         <v>119</v>
       </c>
       <c r="J175">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K175">
         <f t="shared" si="8"/>
@@ -8891,7 +8901,7 @@
       </c>
       <c r="L175">
         <f t="shared" si="9"/>
-        <v>16.126947756372331</v>
+        <v>40.317369390930828</v>
       </c>
       <c r="M175">
         <f t="shared" si="10"/>
@@ -8899,10 +8909,10 @@
       </c>
       <c r="N175">
         <f t="shared" si="11"/>
-        <v>107.12762502938556</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+        <v>131.31804666394407</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>4</v>
       </c>
@@ -8931,7 +8941,7 @@
         <v>119.67</v>
       </c>
       <c r="J176">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K176">
         <f t="shared" si="8"/>
@@ -8939,7 +8949,7 @@
       </c>
       <c r="L176">
         <f t="shared" si="9"/>
-        <v>21.923196604391141</v>
+        <v>54.80799151097785</v>
       </c>
       <c r="M176">
         <f t="shared" si="10"/>
@@ -8947,10 +8957,10 @@
       </c>
       <c r="N176">
         <f t="shared" si="11"/>
-        <v>120.62787438459918</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+        <v>153.51266929118589</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>4</v>
       </c>
@@ -8979,7 +8989,7 @@
         <v>149.5</v>
       </c>
       <c r="J177">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K177">
         <f t="shared" si="8"/>
@@ -8987,7 +8997,7 @@
       </c>
       <c r="L177">
         <f t="shared" si="9"/>
-        <v>38.736776916605699</v>
+        <v>96.841942291514243</v>
       </c>
       <c r="M177">
         <f t="shared" si="10"/>
@@ -8995,10 +9005,10 @@
       </c>
       <c r="N177">
         <f t="shared" si="11"/>
-        <v>168.94972139369094</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+        <v>227.05488676859949</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>4</v>
       </c>
@@ -9027,7 +9037,7 @@
         <v>60.67</v>
       </c>
       <c r="J178">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K178">
         <f t="shared" si="8"/>
@@ -9035,7 +9045,7 @@
       </c>
       <c r="L178">
         <f t="shared" si="9"/>
-        <v>32.40103106042514</v>
+        <v>81.00257765106285</v>
       </c>
       <c r="M178">
         <f t="shared" si="10"/>
@@ -9043,10 +9053,10 @@
       </c>
       <c r="N178">
         <f t="shared" si="11"/>
-        <v>74.425912359470175</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+        <v>123.02745895010789</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>4</v>
       </c>
@@ -9075,7 +9085,7 @@
         <v>131.03</v>
       </c>
       <c r="J179">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K179">
         <f t="shared" si="8"/>
@@ -9083,7 +9093,7 @@
       </c>
       <c r="L179">
         <f t="shared" si="9"/>
-        <v>20.451841127586363</v>
+        <v>51.129602818965907</v>
       </c>
       <c r="M179">
         <f t="shared" si="10"/>
@@ -9091,10 +9101,10 @@
       </c>
       <c r="N179">
         <f t="shared" si="11"/>
-        <v>101.54026824066165</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132.21802993204119</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>4</v>
       </c>
@@ -9123,7 +9133,7 @@
         <v>107</v>
       </c>
       <c r="J180">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K180">
         <f t="shared" si="8"/>
@@ -9131,7 +9141,7 @@
       </c>
       <c r="L180">
         <f t="shared" si="9"/>
-        <v>35.967953428436715</v>
+        <v>89.919883571091788</v>
       </c>
       <c r="M180">
         <f t="shared" si="10"/>
@@ -9139,10 +9149,10 @@
       </c>
       <c r="N180">
         <f t="shared" si="11"/>
-        <v>122.24522724204179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+        <v>176.19715738469685</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>4</v>
       </c>
@@ -9171,7 +9181,7 @@
         <v>68.17</v>
       </c>
       <c r="J181">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K181">
         <f t="shared" si="8"/>
@@ -9179,7 +9189,7 @@
       </c>
       <c r="L181">
         <f t="shared" si="9"/>
-        <v>19.693870124383906</v>
+        <v>49.234675310959766</v>
       </c>
       <c r="M181">
         <f t="shared" si="10"/>
@@ -9187,10 +9197,10 @@
       </c>
       <c r="N181">
         <f t="shared" si="11"/>
-        <v>70.539853351998218</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+        <v>100.08065853857408</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>4</v>
       </c>
@@ -9219,7 +9229,7 @@
         <v>108.5</v>
       </c>
       <c r="J182">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K182">
         <f t="shared" si="8"/>
@@ -9227,7 +9237,7 @@
       </c>
       <c r="L182">
         <f t="shared" si="9"/>
-        <v>26.453188011765839</v>
+        <v>66.132970029414594</v>
       </c>
       <c r="M182">
         <f t="shared" si="10"/>
@@ -9235,10 +9245,10 @@
       </c>
       <c r="N182">
         <f t="shared" si="11"/>
-        <v>112.23507580482857</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+        <v>151.91485782247733</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>4</v>
       </c>
@@ -9267,7 +9277,7 @@
         <v>33.17</v>
       </c>
       <c r="J183">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K183">
         <f t="shared" si="8"/>
@@ -9275,7 +9285,7 @@
       </c>
       <c r="L183">
         <f t="shared" si="9"/>
-        <v>13.968959723725328</v>
+        <v>34.92239930931332</v>
       </c>
       <c r="M183">
         <f t="shared" si="10"/>
@@ -9283,10 +9293,10 @@
       </c>
       <c r="N183">
         <f t="shared" si="11"/>
-        <v>39.175040552364287</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+        <v>60.12848013795228</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>4</v>
       </c>
@@ -9315,7 +9325,7 @@
         <v>84.33</v>
       </c>
       <c r="J184">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K184">
         <f t="shared" si="8"/>
@@ -9323,7 +9333,7 @@
       </c>
       <c r="L184">
         <f t="shared" si="9"/>
-        <v>18.802139532381013</v>
+        <v>47.005348830952528</v>
       </c>
       <c r="M184">
         <f t="shared" si="10"/>
@@ -9331,10 +9341,10 @@
       </c>
       <c r="N184">
         <f t="shared" si="11"/>
-        <v>75.778915368017564</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+        <v>103.98212466658909</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>4</v>
       </c>
@@ -9363,7 +9373,7 @@
         <v>114.75</v>
       </c>
       <c r="J185">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K185">
         <f t="shared" si="8"/>
@@ -9371,7 +9381,7 @@
       </c>
       <c r="L185">
         <f t="shared" si="9"/>
-        <v>18.057544488058596</v>
+        <v>45.143861220146491</v>
       </c>
       <c r="M185">
         <f t="shared" si="10"/>
@@ -9379,10 +9389,10 @@
       </c>
       <c r="N185">
         <f t="shared" si="11"/>
-        <v>103.8667036621158</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+        <v>130.95302039420366</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>4</v>
       </c>
@@ -9411,7 +9421,7 @@
         <v>78.17</v>
       </c>
       <c r="J186">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K186">
         <f t="shared" si="8"/>
@@ -9419,7 +9429,7 @@
       </c>
       <c r="L186">
         <f t="shared" si="9"/>
-        <v>16.644151499734008</v>
+        <v>41.61037874933502</v>
       </c>
       <c r="M186">
         <f t="shared" si="10"/>
@@ -9427,10 +9437,10 @@
       </c>
       <c r="N186">
         <f t="shared" si="11"/>
-        <v>75.654742874983413</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+        <v>100.62097012458442</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>4</v>
       </c>
@@ -9459,7 +9469,7 @@
         <v>109.83</v>
       </c>
       <c r="J187">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K187">
         <f t="shared" si="8"/>
@@ -9467,7 +9477,7 @@
       </c>
       <c r="L187">
         <f t="shared" si="9"/>
-        <v>27.71944545240995</v>
+        <v>69.298613631024878</v>
       </c>
       <c r="M187">
         <f t="shared" si="10"/>
@@ -9475,10 +9485,10 @@
       </c>
       <c r="N187">
         <f t="shared" si="11"/>
-        <v>114.04326971800572</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+        <v>155.62243789662068</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>4</v>
       </c>
@@ -9507,7 +9517,7 @@
         <v>60</v>
       </c>
       <c r="J188">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K188">
         <f t="shared" si="8"/>
@@ -9515,7 +9525,7 @@
       </c>
       <c r="L188">
         <f t="shared" si="9"/>
-        <v>25.26718632440199</v>
+        <v>63.167965811004976</v>
       </c>
       <c r="M188">
         <f t="shared" si="10"/>
@@ -9523,10 +9533,10 @@
       </c>
       <c r="N188">
         <f t="shared" si="11"/>
-        <v>71.011707127071261</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+        <v>108.91248661367425</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>4</v>
       </c>
@@ -9555,7 +9565,7 @@
         <v>77</v>
       </c>
       <c r="J189">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K189">
         <f t="shared" si="8"/>
@@ -9563,7 +9573,7 @@
       </c>
       <c r="L189">
         <f t="shared" si="9"/>
-        <v>31.656436016102724</v>
+        <v>79.141090040256813</v>
       </c>
       <c r="M189">
         <f t="shared" si="10"/>
@@ -9571,10 +9581,10 @@
       </c>
       <c r="N189">
         <f t="shared" si="11"/>
-        <v>88.355996879152571</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+        <v>135.84065090330668</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>4</v>
       </c>
@@ -9603,7 +9613,7 @@
         <v>115.38</v>
       </c>
       <c r="J190">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K190">
         <f t="shared" si="8"/>
@@ -9611,7 +9621,7 @@
       </c>
       <c r="L190">
         <f t="shared" si="9"/>
-        <v>31.491465856582185</v>
+        <v>78.728664641455467</v>
       </c>
       <c r="M190">
         <f t="shared" si="10"/>
@@ -9619,10 +9629,10 @@
       </c>
       <c r="N190">
         <f t="shared" si="11"/>
-        <v>126.19978760263821</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+        <v>173.43698638751147</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>4</v>
       </c>
@@ -9651,7 +9661,7 @@
         <v>77.17</v>
       </c>
       <c r="J191">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K191">
         <f t="shared" si="8"/>
@@ -9659,7 +9669,7 @@
       </c>
       <c r="L191">
         <f t="shared" si="9"/>
-        <v>18.503409784060043</v>
+        <v>46.258524460150106</v>
       </c>
       <c r="M191">
         <f t="shared" si="10"/>
@@ -9667,10 +9677,10 @@
       </c>
       <c r="N191">
         <f t="shared" si="11"/>
-        <v>83.416070490298026</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+        <v>111.17118516638809</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>4</v>
       </c>
@@ -9699,7 +9709,7 @@
         <v>138.33000000000001</v>
       </c>
       <c r="J192">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K192">
         <f t="shared" si="8"/>
@@ -9707,7 +9717,7 @@
       </c>
       <c r="L192">
         <f t="shared" si="9"/>
-        <v>29.725839284416459</v>
+        <v>74.314598211041144</v>
       </c>
       <c r="M192">
         <f t="shared" si="10"/>
@@ -9715,10 +9725,10 @@
       </c>
       <c r="N192">
         <f t="shared" si="11"/>
-        <v>147.10327094765086</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+        <v>191.69202987427553</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>4</v>
       </c>
@@ -9747,7 +9757,7 @@
         <v>86</v>
       </c>
       <c r="J193">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K193">
         <f t="shared" si="8"/>
@@ -9755,7 +9765,7 @@
       </c>
       <c r="L193">
         <f t="shared" si="9"/>
-        <v>32.918234803786817</v>
+        <v>82.295587009467042</v>
       </c>
       <c r="M193">
         <f t="shared" si="10"/>
@@ -9763,10 +9773,10 @@
       </c>
       <c r="N193">
         <f t="shared" si="11"/>
-        <v>99.469198400264304</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+        <v>148.84655060594454</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>4</v>
       </c>
@@ -9795,7 +9805,7 @@
         <v>128.5</v>
       </c>
       <c r="J194">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K194">
         <f t="shared" si="8"/>
@@ -9803,7 +9813,7 @@
       </c>
       <c r="L194">
         <f t="shared" si="9"/>
-        <v>18.726342432060765</v>
+        <v>46.81585608015191</v>
       </c>
       <c r="M194">
         <f t="shared" si="10"/>
@@ -9811,10 +9821,10 @@
       </c>
       <c r="N194">
         <f t="shared" si="11"/>
-        <v>120.95976004893187</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+        <v>149.04927369702301</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>4</v>
       </c>
@@ -9843,7 +9853,7 @@
         <v>74.5</v>
       </c>
       <c r="J195">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K195">
         <f t="shared" ref="K195:K258" si="12">F195*C195</f>
@@ -9851,7 +9861,7 @@
       </c>
       <c r="L195">
         <f t="shared" ref="L195:L258" si="13">G195*D195*J195</f>
-        <v>21.958865828071254</v>
+        <v>54.897164570178134</v>
       </c>
       <c r="M195">
         <f t="shared" ref="M195:M258" si="14">H195*E195</f>
@@ -9859,10 +9869,10 @@
       </c>
       <c r="N195">
         <f t="shared" ref="N195:N258" si="15">L195+M195+H195+K195</f>
-        <v>79.146791023446411</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+        <v>112.08508976555329</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>4</v>
       </c>
@@ -9891,7 +9901,7 @@
         <v>113.5</v>
       </c>
       <c r="J196">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K196">
         <f t="shared" si="12"/>
@@ -9899,7 +9909,7 @@
       </c>
       <c r="L196">
         <f t="shared" si="13"/>
-        <v>25.044253676401269</v>
+        <v>62.610634191003172</v>
       </c>
       <c r="M196">
         <f t="shared" si="14"/>
@@ -9907,10 +9917,10 @@
       </c>
       <c r="N196">
         <f t="shared" si="15"/>
-        <v>128.14385850127343</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+        <v>165.71023901587532</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>4</v>
       </c>
@@ -9939,7 +9949,7 @@
         <v>67.83</v>
       </c>
       <c r="J197">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K197">
         <f t="shared" si="12"/>
@@ -9947,7 +9957,7 @@
       </c>
       <c r="L197">
         <f t="shared" si="13"/>
-        <v>37.45268486412153</v>
+        <v>93.63171216030382</v>
       </c>
       <c r="M197">
         <f t="shared" si="14"/>
@@ -9955,10 +9965,10 @@
       </c>
       <c r="N197">
         <f t="shared" si="15"/>
-        <v>89.035520082981662</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+        <v>145.21454737916395</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>4</v>
       </c>
@@ -9987,7 +9997,7 @@
         <v>78.8</v>
       </c>
       <c r="J198">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K198">
         <f t="shared" si="12"/>
@@ -9995,7 +10005,7 @@
       </c>
       <c r="L198">
         <f t="shared" si="13"/>
-        <v>20.420630556866264</v>
+        <v>51.051576392165657</v>
       </c>
       <c r="M198">
         <f t="shared" si="14"/>
@@ -10003,10 +10013,10 @@
       </c>
       <c r="N198">
         <f t="shared" si="15"/>
-        <v>73.727340685559184</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+        <v>104.35828652085858</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>4</v>
       </c>
@@ -10035,7 +10045,7 @@
         <v>109</v>
       </c>
       <c r="J199">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K199">
         <f t="shared" si="12"/>
@@ -10043,7 +10053,7 @@
       </c>
       <c r="L199">
         <f t="shared" si="13"/>
-        <v>30.095907480097658</v>
+        <v>75.239768700244142</v>
       </c>
       <c r="M199">
         <f t="shared" si="14"/>
@@ -10051,10 +10061,10 @@
       </c>
       <c r="N199">
         <f t="shared" si="15"/>
-        <v>114.65257894958927</v>
-      </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+        <v>159.79644016973575</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>4</v>
       </c>
@@ -10083,7 +10093,7 @@
         <v>66</v>
       </c>
       <c r="J200">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K200">
         <f t="shared" si="12"/>
@@ -10091,7 +10101,7 @@
       </c>
       <c r="L200">
         <f t="shared" si="13"/>
-        <v>23.555063587756432</v>
+        <v>58.887658969391083</v>
       </c>
       <c r="M200">
         <f t="shared" si="14"/>
@@ -10099,10 +10109,10 @@
       </c>
       <c r="N200">
         <f t="shared" si="15"/>
-        <v>66.161160902078763</v>
-      </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101.49375628371341</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>4</v>
       </c>
@@ -10131,7 +10141,7 @@
         <v>52.83</v>
       </c>
       <c r="J201">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K201">
         <f t="shared" si="12"/>
@@ -10139,7 +10149,7 @@
       </c>
       <c r="L201">
         <f t="shared" si="13"/>
-        <v>20.211073867745583</v>
+        <v>50.527684669363957</v>
       </c>
       <c r="M201">
         <f t="shared" si="14"/>
@@ -10147,10 +10157,10 @@
       </c>
       <c r="N201">
         <f t="shared" si="15"/>
-        <v>57.864073823844912</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+        <v>88.180684625463272</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>4</v>
       </c>
@@ -10179,7 +10189,7 @@
         <v>64.83</v>
       </c>
       <c r="J202">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K202">
         <f t="shared" si="12"/>
@@ -10187,7 +10197,7 @@
       </c>
       <c r="L202">
         <f t="shared" si="13"/>
-        <v>15.306555611729669</v>
+        <v>38.266389029324174</v>
       </c>
       <c r="M202">
         <f t="shared" si="14"/>
@@ -10195,10 +10205,10 @@
       </c>
       <c r="N202">
         <f t="shared" si="15"/>
-        <v>64.614109320273485</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+        <v>87.573942737867981</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>4</v>
       </c>
@@ -10227,7 +10237,7 @@
         <v>70.67</v>
       </c>
       <c r="J203">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K203">
         <f t="shared" si="12"/>
@@ -10235,7 +10245,7 @@
       </c>
       <c r="L203">
         <f t="shared" si="13"/>
-        <v>29.948771932417184</v>
+        <v>74.871929831042962</v>
       </c>
       <c r="M203">
         <f t="shared" si="14"/>
@@ -10243,10 +10253,10 @@
       </c>
       <c r="N203">
         <f t="shared" si="15"/>
-        <v>81.153298964710999</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+        <v>126.07645686333677</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>4</v>
       </c>
@@ -10275,7 +10285,7 @@
         <v>60</v>
       </c>
       <c r="J204">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K204">
         <f t="shared" si="12"/>
@@ -10283,7 +10293,7 @@
       </c>
       <c r="L204">
         <f t="shared" si="13"/>
-        <v>28.236649195771626</v>
+        <v>70.591622989429069</v>
       </c>
       <c r="M204">
         <f t="shared" si="14"/>
@@ -10291,10 +10301,10 @@
       </c>
       <c r="N204">
         <f t="shared" si="15"/>
-        <v>70.050381135078055</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+        <v>112.40535492873551</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>4</v>
       </c>
@@ -10323,7 +10333,7 @@
         <v>123.4</v>
       </c>
       <c r="J205">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K205">
         <f t="shared" si="12"/>
@@ -10331,7 +10341,7 @@
       </c>
       <c r="L205">
         <f t="shared" si="13"/>
-        <v>26.573571641686229</v>
+        <v>66.433929104215565</v>
       </c>
       <c r="M205">
         <f t="shared" si="14"/>
@@ -10339,10 +10349,10 @@
       </c>
       <c r="N205">
         <f t="shared" si="15"/>
-        <v>109.25485080236228</v>
-      </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+        <v>149.11520826489161</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>4</v>
       </c>
@@ -10371,7 +10381,7 @@
         <v>82.33</v>
       </c>
       <c r="J206">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K206">
         <f t="shared" si="12"/>
@@ -10379,7 +10389,7 @@
       </c>
       <c r="L206">
         <f t="shared" si="13"/>
-        <v>32.249436859784645</v>
+        <v>80.623592149461615</v>
       </c>
       <c r="M206">
         <f t="shared" si="14"/>
@@ -10387,10 +10397,10 @@
       </c>
       <c r="N206">
         <f t="shared" si="15"/>
-        <v>89.226212695421196</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+        <v>137.60036798509816</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>4</v>
       </c>
@@ -10419,7 +10429,7 @@
         <v>114.33</v>
       </c>
       <c r="J207">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K207">
         <f t="shared" si="12"/>
@@ -10427,7 +10437,7 @@
       </c>
       <c r="L207">
         <f t="shared" si="13"/>
-        <v>32.771099256106339</v>
+        <v>81.927748140265848</v>
       </c>
       <c r="M207">
         <f t="shared" si="14"/>
@@ -10435,10 +10445,10 @@
       </c>
       <c r="N207">
         <f t="shared" si="15"/>
-        <v>115.59892685045685</v>
-      </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+        <v>164.75557573461634</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>4</v>
       </c>
@@ -10467,7 +10477,7 @@
         <v>52.35</v>
       </c>
       <c r="J208">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K208">
         <f t="shared" si="12"/>
@@ -10475,7 +10485,7 @@
       </c>
       <c r="L208">
         <f t="shared" si="13"/>
-        <v>8.0434099398661001</v>
+        <v>20.108524849665251</v>
       </c>
       <c r="M208">
         <f t="shared" si="14"/>
@@ -10483,10 +10493,10 @@
       </c>
       <c r="N208">
         <f t="shared" si="15"/>
-        <v>43.752529796904966</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+        <v>55.817644706704115</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>5</v>
       </c>
@@ -10515,7 +10525,7 @@
         <v>54.39</v>
       </c>
       <c r="J209">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K209">
         <f t="shared" si="12"/>
@@ -10523,7 +10533,7 @@
       </c>
       <c r="L209">
         <f t="shared" si="13"/>
-        <v>10.619146376325775</v>
+        <v>26.547865940814436</v>
       </c>
       <c r="M209">
         <f t="shared" si="14"/>
@@ -10531,10 +10541,10 @@
       </c>
       <c r="N209">
         <f t="shared" si="15"/>
-        <v>37.168447459353899</v>
-      </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+        <v>53.097167023842559</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>5</v>
       </c>
@@ -10563,7 +10573,7 @@
         <v>47.07</v>
       </c>
       <c r="J210">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K210">
         <f t="shared" si="12"/>
@@ -10571,7 +10581,7 @@
       </c>
       <c r="L210">
         <f t="shared" si="13"/>
-        <v>12.719354726382468</v>
+        <v>31.798386815956171</v>
       </c>
       <c r="M210">
         <f t="shared" si="14"/>
@@ -10579,10 +10589,10 @@
       </c>
       <c r="N210">
         <f t="shared" si="15"/>
-        <v>38.766925265617672</v>
-      </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+        <v>57.845957355191373</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>5</v>
       </c>
@@ -10611,7 +10621,7 @@
         <v>56.08</v>
       </c>
       <c r="J211">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K211">
         <f t="shared" si="12"/>
@@ -10619,7 +10629,7 @@
       </c>
       <c r="L211">
         <f t="shared" si="13"/>
-        <v>13.094208539473271</v>
+        <v>32.735521348683179</v>
       </c>
       <c r="M211">
         <f t="shared" si="14"/>
@@ -10627,10 +10637,10 @@
       </c>
       <c r="N211">
         <f t="shared" si="15"/>
-        <v>48.265994951390361</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+        <v>67.907307760600276</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>5</v>
       </c>
@@ -10659,7 +10669,7 @@
         <v>45.67</v>
       </c>
       <c r="J212">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K212">
         <f t="shared" si="12"/>
@@ -10667,7 +10677,7 @@
       </c>
       <c r="L212">
         <f t="shared" si="13"/>
-        <v>8.215973985551857</v>
+        <v>20.539934963879642</v>
       </c>
       <c r="M212">
         <f t="shared" si="14"/>
@@ -10675,10 +10685,10 @@
       </c>
       <c r="N212">
         <f t="shared" si="15"/>
-        <v>43.289972073200602</v>
-      </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+        <v>55.613933051528392</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>5</v>
       </c>
@@ -10707,7 +10717,7 @@
         <v>47.03</v>
       </c>
       <c r="J213">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K213">
         <f t="shared" si="12"/>
@@ -10715,7 +10725,7 @@
       </c>
       <c r="L213">
         <f t="shared" si="13"/>
-        <v>17.120035792393683</v>
+        <v>42.800089480984205</v>
       </c>
       <c r="M213">
         <f t="shared" si="14"/>
@@ -10723,10 +10733,10 @@
       </c>
       <c r="N213">
         <f t="shared" si="15"/>
-        <v>44.051380869564547</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69.731434558155087</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>5</v>
       </c>
@@ -10755,7 +10765,7 @@
         <v>59.6</v>
       </c>
       <c r="J214">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K214">
         <f t="shared" si="12"/>
@@ -10763,7 +10773,7 @@
       </c>
       <c r="L214">
         <f t="shared" si="13"/>
-        <v>15.651430442476288</v>
+        <v>39.128576106190721</v>
       </c>
       <c r="M214">
         <f t="shared" si="14"/>
@@ -10771,10 +10781,10 @@
       </c>
       <c r="N214">
         <f t="shared" si="15"/>
-        <v>51.086242821175794</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+        <v>74.56338848489024</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>5</v>
       </c>
@@ -10803,7 +10813,7 @@
         <v>55.61</v>
       </c>
       <c r="J215">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K215">
         <f t="shared" si="12"/>
@@ -10811,7 +10821,7 @@
       </c>
       <c r="L215">
         <f t="shared" si="13"/>
-        <v>12.857999287388656</v>
+        <v>32.144998218471642</v>
       </c>
       <c r="M215">
         <f t="shared" si="14"/>
@@ -10819,10 +10829,10 @@
       </c>
       <c r="N215">
         <f t="shared" si="15"/>
-        <v>44.930180813126427</v>
-      </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+        <v>64.217179744209403</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>5</v>
       </c>
@@ -10851,7 +10861,7 @@
         <v>101.5</v>
       </c>
       <c r="J216">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K216">
         <f t="shared" si="12"/>
@@ -10859,7 +10869,7 @@
       </c>
       <c r="L216">
         <f t="shared" si="13"/>
-        <v>21.566931712073625</v>
+        <v>53.917329280184063</v>
       </c>
       <c r="M216">
         <f t="shared" si="14"/>
@@ -10867,10 +10877,10 @@
       </c>
       <c r="N216">
         <f t="shared" si="15"/>
-        <v>105.37256316200201</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+        <v>137.72296073011242</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>5</v>
       </c>
@@ -10899,7 +10909,7 @@
         <v>56.76</v>
       </c>
       <c r="J217">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K217">
         <f t="shared" si="12"/>
@@ -10907,7 +10917,7 @@
       </c>
       <c r="L217">
         <f t="shared" si="13"/>
-        <v>25.2743899730539</v>
+        <v>63.18597493263475</v>
       </c>
       <c r="M217">
         <f t="shared" si="14"/>
@@ -10915,10 +10925,10 @@
       </c>
       <c r="N217">
         <f t="shared" si="15"/>
-        <v>57.232819229016485</v>
-      </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+        <v>95.144404188597335</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>5</v>
       </c>
@@ -10947,7 +10957,7 @@
         <v>73.64</v>
       </c>
       <c r="J218">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K218">
         <f t="shared" si="12"/>
@@ -10955,7 +10965,7 @@
       </c>
       <c r="L218">
         <f t="shared" si="13"/>
-        <v>18.193247394256392</v>
+        <v>45.483118485640979</v>
       </c>
       <c r="M218">
         <f t="shared" si="14"/>
@@ -10963,10 +10973,10 @@
       </c>
       <c r="N218">
         <f t="shared" si="15"/>
-        <v>62.180170769670568</v>
-      </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+        <v>89.470041861055137</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>5</v>
       </c>
@@ -10995,7 +11005,7 @@
         <v>62.67</v>
       </c>
       <c r="J219">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K219">
         <f t="shared" si="12"/>
@@ -11003,7 +11013,7 @@
       </c>
       <c r="L219">
         <f t="shared" si="13"/>
-        <v>20.370480500427636</v>
+        <v>50.926201251069088</v>
       </c>
       <c r="M219">
         <f t="shared" si="14"/>
@@ -11011,10 +11021,10 @@
       </c>
       <c r="N219">
         <f t="shared" si="15"/>
-        <v>56.534152033137644</v>
-      </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+        <v>87.0898727837791</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>5</v>
       </c>
@@ -11043,7 +11053,7 @@
         <v>51.93</v>
       </c>
       <c r="J220">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K220">
         <f t="shared" si="12"/>
@@ -11051,7 +11061,7 @@
       </c>
       <c r="L220">
         <f t="shared" si="13"/>
-        <v>11.764247750562065</v>
+        <v>29.410619376405162</v>
       </c>
       <c r="M220">
         <f t="shared" si="14"/>
@@ -11059,10 +11069,10 @@
       </c>
       <c r="N220">
         <f t="shared" si="15"/>
-        <v>47.121080211487701</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+        <v>64.767451837330796</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>5</v>
       </c>
@@ -11091,7 +11101,7 @@
         <v>81</v>
       </c>
       <c r="J221">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K221">
         <f t="shared" si="12"/>
@@ -11099,7 +11109,7 @@
       </c>
       <c r="L221">
         <f t="shared" si="13"/>
-        <v>31.066651632867959</v>
+        <v>77.666629082169891</v>
       </c>
       <c r="M221">
         <f t="shared" si="14"/>
@@ -11107,10 +11117,10 @@
       </c>
       <c r="N221">
         <f t="shared" si="15"/>
-        <v>96.823189110581211</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+        <v>143.42316655988313</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>5</v>
       </c>
@@ -11139,7 +11149,7 @@
         <v>38.5</v>
       </c>
       <c r="J222">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K222">
         <f t="shared" si="12"/>
@@ -11147,7 +11157,7 @@
       </c>
       <c r="L222">
         <f t="shared" si="13"/>
-        <v>22.593928460267605</v>
+        <v>56.484821150669013</v>
       </c>
       <c r="M222">
         <f t="shared" si="14"/>
@@ -11155,10 +11165,10 @@
       </c>
       <c r="N222">
         <f t="shared" si="15"/>
-        <v>50.649633214690596</v>
-      </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+        <v>84.540525905092011</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>5</v>
       </c>
@@ -11187,7 +11197,7 @@
         <v>116</v>
       </c>
       <c r="J223">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K223">
         <f t="shared" si="12"/>
@@ -11195,7 +11205,7 @@
       </c>
       <c r="L223">
         <f t="shared" si="13"/>
-        <v>20.796684150928137</v>
+        <v>51.991710377320345</v>
       </c>
       <c r="M223">
         <f t="shared" si="14"/>
@@ -11203,10 +11213,10 @@
       </c>
       <c r="N223">
         <f t="shared" si="15"/>
-        <v>112.8495680787068</v>
-      </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+        <v>144.044594305099</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>5</v>
       </c>
@@ -11235,7 +11245,7 @@
         <v>96.5</v>
       </c>
       <c r="J224">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K224">
         <f t="shared" si="12"/>
@@ -11243,7 +11253,7 @@
       </c>
       <c r="L224">
         <f t="shared" si="13"/>
-        <v>32.350397568110438</v>
+        <v>80.875993920276102</v>
       </c>
       <c r="M224">
         <f t="shared" si="14"/>
@@ -11251,10 +11261,10 @@
       </c>
       <c r="N224">
         <f t="shared" si="15"/>
-        <v>102.11250528827757</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+        <v>150.63810164044321</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>5</v>
       </c>
@@ -11283,7 +11293,7 @@
         <v>105</v>
       </c>
       <c r="J225">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K225">
         <f t="shared" si="12"/>
@@ -11291,7 +11301,7 @@
       </c>
       <c r="L225">
         <f t="shared" si="13"/>
-        <v>24.647921956655573</v>
+        <v>61.619804891638935</v>
       </c>
       <c r="M225">
         <f t="shared" si="14"/>
@@ -11299,10 +11309,10 @@
       </c>
       <c r="N225">
         <f t="shared" si="15"/>
-        <v>100.50509833187525</v>
-      </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+        <v>137.47698126685862</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>5</v>
       </c>
@@ -11331,7 +11341,7 @@
         <v>53.5</v>
       </c>
       <c r="J226">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K226">
         <f t="shared" si="12"/>
@@ -11339,7 +11349,7 @@
       </c>
       <c r="L226">
         <f t="shared" si="13"/>
-        <v>14.37795447471575</v>
+        <v>35.944886186789375</v>
       </c>
       <c r="M226">
         <f t="shared" si="14"/>
@@ -11347,10 +11357,10 @@
       </c>
       <c r="N226">
         <f t="shared" si="15"/>
-        <v>50.350771598747933</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+        <v>71.917703310821565</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>5</v>
       </c>
@@ -11379,7 +11389,7 @@
         <v>58.5</v>
       </c>
       <c r="J227">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K227">
         <f t="shared" si="12"/>
@@ -11387,7 +11397,7 @@
       </c>
       <c r="L227">
         <f t="shared" si="13"/>
-        <v>20.796684150928137</v>
+        <v>51.991710377320345</v>
       </c>
       <c r="M227">
         <f t="shared" si="14"/>
@@ -11395,10 +11405,10 @@
       </c>
       <c r="N227">
         <f t="shared" si="15"/>
-        <v>64.623928234370467</v>
-      </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+        <v>95.818954460762669</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>5</v>
       </c>
@@ -11427,7 +11437,7 @@
         <v>51</v>
       </c>
       <c r="J228">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K228">
         <f t="shared" si="12"/>
@@ -11435,7 +11445,7 @@
       </c>
       <c r="L228">
         <f t="shared" si="13"/>
-        <v>36.971882934983356</v>
+        <v>92.429707337458382</v>
       </c>
       <c r="M228">
         <f t="shared" si="14"/>
@@ -11443,10 +11453,10 @@
       </c>
       <c r="N228">
         <f t="shared" si="15"/>
-        <v>71.122656344458903</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+        <v>126.58048074693392</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>5</v>
       </c>
@@ -11475,7 +11485,7 @@
         <v>72</v>
       </c>
       <c r="J229">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K229">
         <f t="shared" si="12"/>
@@ -11483,7 +11493,7 @@
       </c>
       <c r="L229">
         <f t="shared" si="13"/>
-        <v>26.701915453043537</v>
+        <v>66.754788632608836</v>
       </c>
       <c r="M229">
         <f t="shared" si="14"/>
@@ -11491,10 +11501,10 @@
       </c>
       <c r="N229">
         <f t="shared" si="15"/>
-        <v>81.509477586171087</v>
-      </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+        <v>121.56235076573638</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>5</v>
       </c>
@@ -11523,7 +11533,7 @@
         <v>101.5</v>
       </c>
       <c r="J230">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K230">
         <f t="shared" si="12"/>
@@ -11531,7 +11541,7 @@
       </c>
       <c r="L230">
         <f t="shared" si="13"/>
-        <v>23.620925208461589</v>
+        <v>59.052313021153971</v>
       </c>
       <c r="M230">
         <f t="shared" si="14"/>
@@ -11539,10 +11549,10 @@
       </c>
       <c r="N230">
         <f t="shared" si="15"/>
-        <v>111.3694414906448</v>
-      </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+        <v>146.8008293033372</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>5</v>
       </c>
@@ -11571,7 +11581,7 @@
         <v>67</v>
       </c>
       <c r="J231">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K231">
         <f t="shared" si="12"/>
@@ -11579,7 +11589,7 @@
       </c>
       <c r="L231">
         <f t="shared" si="13"/>
-        <v>33.634143503352917</v>
+        <v>84.085358758382284</v>
       </c>
       <c r="M231">
         <f t="shared" si="14"/>
@@ -11587,10 +11597,10 @@
       </c>
       <c r="N231">
         <f t="shared" si="15"/>
-        <v>85.834010885043597</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+        <v>136.28522614007295</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>5</v>
       </c>
@@ -11619,7 +11629,7 @@
         <v>88</v>
       </c>
       <c r="J232">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K232">
         <f t="shared" si="12"/>
@@ -11627,7 +11637,7 @@
       </c>
       <c r="L232">
         <f t="shared" si="13"/>
-        <v>25.161420330752563</v>
+        <v>62.903550826881407</v>
       </c>
       <c r="M232">
         <f t="shared" si="14"/>
@@ -11635,10 +11645,10 @@
       </c>
       <c r="N232">
         <f t="shared" si="15"/>
-        <v>87.430583904850138</v>
-      </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+        <v>125.17271440097899</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>5</v>
       </c>
@@ -11667,7 +11677,7 @@
         <v>46.25</v>
       </c>
       <c r="J233">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K233">
         <f t="shared" si="12"/>
@@ -11675,7 +11685,7 @@
       </c>
       <c r="L233">
         <f t="shared" si="13"/>
-        <v>25.289794924276809</v>
+        <v>63.22448731069202</v>
       </c>
       <c r="M233">
         <f t="shared" si="14"/>
@@ -11683,10 +11693,10 @@
       </c>
       <c r="N233">
         <f t="shared" si="15"/>
-        <v>46.535821925588991</v>
-      </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+        <v>84.470514312004198</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>5</v>
       </c>
@@ -11715,7 +11725,7 @@
         <v>59.5</v>
       </c>
       <c r="J234">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K234">
         <f t="shared" si="12"/>
@@ -11723,7 +11733,7 @@
       </c>
       <c r="L234">
         <f t="shared" si="13"/>
-        <v>20.113731313379141</v>
+        <v>50.284328283447849</v>
       </c>
       <c r="M234">
         <f t="shared" si="14"/>
@@ -11731,10 +11741,10 @@
       </c>
       <c r="N234">
         <f t="shared" si="15"/>
-        <v>68.028077425079772</v>
-      </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+        <v>98.198674395148473</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>5</v>
       </c>
@@ -11763,7 +11773,7 @@
         <v>51.5</v>
       </c>
       <c r="J235">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K235">
         <f t="shared" si="12"/>
@@ -11771,7 +11781,7 @@
       </c>
       <c r="L235">
         <f t="shared" si="13"/>
-        <v>21.053433337976635</v>
+        <v>52.633583344941584</v>
       </c>
       <c r="M235">
         <f t="shared" si="14"/>
@@ -11779,10 +11789,10 @@
       </c>
       <c r="N235">
         <f t="shared" si="15"/>
-        <v>60.9064498840646</v>
-      </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+        <v>92.486599891029556</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>5</v>
       </c>
@@ -11811,7 +11821,7 @@
         <v>30.5</v>
       </c>
       <c r="J236">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K236">
         <f t="shared" si="12"/>
@@ -11819,7 +11829,7 @@
       </c>
       <c r="L236">
         <f t="shared" si="13"/>
-        <v>14.634703661764245</v>
+        <v>36.586759154410615</v>
       </c>
       <c r="M236">
         <f t="shared" si="14"/>
@@ -11827,10 +11837,10 @@
       </c>
       <c r="N236">
         <f t="shared" si="15"/>
-        <v>39.627202736111201</v>
-      </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+        <v>61.579258228757574</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>5</v>
       </c>
@@ -11859,7 +11869,7 @@
         <v>81</v>
       </c>
       <c r="J237">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K237">
         <f t="shared" si="12"/>
@@ -11867,7 +11877,7 @@
       </c>
       <c r="L237">
         <f t="shared" si="13"/>
-        <v>20.709389427331647</v>
+        <v>51.773473568329116</v>
       </c>
       <c r="M237">
         <f t="shared" si="14"/>
@@ -11875,10 +11885,10 @@
       </c>
       <c r="N237">
         <f t="shared" si="15"/>
-        <v>81.112963760878159</v>
-      </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+        <v>112.17704790187562</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>5</v>
       </c>
@@ -11907,7 +11917,7 @@
         <v>38</v>
       </c>
       <c r="J238">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K238">
         <f t="shared" si="12"/>
@@ -11915,7 +11925,7 @@
       </c>
       <c r="L238">
         <f t="shared" si="13"/>
-        <v>13.864456100618758</v>
+        <v>34.661140251546897</v>
       </c>
       <c r="M238">
         <f t="shared" si="14"/>
@@ -11923,10 +11933,10 @@
       </c>
       <c r="N238">
         <f t="shared" si="15"/>
-        <v>40.584970774223791</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+        <v>61.381654925151935</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>5</v>
       </c>
@@ -11955,7 +11965,7 @@
         <v>62</v>
       </c>
       <c r="J239">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K239">
         <f t="shared" si="12"/>
@@ -11963,7 +11973,7 @@
       </c>
       <c r="L239">
         <f t="shared" si="13"/>
-        <v>30.296404071722474</v>
+        <v>75.741010179306187</v>
       </c>
       <c r="M239">
         <f t="shared" si="14"/>
@@ -11971,10 +11981,10 @@
       </c>
       <c r="N239">
         <f t="shared" si="15"/>
-        <v>69.238398760532121</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+        <v>114.68300486811584</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>5</v>
       </c>
@@ -12003,7 +12013,7 @@
         <v>166.33</v>
       </c>
       <c r="J240">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K240">
         <f t="shared" si="12"/>
@@ -12011,7 +12021,7 @@
       </c>
       <c r="L240">
         <f t="shared" si="13"/>
-        <v>6.3314349526158997</v>
+        <v>15.82858738153975</v>
       </c>
       <c r="M240">
         <f t="shared" si="14"/>
@@ -12019,10 +12029,10 @@
       </c>
       <c r="N240">
         <f t="shared" si="15"/>
-        <v>28.530022854689143</v>
-      </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+        <v>38.027175283612998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>5</v>
       </c>
@@ -12051,7 +12061,7 @@
         <v>32.5</v>
       </c>
       <c r="J241">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K241">
         <f t="shared" si="12"/>
@@ -12059,7 +12069,7 @@
       </c>
       <c r="L241">
         <f t="shared" si="13"/>
-        <v>19.256189028637166</v>
+        <v>48.140472571592916</v>
       </c>
       <c r="M241">
         <f t="shared" si="14"/>
@@ -12067,10 +12077,10 @@
       </c>
       <c r="N241">
         <f t="shared" si="15"/>
-        <v>42.033818869987371</v>
-      </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+        <v>70.918102412943114</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>5</v>
       </c>
@@ -12099,7 +12109,7 @@
         <v>49.5</v>
       </c>
       <c r="J242">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K242">
         <f t="shared" si="12"/>
@@ -12107,7 +12117,7 @@
       </c>
       <c r="L242">
         <f t="shared" si="13"/>
-        <v>16.688697158152209</v>
+        <v>41.721742895380522</v>
       </c>
       <c r="M242">
         <f t="shared" si="14"/>
@@ -12115,10 +12125,10 @@
       </c>
       <c r="N242">
         <f t="shared" si="15"/>
-        <v>56.117545480700542</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+        <v>81.150591217928849</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>5</v>
       </c>
@@ -12147,7 +12157,7 @@
         <v>42.5</v>
       </c>
       <c r="J243">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K243">
         <f t="shared" si="12"/>
@@ -12155,7 +12165,7 @@
       </c>
       <c r="L243">
         <f t="shared" si="13"/>
-        <v>18.229192280443183</v>
+        <v>45.572980701107959</v>
       </c>
       <c r="M243">
         <f t="shared" si="14"/>
@@ -12163,10 +12173,10 @@
       </c>
       <c r="N243">
         <f t="shared" si="15"/>
-        <v>44.918364248948691</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+        <v>72.262152669613471</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>5</v>
       </c>
@@ -12195,7 +12205,7 @@
         <v>50.14</v>
       </c>
       <c r="J244">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K244">
         <f t="shared" si="12"/>
@@ -12203,7 +12213,7 @@
       </c>
       <c r="L244">
         <f t="shared" si="13"/>
-        <v>18.557831239865259</v>
+        <v>46.39457809966315</v>
       </c>
       <c r="M244">
         <f t="shared" si="14"/>
@@ -12211,10 +12221,10 @@
       </c>
       <c r="N244">
         <f t="shared" si="15"/>
-        <v>56.829640135482279</v>
-      </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+        <v>84.666386995280163</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>5</v>
       </c>
@@ -12243,7 +12253,7 @@
         <v>34</v>
       </c>
       <c r="J245">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K245">
         <f t="shared" si="12"/>
@@ -12251,7 +12261,7 @@
       </c>
       <c r="L245">
         <f t="shared" si="13"/>
-        <v>20.026436589782652</v>
+        <v>50.066091474456627</v>
       </c>
       <c r="M245">
         <f t="shared" si="14"/>
@@ -12259,10 +12269,10 @@
       </c>
       <c r="N245">
         <f t="shared" si="15"/>
-        <v>43.228234654672491</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+        <v>73.26788953934647</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>5</v>
       </c>
@@ -12291,7 +12301,7 @@
         <v>44.43</v>
       </c>
       <c r="J246">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K246">
         <f t="shared" si="12"/>
@@ -12299,7 +12309,7 @@
       </c>
       <c r="L246">
         <f t="shared" si="13"/>
-        <v>15.55386575139786</v>
+        <v>38.884664378494648</v>
       </c>
       <c r="M246">
         <f t="shared" si="14"/>
@@ -12307,10 +12317,10 @@
       </c>
       <c r="N246">
         <f t="shared" si="15"/>
-        <v>44.453518974186188</v>
-      </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+        <v>67.784317601282979</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>5</v>
       </c>
@@ -12339,7 +12349,7 @@
         <v>63.5</v>
       </c>
       <c r="J247">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K247">
         <f t="shared" si="12"/>
@@ -12347,7 +12357,7 @@
       </c>
       <c r="L247">
         <f t="shared" si="13"/>
-        <v>21.053433337976635</v>
+        <v>52.633583344941584</v>
       </c>
       <c r="M247">
         <f t="shared" si="14"/>
@@ -12355,10 +12365,10 @@
       </c>
       <c r="N247">
         <f t="shared" si="15"/>
-        <v>67.787463084596624</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+        <v>99.36761309156158</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>5</v>
       </c>
@@ -12387,7 +12397,7 @@
         <v>42</v>
       </c>
       <c r="J248">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K248">
         <f t="shared" si="12"/>
@@ -12395,7 +12405,7 @@
       </c>
       <c r="L248">
         <f t="shared" si="13"/>
-        <v>15.918449597006722</v>
+        <v>39.796123992516804</v>
       </c>
       <c r="M248">
         <f t="shared" si="14"/>
@@ -12403,10 +12413,10 @@
       </c>
       <c r="N248">
         <f t="shared" si="15"/>
-        <v>48.828061040962872</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+        <v>72.705735436472949</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>5</v>
       </c>
@@ -12435,7 +12445,7 @@
         <v>47.71</v>
       </c>
       <c r="J249">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K249">
         <f t="shared" si="12"/>
@@ -12443,7 +12453,7 @@
       </c>
       <c r="L249">
         <f t="shared" si="13"/>
-        <v>14.598758775577457</v>
+        <v>36.496896938943642</v>
       </c>
       <c r="M249">
         <f t="shared" si="14"/>
@@ -12451,10 +12461,10 @@
       </c>
       <c r="N249">
         <f t="shared" si="15"/>
-        <v>51.820427702746457</v>
-      </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+        <v>73.718565866112641</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>5</v>
       </c>
@@ -12483,7 +12493,7 @@
         <v>39.5</v>
       </c>
       <c r="J250">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K250">
         <f t="shared" si="12"/>
@@ -12491,7 +12501,7 @@
       </c>
       <c r="L250">
         <f t="shared" si="13"/>
-        <v>32.863895942207428</v>
+        <v>82.159739855518566</v>
       </c>
       <c r="M250">
         <f t="shared" si="14"/>
@@ -12499,10 +12509,10 @@
       </c>
       <c r="N250">
         <f t="shared" si="15"/>
-        <v>63.103127224527654</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+        <v>112.3989711378388</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>5</v>
       </c>
@@ -12531,7 +12541,7 @@
         <v>62.75</v>
       </c>
       <c r="J251">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K251">
         <f t="shared" si="12"/>
@@ -12539,7 +12549,7 @@
       </c>
       <c r="L251">
         <f t="shared" si="13"/>
-        <v>10.557526571434135</v>
+        <v>26.393816428585339</v>
       </c>
       <c r="M251">
         <f t="shared" si="14"/>
@@ -12547,10 +12557,10 @@
       </c>
       <c r="N251">
         <f t="shared" si="15"/>
-        <v>39.003131830368673</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+        <v>54.839421687519881</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>5</v>
       </c>
@@ -12579,7 +12589,7 @@
         <v>49.5</v>
       </c>
       <c r="J252">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K252">
         <f t="shared" si="12"/>
@@ -12587,7 +12597,7 @@
       </c>
       <c r="L252">
         <f t="shared" si="13"/>
-        <v>25.161420330752563</v>
+        <v>62.903550826881407</v>
       </c>
       <c r="M252">
         <f t="shared" si="14"/>
@@ -12595,10 +12605,10 @@
       </c>
       <c r="N252">
         <f t="shared" si="15"/>
-        <v>61.982573901864022</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+        <v>99.724704397992866</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>5</v>
       </c>
@@ -12627,7 +12637,7 @@
         <v>68.5</v>
       </c>
       <c r="J253">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K253">
         <f t="shared" si="12"/>
@@ -12635,7 +12645,7 @@
       </c>
       <c r="L253">
         <f t="shared" si="13"/>
-        <v>28.155115851738017</v>
+        <v>70.387789629345036</v>
       </c>
       <c r="M253">
         <f t="shared" si="14"/>
@@ -12643,10 +12653,10 @@
       </c>
       <c r="N253">
         <f t="shared" si="15"/>
-        <v>78.252988491335884</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+        <v>120.4856622689429</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>5</v>
       </c>
@@ -12675,7 +12685,7 @@
         <v>69.5</v>
       </c>
       <c r="J254">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K254">
         <f t="shared" si="12"/>
@@ -12683,7 +12693,7 @@
       </c>
       <c r="L254">
         <f t="shared" si="13"/>
-        <v>23.620925208461589</v>
+        <v>59.052313021153971</v>
       </c>
       <c r="M254">
         <f t="shared" si="14"/>
@@ -12691,10 +12701,10 @@
       </c>
       <c r="N254">
         <f t="shared" si="15"/>
-        <v>74.454259804234781</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109.88564761692717</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>5</v>
       </c>
@@ -12723,7 +12733,7 @@
         <v>86.5</v>
       </c>
       <c r="J255">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K255">
         <f t="shared" si="12"/>
@@ -12731,7 +12741,7 @@
       </c>
       <c r="L255">
         <f t="shared" si="13"/>
-        <v>19.898061996258402</v>
+        <v>49.745154990646007</v>
       </c>
       <c r="M255">
         <f t="shared" si="14"/>
@@ -12739,10 +12749,10 @@
       </c>
       <c r="N255">
         <f t="shared" si="15"/>
-        <v>67.699533617055081</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+        <v>97.54662661144269</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>5</v>
       </c>
@@ -12771,7 +12781,7 @@
         <v>85</v>
       </c>
       <c r="J256">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K256">
         <f t="shared" si="12"/>
@@ -12779,7 +12789,7 @@
       </c>
       <c r="L256">
         <f t="shared" si="13"/>
-        <v>44.931107733486719</v>
+        <v>112.3277693337168</v>
       </c>
       <c r="M256">
         <f t="shared" si="14"/>
@@ -12787,10 +12797,10 @@
       </c>
       <c r="N256">
         <f t="shared" si="15"/>
-        <v>102.73919013649126</v>
-      </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+        <v>170.13585173672135</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>5</v>
       </c>
@@ -12819,7 +12829,7 @@
         <v>63.5</v>
       </c>
       <c r="J257">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K257">
         <f t="shared" si="12"/>
@@ -12827,7 +12837,7 @@
       </c>
       <c r="L257">
         <f t="shared" si="13"/>
-        <v>46.471602855777689</v>
+        <v>116.17900713944422</v>
       </c>
       <c r="M257">
         <f t="shared" si="14"/>
@@ -12835,10 +12845,10 @@
       </c>
       <c r="N257">
         <f t="shared" si="15"/>
-        <v>87.628466777584094</v>
-      </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+        <v>157.33587106125063</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>5</v>
       </c>
@@ -12867,7 +12877,7 @@
         <v>97</v>
       </c>
       <c r="J258">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K258">
         <f t="shared" si="12"/>
@@ -12875,7 +12885,7 @@
       </c>
       <c r="L258">
         <f t="shared" si="13"/>
-        <v>39.025876431371323</v>
+        <v>97.564691078428311</v>
       </c>
       <c r="M258">
         <f t="shared" si="14"/>
@@ -12883,10 +12893,10 @@
       </c>
       <c r="N258">
         <f t="shared" si="15"/>
-        <v>104.32690298044541</v>
-      </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+        <v>162.86571762750239</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>5</v>
       </c>
@@ -12915,7 +12925,7 @@
         <v>81</v>
       </c>
       <c r="J259">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K259">
         <f t="shared" ref="K259:K270" si="16">F259*C259</f>
@@ -12923,7 +12933,7 @@
       </c>
       <c r="L259">
         <f t="shared" ref="L259:L270" si="17">G259*D259*J259</f>
-        <v>21.140728061573125</v>
+        <v>52.851820153932813</v>
       </c>
       <c r="M259">
         <f t="shared" ref="M259:M270" si="18">H259*E259</f>
@@ -12931,10 +12941,10 @@
       </c>
       <c r="N259">
         <f t="shared" ref="N259:N270" si="19">L259+M259+H259+K259</f>
-        <v>80.440420562293994</v>
-      </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+        <v>112.15151265465367</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>5</v>
       </c>
@@ -12963,7 +12973,7 @@
         <v>98</v>
       </c>
       <c r="J260">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K260">
         <f t="shared" si="16"/>
@@ -12971,7 +12981,7 @@
       </c>
       <c r="L260">
         <f t="shared" si="17"/>
-        <v>46.045399205277192</v>
+        <v>115.11349801319298</v>
       </c>
       <c r="M260">
         <f t="shared" si="18"/>
@@ -12979,10 +12989,10 @@
       </c>
       <c r="N260">
         <f t="shared" si="19"/>
-        <v>126.73734238582539</v>
-      </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+        <v>195.80544119374116</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>5</v>
       </c>
@@ -13011,7 +13021,7 @@
         <v>103</v>
       </c>
       <c r="J261">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K261">
         <f t="shared" si="16"/>
@@ -13019,7 +13029,7 @@
       </c>
       <c r="L261">
         <f t="shared" si="17"/>
-        <v>74.20051505701521</v>
+        <v>185.50128764253802</v>
       </c>
       <c r="M261">
         <f t="shared" si="18"/>
@@ -13027,10 +13037,10 @@
       </c>
       <c r="N261">
         <f t="shared" si="19"/>
-        <v>145.20378474270171</v>
-      </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+        <v>256.50455732822451</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>5</v>
       </c>
@@ -13059,7 +13069,7 @@
         <v>141</v>
       </c>
       <c r="J262">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K262">
         <f t="shared" si="16"/>
@@ -13067,7 +13077,7 @@
       </c>
       <c r="L262">
         <f t="shared" si="17"/>
-        <v>44.160860172341231</v>
+        <v>110.40215043085308</v>
       </c>
       <c r="M262">
         <f t="shared" si="18"/>
@@ -13075,10 +13085,10 @@
       </c>
       <c r="N262">
         <f t="shared" si="19"/>
-        <v>155.07983181431476</v>
-      </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+        <v>221.3211220728266</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>5</v>
       </c>
@@ -13107,7 +13117,7 @@
         <v>117.5</v>
       </c>
       <c r="J263">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K263">
         <f t="shared" si="16"/>
@@ -13115,7 +13125,7 @@
       </c>
       <c r="L263">
         <f t="shared" si="17"/>
-        <v>67.525036193754318</v>
+        <v>168.81259048438579</v>
       </c>
       <c r="M263">
         <f t="shared" si="18"/>
@@ -13123,10 +13133,10 @@
       </c>
       <c r="N263">
         <f t="shared" si="19"/>
-        <v>140.28766418379843</v>
-      </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+        <v>241.5752184744299</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>5</v>
       </c>
@@ -13155,7 +13165,7 @@
         <v>34.5</v>
       </c>
       <c r="J264">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K264">
         <f t="shared" si="16"/>
@@ -13163,7 +13173,7 @@
       </c>
       <c r="L264">
         <f t="shared" si="17"/>
-        <v>17.202195532249199</v>
+        <v>43.005488830622994</v>
       </c>
       <c r="M264">
         <f t="shared" si="18"/>
@@ -13171,10 +13181,10 @@
       </c>
       <c r="N264">
         <f t="shared" si="19"/>
-        <v>40.435336302238561</v>
-      </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+        <v>66.238629600612356</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>5</v>
       </c>
@@ -13203,7 +13213,7 @@
         <v>54.45</v>
       </c>
       <c r="J265">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K265">
         <f t="shared" si="16"/>
@@ -13211,7 +13221,7 @@
       </c>
       <c r="L265">
         <f t="shared" si="17"/>
-        <v>23.995779021552391</v>
+        <v>59.989447553880979</v>
       </c>
       <c r="M265">
         <f t="shared" si="18"/>
@@ -13219,10 +13229,10 @@
       </c>
       <c r="N265">
         <f t="shared" si="19"/>
-        <v>66.052047165656376</v>
-      </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102.04571569798496</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>5</v>
       </c>
@@ -13251,7 +13261,7 @@
         <v>37.5</v>
       </c>
       <c r="J266">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K266">
         <f t="shared" si="16"/>
@@ -13259,7 +13269,7 @@
       </c>
       <c r="L266">
         <f t="shared" si="17"/>
-        <v>23.620925208461589</v>
+        <v>59.052313021153971</v>
       </c>
       <c r="M266">
         <f t="shared" si="18"/>
@@ -13267,10 +13277,10 @@
       </c>
       <c r="N266">
         <f t="shared" si="19"/>
-        <v>40.696311913199359</v>
-      </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+        <v>76.127699725891745</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>5</v>
       </c>
@@ -13299,7 +13309,7 @@
         <v>49.67</v>
       </c>
       <c r="J267">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K267">
         <f t="shared" si="16"/>
@@ -13307,7 +13317,7 @@
       </c>
       <c r="L267">
         <f t="shared" si="17"/>
-        <v>21.39747724862162</v>
+        <v>53.493693121554045</v>
       </c>
       <c r="M267">
         <f t="shared" si="18"/>
@@ -13315,10 +13325,10 @@
       </c>
       <c r="N267">
         <f t="shared" si="19"/>
-        <v>56.116636077640273</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+        <v>88.212851950572698</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>5</v>
       </c>
@@ -13347,7 +13357,7 @@
         <v>80</v>
       </c>
       <c r="J268">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K268">
         <f t="shared" si="16"/>
@@ -13355,7 +13365,7 @@
       </c>
       <c r="L268">
         <f t="shared" si="17"/>
-        <v>25.674918704849553</v>
+        <v>64.187296762123879</v>
       </c>
       <c r="M268">
         <f t="shared" si="18"/>
@@ -13363,10 +13373,10 @@
       </c>
       <c r="N268">
         <f t="shared" si="19"/>
-        <v>85.760555751049893</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+        <v>124.27293380832423</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>5</v>
       </c>
@@ -13395,7 +13405,7 @@
         <v>54</v>
       </c>
       <c r="J269">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K269">
         <f t="shared" si="16"/>
@@ -13403,7 +13413,7 @@
       </c>
       <c r="L269">
         <f t="shared" si="17"/>
-        <v>37.485381309080346</v>
+        <v>93.71345327270086</v>
       </c>
       <c r="M269">
         <f t="shared" si="18"/>
@@ -13411,10 +13421,10 @@
       </c>
       <c r="N269">
         <f t="shared" si="19"/>
-        <v>71.636154718555886</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+        <v>127.86422668217639</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>5</v>
       </c>
@@ -13443,7 +13453,7 @@
         <v>50.3</v>
       </c>
       <c r="J270">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K270">
         <f t="shared" si="16"/>
@@ -13451,7 +13461,7 @@
       </c>
       <c r="L270">
         <f t="shared" si="17"/>
-        <v>13.710406588389661</v>
+        <v>34.276016470974156</v>
       </c>
       <c r="M270">
         <f t="shared" si="18"/>
@@ -13459,38 +13469,38 @@
       </c>
       <c r="N270">
         <f t="shared" si="19"/>
-        <v>49.020434248247398</v>
-      </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69.586044130831894</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D271" s="6"/>
       <c r="E271" s="6"/>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D272" s="6"/>
       <c r="E272" s="6"/>
     </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D273" s="6"/>
       <c r="E273" s="6"/>
     </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D274" s="6"/>
       <c r="E274" s="6"/>
     </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
     </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
     </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
     </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
     </row>
